--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>5.498</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>5.498</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>5.498</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>5.498</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>5.498</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.0699999999999994</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>42.85714285714358</v>
+      </c>
       <c r="L17" t="n">
         <v>5.501</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.0699999999999994</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>5.504</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.0699999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>5.509</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.0699999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>5.512</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.07999999999999918</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>5.516</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>5.523000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>63.63636363636422</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>5.53</v>
@@ -1466,7 +1488,7 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="K24" t="n">
-        <v>63.63636363636422</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>5.537000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>63.63636363636422</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>5.544</v>
@@ -1564,7 +1586,7 @@
         <v>0.1199999999999992</v>
       </c>
       <c r="K26" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>5.552</v>
@@ -1613,7 +1635,7 @@
         <v>0.1199999999999992</v>
       </c>
       <c r="K27" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>5.557</v>
@@ -1662,7 +1684,7 @@
         <v>0.1199999999999992</v>
       </c>
       <c r="K28" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>5.561999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>81.81818181818211</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L29" t="n">
         <v>5.566</v>
@@ -1760,7 +1782,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>77.77777777777821</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L30" t="n">
         <v>5.569999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.1499999999999995</v>
       </c>
       <c r="K31" t="n">
-        <v>45.45454545454516</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L31" t="n">
         <v>5.571</v>
@@ -1860,7 +1882,7 @@
         <v>0.1599999999999993</v>
       </c>
       <c r="K32" t="n">
-        <v>33.33333333333333</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L32" t="n">
         <v>5.568</v>
@@ -1911,7 +1933,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L33" t="n">
         <v>5.560999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K34" t="n">
-        <v>20</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L34" t="n">
         <v>5.557999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K35" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>5.554999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K36" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>5.550999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K37" t="n">
-        <v>5.882352941176348</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>5.546999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K38" t="n">
-        <v>5.882352941176348</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L38" t="n">
         <v>5.542999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K39" t="n">
-        <v>5.882352941176348</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L39" t="n">
         <v>5.539999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>-10.00000000000022</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>5.533999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>-15.78947368421063</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L41" t="n">
         <v>5.529999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>0.2799999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>-29.41176470588278</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L42" t="n">
         <v>5.528</v>
@@ -2421,7 +2443,7 @@
         <v>0.2899999999999991</v>
       </c>
       <c r="K43" t="n">
-        <v>-33.33333333333366</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L43" t="n">
         <v>5.528999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>0.3199999999999994</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.28571428571441</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>5.528999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>0.3299999999999992</v>
       </c>
       <c r="K45" t="n">
-        <v>-9.09090909090931</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L45" t="n">
         <v>5.529999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>0.339999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.09090909090931</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L46" t="n">
         <v>5.531999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>0.339999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.09090909090931</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L47" t="n">
         <v>5.534</v>
@@ -2676,7 +2698,7 @@
         <v>0.3499999999999996</v>
       </c>
       <c r="K48" t="n">
-        <v>-4.347826086956421</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L48" t="n">
         <v>5.537</v>
@@ -2727,7 +2749,7 @@
         <v>0.3600000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.34782608695679</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L49" t="n">
         <v>5.539</v>
@@ -2778,7 +2800,7 @@
         <v>0.370000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>59.99999999999964</v>
       </c>
       <c r="L50" t="n">
         <v>5.545</v>
@@ -2829,7 +2851,7 @@
         <v>0.370000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>9.090909090909239</v>
+        <v>55.55555555555534</v>
       </c>
       <c r="L51" t="n">
         <v>5.551</v>
@@ -2880,7 +2902,7 @@
         <v>0.3800000000000017</v>
       </c>
       <c r="K52" t="n">
-        <v>9.090909090908797</v>
+        <v>55.5555555555538</v>
       </c>
       <c r="L52" t="n">
         <v>5.555000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>0.3900000000000015</v>
       </c>
       <c r="K53" t="n">
-        <v>26.31578947368381</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L53" t="n">
         <v>5.559000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>0.4000000000000012</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L54" t="n">
         <v>5.559000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>0.410000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>5.882352941176286</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L55" t="n">
         <v>5.559000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>0.410000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>5.882352941176286</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L56" t="n">
         <v>5.558000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>0.410000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>5.882352941176286</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>5.557</v>
@@ -3186,7 +3208,7 @@
         <v>0.4300000000000015</v>
       </c>
       <c r="K58" t="n">
-        <v>15.78947368421048</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L58" t="n">
         <v>5.557</v>
@@ -3237,7 +3259,7 @@
         <v>0.4400000000000022</v>
       </c>
       <c r="K59" t="n">
-        <v>9.999999999999645</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L59" t="n">
         <v>5.557</v>
@@ -3288,7 +3310,7 @@
         <v>0.4400000000000022</v>
       </c>
       <c r="K60" t="n">
-        <v>29.4117647058818</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L60" t="n">
         <v>5.556</v>
@@ -3339,7 +3361,7 @@
         <v>0.450000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>22.22222222222195</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L61" t="n">
         <v>5.554</v>
@@ -3390,7 +3412,7 @@
         <v>0.5000000000000018</v>
       </c>
       <c r="K62" t="n">
-        <v>-9.090909090908797</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L62" t="n">
         <v>5.548</v>
@@ -3441,7 +3463,7 @@
         <v>0.5400000000000018</v>
       </c>
       <c r="K63" t="n">
-        <v>11.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>5.547</v>
@@ -3492,7 +3514,7 @@
         <v>0.5400000000000018</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L64" t="n">
         <v>5.547</v>
@@ -3543,7 +3565,7 @@
         <v>0.5400000000000018</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.761904761904601</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L65" t="n">
         <v>5.546</v>
@@ -3594,7 +3616,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K66" t="n">
-        <v>-4.761904761904601</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>5.546</v>
@@ -3645,7 +3667,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.761904761904601</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L67" t="n">
         <v>5.546</v>
@@ -3696,7 +3718,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.00000000000013</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L68" t="n">
         <v>5.544</v>
@@ -3747,7 +3769,7 @@
         <v>0.5700000000000021</v>
       </c>
       <c r="K69" t="n">
-        <v>4.761904761905044</v>
+        <v>7.692307692308217</v>
       </c>
       <c r="L69" t="n">
         <v>5.545</v>
@@ -3798,7 +3820,7 @@
         <v>0.5700000000000021</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L70" t="n">
         <v>5.545999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>0.5700000000000021</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>5.548</v>
@@ -3900,7 +3922,7 @@
         <v>0.5700000000000021</v>
       </c>
       <c r="K72" t="n">
-        <v>5.263157894737187</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>5.555</v>
@@ -3951,7 +3973,7 @@
         <v>0.5800000000000018</v>
       </c>
       <c r="K73" t="n">
-        <v>15.78947368421063</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>5.558999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>0.5800000000000018</v>
       </c>
       <c r="K74" t="n">
-        <v>22.22222222222217</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>5.563</v>
@@ -4053,7 +4075,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="K75" t="n">
-        <v>26.31578947368406</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>5.569</v>
@@ -4104,7 +4126,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="K76" t="n">
-        <v>26.31578947368406</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>5.574</v>
@@ -4155,7 +4177,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="K77" t="n">
-        <v>26.31578947368406</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>5.579000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="K78" t="n">
-        <v>17.64705882352904</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>5.584000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>0.6400000000000015</v>
       </c>
       <c r="K79" t="n">
-        <v>40.00000000000018</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
         <v>5.591000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>0.7200000000000015</v>
       </c>
       <c r="K80" t="n">
-        <v>57.14285714285733</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>5.606000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>0.8500000000000014</v>
       </c>
       <c r="K81" t="n">
-        <v>75.00000000000006</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>5.634000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>0.9200000000000008</v>
       </c>
       <c r="K82" t="n">
-        <v>66.66666666666687</v>
+        <v>58.82352941176494</v>
       </c>
       <c r="L82" t="n">
         <v>5.655000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>0.9400000000000013</v>
       </c>
       <c r="K83" t="n">
-        <v>55.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
         <v>5.673000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>0.9500000000000011</v>
       </c>
       <c r="K84" t="n">
-        <v>56.09756097560975</v>
+        <v>48.5714285714286</v>
       </c>
       <c r="L84" t="n">
         <v>5.692000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>0.9500000000000011</v>
       </c>
       <c r="K85" t="n">
-        <v>56.09756097560975</v>
+        <v>48.5714285714286</v>
       </c>
       <c r="L85" t="n">
         <v>5.709000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>1.000000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>60.00000000000008</v>
+        <v>55.00000000000011</v>
       </c>
       <c r="L86" t="n">
         <v>5.731000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>1.020000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>61.70212765957451</v>
+        <v>57.14285714285721</v>
       </c>
       <c r="L87" t="n">
         <v>5.755000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>1.040000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>63.26530612244905</v>
+        <v>55.00000000000011</v>
       </c>
       <c r="L88" t="n">
         <v>5.781000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>1.050000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>62.50000000000002</v>
+        <v>45.45454545454555</v>
       </c>
       <c r="L89" t="n">
         <v>5.804</v>
@@ -4818,7 +4840,7 @@
         <v>1.060000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>59.18367346938784</v>
+        <v>4.761904761905084</v>
       </c>
       <c r="L90" t="n">
         <v>5.818</v>
@@ -4869,7 +4891,7 @@
         <v>1.060000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>59.18367346938784</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L91" t="n">
         <v>5.819000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>1.170000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>66.66666666666671</v>
+        <v>91.30434782608712</v>
       </c>
       <c r="L92" t="n">
         <v>5.838000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>1.180000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>66.66666666666676</v>
+        <v>91.30434782608717</v>
       </c>
       <c r="L93" t="n">
         <v>5.860000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>58.73015873015876</v>
+        <v>69.23076923076928</v>
       </c>
       <c r="L94" t="n">
         <v>5.878000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>1.230000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>58.73015873015876</v>
+        <v>65.21739130434773</v>
       </c>
       <c r="L95" t="n">
         <v>5.898000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>42.857142857143</v>
+        <v>21.42857142857165</v>
       </c>
       <c r="L96" t="n">
         <v>5.906000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>46.66666666666679</v>
+        <v>29.0322580645162</v>
       </c>
       <c r="L97" t="n">
         <v>5.917000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>46.66666666666679</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L98" t="n">
         <v>5.926000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>1.370000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>39.7260273972603</v>
+        <v>22.58064516129016</v>
       </c>
       <c r="L99" t="n">
         <v>5.932000000000003</v>
@@ -5328,7 +5350,7 @@
         <v>1.370000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>32.30769230769233</v>
+        <v>22.58064516129016</v>
       </c>
       <c r="L100" t="n">
         <v>5.939000000000003</v>
@@ -5379,7 +5401,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>18.51851851851861</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L101" t="n">
         <v>5.948000000000003</v>
@@ -5430,7 +5452,7 @@
         <v>1.510000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>8.4745762711864</v>
+        <v>-45.45454545454555</v>
       </c>
       <c r="L102" t="n">
         <v>5.934000000000003</v>
@@ -5481,7 +5503,7 @@
         <v>1.540000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>6.666666666666667</v>
+        <v>-45.45454545454555</v>
       </c>
       <c r="L103" t="n">
         <v>5.916000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>1.590000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>5.906000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>10.76923076923081</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L105" t="n">
         <v>5.893000000000002</v>
@@ -5634,7 +5656,7 @@
         <v>1.610000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>4.918032786885146</v>
+        <v>-38.46153846153857</v>
       </c>
       <c r="L106" t="n">
         <v>5.888000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>1.660000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>9.375000000000069</v>
+        <v>-16.12903225806439</v>
       </c>
       <c r="L107" t="n">
         <v>5.883000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>1.790000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>-12.00000000000009</v>
+        <v>-38.09523809523797</v>
       </c>
       <c r="L108" t="n">
         <v>5.865</v>
@@ -5787,7 +5809,7 @@
         <v>1.860000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-20.98765432098763</v>
+        <v>-46.93877551020388</v>
       </c>
       <c r="L109" t="n">
         <v>5.842000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>1.870000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-20.98765432098763</v>
+        <v>-54.16666666666657</v>
       </c>
       <c r="L110" t="n">
         <v>5.818000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>1.900000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-16.66666666666674</v>
+        <v>-28.20512820512831</v>
       </c>
       <c r="L111" t="n">
         <v>5.795000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>1.930000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-28.94736842105257</v>
+        <v>-12.82051282051279</v>
       </c>
       <c r="L112" t="n">
         <v>5.787000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>1.960000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-25.64102564102566</v>
+        <v>-18.91891891891875</v>
       </c>
       <c r="L113" t="n">
         <v>5.785000000000002</v>
@@ -6042,7 +6064,7 @@
         <v>1.960000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-22.66666666666666</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L114" t="n">
         <v>5.778000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>1.980000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-22.66666666666666</v>
+        <v>-13.51351351351346</v>
       </c>
       <c r="L115" t="n">
         <v>5.774000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>2.010000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-18.30985915492967</v>
+        <v>-37.1428571428574</v>
       </c>
       <c r="L116" t="n">
         <v>5.766</v>
@@ -6195,7 +6217,7 @@
         <v>2.020000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-28.35820895522391</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L117" t="n">
         <v>5.752000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>2.060000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-21.12676056338031</v>
+        <v>50</v>
       </c>
       <c r="L118" t="n">
         <v>5.755</v>
@@ -6297,7 +6319,7 @@
         <v>2.060000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-18.8405797101449</v>
+        <v>57.89473684210511</v>
       </c>
       <c r="L119" t="n">
         <v>5.764999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>2.060000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>-18.8405797101449</v>
+        <v>50</v>
       </c>
       <c r="L120" t="n">
         <v>5.775999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>2.070000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-20.58823529411774</v>
+        <v>42.85714285714268</v>
       </c>
       <c r="L121" t="n">
         <v>5.784999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>1.694915254237252</v>
+        <v>42.85714285714268</v>
       </c>
       <c r="L122" t="n">
         <v>5.794</v>
@@ -6501,7 +6523,7 @@
         <v>2.110000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>5.263157894736891</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>5.798999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>2.130000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>5.805999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>2.140000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L125" t="n">
         <v>5.81</v>
@@ -6654,7 +6676,7 @@
         <v>2.140000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-1.886792452830151</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L126" t="n">
         <v>5.817</v>
@@ -6705,7 +6727,7 @@
         <v>2.180000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-3.846153846153945</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L127" t="n">
         <v>5.829</v>
@@ -6756,7 +6778,7 @@
         <v>2.19</v>
       </c>
       <c r="K128" t="n">
-        <v>25.00000000000028</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L128" t="n">
         <v>5.836</v>
@@ -6807,7 +6829,7 @@
         <v>2.19</v>
       </c>
       <c r="K129" t="n">
-        <v>51.51515151515176</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L129" t="n">
         <v>5.843000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>2.21</v>
       </c>
       <c r="K130" t="n">
-        <v>58.82352941176483</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L130" t="n">
         <v>5.852000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>2.21</v>
       </c>
       <c r="K131" t="n">
-        <v>54.83870967741956</v>
+        <v>45.45454545454589</v>
       </c>
       <c r="L131" t="n">
         <v>5.860000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>2.25</v>
       </c>
       <c r="K132" t="n">
-        <v>31.25000000000003</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L132" t="n">
         <v>5.861</v>
@@ -7011,7 +7033,7 @@
         <v>2.29</v>
       </c>
       <c r="K133" t="n">
-        <v>33.33333333333333</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L133" t="n">
         <v>5.867</v>
@@ -7113,7 +7135,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>17.64705882352966</v>
+        <v>11.11111111111144</v>
       </c>
       <c r="L135" t="n">
         <v>5.873</v>
@@ -7164,7 +7186,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>29.03225806451658</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L136" t="n">
         <v>5.875</v>
@@ -7215,7 +7237,7 @@
         <v>2.329999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>35.48387096774228</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>5.874000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>2.339999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>21.42857142857179</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L138" t="n">
         <v>5.873000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>2.369999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>9.677419354838857</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L139" t="n">
         <v>5.869000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>2.369999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>9.677419354838857</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L140" t="n">
         <v>5.863000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>2.369999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>6.666666666666863</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L141" t="n">
         <v>5.857000000000002</v>
@@ -7470,7 +7492,7 @@
         <v>2.43</v>
       </c>
       <c r="K142" t="n">
-        <v>-21.21212121212141</v>
+        <v>-85.71428571428599</v>
       </c>
       <c r="L142" t="n">
         <v>5.849000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>2.469999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>-27.77777777777786</v>
+        <v>-88.88888888888906</v>
       </c>
       <c r="L143" t="n">
         <v>5.833000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.545454545454472</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L144" t="n">
         <v>5.827000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>2.619999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>-12.49999999999998</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L145" t="n">
         <v>5.819000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>2.629999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>-14.28571428571439</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L146" t="n">
         <v>5.81</v>
@@ -7725,7 +7747,7 @@
         <v>2.659999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>-29.16666666666674</v>
+        <v>-37.50000000000011</v>
       </c>
       <c r="L147" t="n">
         <v>5.797000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>2.669999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>-25.00000000000014</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L148" t="n">
         <v>5.786000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>2.669999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-25.00000000000014</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L149" t="n">
         <v>5.778000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>2.689999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-33.33333333333333</v>
+        <v>-31.25000000000003</v>
       </c>
       <c r="L150" t="n">
         <v>5.768000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>2.719999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-37.25490196078436</v>
+        <v>-24.1379310344827</v>
       </c>
       <c r="L151" t="n">
         <v>5.755000000000003</v>
@@ -7980,7 +8002,7 @@
         <v>2.759999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>-21.56862745098037</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L152" t="n">
         <v>5.752000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>2.799999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-37.25490196078436</v>
+        <v>-56.52173913043485</v>
       </c>
       <c r="L153" t="n">
         <v>5.749000000000002</v>
@@ -8082,7 +8104,7 @@
         <v>2.849999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>-42.8571428571429</v>
+        <v>-56.52173913043485</v>
       </c>
       <c r="L154" t="n">
         <v>5.731000000000003</v>
@@ -8133,7 +8155,7 @@
         <v>2.849999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>-39.62264150943407</v>
+        <v>-54.54545454545448</v>
       </c>
       <c r="L155" t="n">
         <v>5.718000000000002</v>
@@ -8184,7 +8206,7 @@
         <v>2.909999999999997</v>
       </c>
       <c r="K156" t="n">
-        <v>-25.42372881355946</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L156" t="n">
         <v>5.712000000000002</v>
@@ -8235,7 +8257,7 @@
         <v>2.919999999999997</v>
       </c>
       <c r="K157" t="n">
-        <v>-28.81355932203398</v>
+        <v>-20</v>
       </c>
       <c r="L157" t="n">
         <v>5.708000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>2.939999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>-23.33333333333351</v>
+        <v>-11.11111111111126</v>
       </c>
       <c r="L158" t="n">
         <v>5.705000000000002</v>
@@ -8337,7 +8359,7 @@
         <v>2.959999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>-22.03389830508483</v>
+        <v>-11.11111111111126</v>
       </c>
       <c r="L159" t="n">
         <v>5.700000000000002</v>
@@ -8388,7 +8410,7 @@
         <v>2.979999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>-24.59016393442638</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L160" t="n">
         <v>5.695000000000002</v>
@@ -8439,7 +8461,7 @@
         <v>2.989999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>-25.80645161290335</v>
+        <v>-30.43478260869595</v>
       </c>
       <c r="L161" t="n">
         <v>5.692000000000002</v>
@@ -8490,7 +8512,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K162" t="n">
-        <v>-15.78947368421059</v>
+        <v>-10.00000000000031</v>
       </c>
       <c r="L162" t="n">
         <v>5.686000000000002</v>
@@ -8541,7 +8563,7 @@
         <v>3.009999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.407407407407438</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L163" t="n">
         <v>5.685</v>
@@ -8592,7 +8614,7 @@
         <v>3.049999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>-37.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>5.685</v>
@@ -8643,7 +8665,7 @@
         <v>3.049999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>-30.23255813953494</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L165" t="n">
         <v>5.685</v>
@@ -8694,7 +8716,7 @@
         <v>3.089999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>-17.39130434782598</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L166" t="n">
         <v>5.683000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>3.089999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>-11.62790697674418</v>
+        <v>-19.99999999999953</v>
       </c>
       <c r="L167" t="n">
         <v>5.682</v>
@@ -8796,7 +8818,7 @@
         <v>3.089999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>-14.28571428571423</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L168" t="n">
         <v>5.679</v>
@@ -8847,7 +8869,7 @@
         <v>3.129999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>-21.73913043478257</v>
+        <v>-19.99999999999953</v>
       </c>
       <c r="L169" t="n">
         <v>5.673999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>3.139999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>-20.00000000000016</v>
+        <v>-20</v>
       </c>
       <c r="L170" t="n">
         <v>5.67</v>
@@ -8949,7 +8971,7 @@
         <v>3.149999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>-11.62790697674413</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L171" t="n">
         <v>5.667999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>3.149999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-23.07692307692301</v>
+        <v>-28.5714285714283</v>
       </c>
       <c r="L172" t="n">
         <v>5.664999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>3.179999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>-21.05263157894735</v>
+        <v>-23.07692307692297</v>
       </c>
       <c r="L173" t="n">
         <v>5.657999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>3.179999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>-9.09090909090914</v>
+        <v>-23.07692307692297</v>
       </c>
       <c r="L174" t="n">
         <v>5.654999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>3.179999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.09090909090914</v>
+        <v>-77.77777777777668</v>
       </c>
       <c r="L175" t="n">
         <v>5.651999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>3.249999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>-47.05882352941158</v>
+        <v>-87.49999999999932</v>
       </c>
       <c r="L176" t="n">
         <v>5.637999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>3.319999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>-19.99999999999991</v>
+        <v>-30.43478260869548</v>
       </c>
       <c r="L177" t="n">
         <v>5.630999999999998</v>
@@ -9306,7 +9328,7 @@
         <v>3.319999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>-26.31578947368394</v>
+        <v>-15.78947368421048</v>
       </c>
       <c r="L178" t="n">
         <v>5.623999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>3.339999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>-15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>5.622999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>3.339999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>-11.11111111111106</v>
+        <v>-5.263157894737187</v>
       </c>
       <c r="L180" t="n">
         <v>5.622999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>3.35</v>
       </c>
       <c r="K181" t="n">
-        <v>-5.555555555555391</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>5.622999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>3.35</v>
       </c>
       <c r="K182" t="n">
-        <v>-8.57142857142831</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L182" t="n">
         <v>5.622999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>3.39</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>5.629999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>3.39</v>
       </c>
       <c r="K184" t="n">
-        <v>11.76470588235286</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>5.636999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>14.28571428571414</v>
+        <v>100</v>
       </c>
       <c r="L185" t="n">
         <v>5.645</v>
@@ -9714,7 +9736,7 @@
         <v>3.409999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L186" t="n">
         <v>5.659</v>
@@ -9765,7 +9787,7 @@
         <v>3.409999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L187" t="n">
         <v>5.665999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>3.409999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>71.42857142857216</v>
       </c>
       <c r="L188" t="n">
         <v>5.673</v>
@@ -9867,7 +9889,7 @@
         <v>3.42</v>
       </c>
       <c r="K189" t="n">
-        <v>10.34482758620658</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L189" t="n">
         <v>5.677</v>
@@ -9918,7 +9940,7 @@
         <v>3.47</v>
       </c>
       <c r="K190" t="n">
-        <v>-3.030303030302949</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L190" t="n">
         <v>5.676</v>
@@ -9969,7 +9991,7 @@
         <v>3.489999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.76470588235293</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L191" t="n">
         <v>5.672</v>
@@ -10020,7 +10042,7 @@
         <v>3.489999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.76470588235293</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L192" t="n">
         <v>5.668</v>
@@ -10071,7 +10093,7 @@
         <v>3.489999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>-3.22580645161283</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L193" t="n">
         <v>5.66</v>
@@ -10122,7 +10144,7 @@
         <v>3.509999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>3.030303030302965</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L194" t="n">
         <v>5.654000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>3.509999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>3.030303030302965</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L195" t="n">
         <v>5.647</v>
@@ -10224,7 +10246,7 @@
         <v>3.549999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>40.00000000000006</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L196" t="n">
         <v>5.645000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>3.549999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>21.73913043478257</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L197" t="n">
         <v>5.643000000000002</v>
@@ -10326,7 +10348,7 @@
         <v>3.599999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>5.636000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>3.619999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L199" t="n">
         <v>5.632000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>3.619999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L200" t="n">
         <v>5.633000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>3.629999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-7.142857142857347</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L201" t="n">
         <v>5.635000000000002</v>
@@ -10530,7 +10552,7 @@
         <v>3.629999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>-7.142857142857347</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L202" t="n">
         <v>5.637000000000002</v>
@@ -10581,7 +10603,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-15.38461538461546</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L203" t="n">
         <v>5.641000000000002</v>
@@ -10632,7 +10654,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-15.38461538461546</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L204" t="n">
         <v>5.643000000000002</v>
@@ -10683,7 +10705,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-20</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L205" t="n">
         <v>5.645000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>3.649999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666673</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L206" t="n">
         <v>5.643000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>3.669999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.07692307692329</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L207" t="n">
         <v>5.639000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>3.669999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-23.07692307692329</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L208" t="n">
         <v>5.640000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>3.679999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-23.07692307692303</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L209" t="n">
         <v>5.638000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>3.709999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>8.333333333333549</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L210" t="n">
         <v>5.639000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>3.739999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>3.999999999999915</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L211" t="n">
         <v>5.638</v>
@@ -11040,7 +11062,7 @@
         <v>3.759999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>11.11111111111089</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L212" t="n">
         <v>5.639</v>
@@ -11091,7 +11113,7 @@
         <v>3.839999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>-14.2857142857145</v>
+        <v>-47.36842105263187</v>
       </c>
       <c r="L213" t="n">
         <v>5.630000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>-2.564102564102506</v>
+        <v>-12.00000000000006</v>
       </c>
       <c r="L214" t="n">
         <v>5.627000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>-2.564102564102506</v>
+        <v>-12.00000000000006</v>
       </c>
       <c r="L215" t="n">
         <v>5.624000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571421</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L216" t="n">
         <v>5.621</v>
@@ -11295,7 +11317,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571421</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L217" t="n">
         <v>5.619999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.142857142856962</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L219" t="n">
         <v>5.618999999999999</v>
@@ -11448,7 +11470,7 @@
         <v>3.919999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L220" t="n">
         <v>5.617999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>3.919999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>3.448275862068881</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>5.619999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>3.949999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-6.249999999999861</v>
+        <v>45.45454545454633</v>
       </c>
       <c r="L222" t="n">
         <v>5.616999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>3.949999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-13.33333333333335</v>
+        <v>-20</v>
       </c>
       <c r="L223" t="n">
         <v>5.621999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>3.979999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.030303030303243</v>
+        <v>25</v>
       </c>
       <c r="L224" t="n">
         <v>5.624</v>
@@ -11703,7 +11725,7 @@
         <v>4.009999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.11111111111117</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L225" t="n">
         <v>5.622999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>4.039999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>-2.564102564102751</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L226" t="n">
         <v>5.625</v>
@@ -11805,7 +11827,7 @@
         <v>4.129999999999996</v>
       </c>
       <c r="K227" t="n">
-        <v>-17.39130434782621</v>
+        <v>-30.43478260869619</v>
       </c>
       <c r="L227" t="n">
         <v>5.618</v>
@@ -11856,7 +11878,7 @@
         <v>4.219999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>1.818181818181789</v>
+        <v>6.249999999999931</v>
       </c>
       <c r="L228" t="n">
         <v>5.62</v>
@@ -11907,7 +11929,7 @@
         <v>4.219999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>3.703703703703643</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>5.622000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>4.299999999999996</v>
       </c>
       <c r="K230" t="n">
-        <v>-15.25423728813579</v>
+        <v>-21.05263157894754</v>
       </c>
       <c r="L230" t="n">
         <v>5.614000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>4.299999999999996</v>
       </c>
       <c r="K231" t="n">
-        <v>-10.71428571428586</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L231" t="n">
         <v>5.606000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>4.369999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>-1.639344262295053</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L232" t="n">
         <v>5.608000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>4.379999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>11.11111111111126</v>
+        <v>-4.999999999999911</v>
       </c>
       <c r="L233" t="n">
         <v>5.609000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>4.389999999999996</v>
       </c>
       <c r="K234" t="n">
-        <v>2.040816326530583</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L234" t="n">
         <v>5.608000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>4.409999999999996</v>
       </c>
       <c r="K235" t="n">
-        <v>-1.960784313725463</v>
+        <v>-8.108108108107952</v>
       </c>
       <c r="L235" t="n">
         <v>5.608000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>4.429999999999995</v>
       </c>
       <c r="K236" t="n">
-        <v>1.886792452830163</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L236" t="n">
         <v>5.607000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>4.439999999999995</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L237" t="n">
         <v>5.614000000000002</v>
@@ -12366,7 +12388,7 @@
         <v>4.469999999999995</v>
       </c>
       <c r="K238" t="n">
-        <v>5.263157894736924</v>
+        <v>4.000000000000284</v>
       </c>
       <c r="L238" t="n">
         <v>5.615000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>4.469999999999995</v>
       </c>
       <c r="K239" t="n">
-        <v>5.263157894736924</v>
+        <v>52.94117647058897</v>
       </c>
       <c r="L239" t="n">
         <v>5.616000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>4.479999999999995</v>
       </c>
       <c r="K240" t="n">
-        <v>3.571428571428679</v>
+        <v>55.55555555555621</v>
       </c>
       <c r="L240" t="n">
         <v>5.626</v>
@@ -12519,7 +12541,7 @@
         <v>4.479999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>3.571428571428679</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L241" t="n">
         <v>5.636</v>
@@ -12570,7 +12592,7 @@
         <v>4.519999999999995</v>
       </c>
       <c r="K242" t="n">
-        <v>1.754385964912253</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>5.635</v>
@@ -12621,7 +12643,7 @@
         <v>4.529999999999995</v>
       </c>
       <c r="K243" t="n">
-        <v>3.448275862068913</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>5.636</v>
@@ -12672,7 +12694,7 @@
         <v>4.559999999999995</v>
       </c>
       <c r="K244" t="n">
-        <v>3.44827586206906</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>5.638999999999999</v>
@@ -12723,7 +12745,7 @@
         <v>4.589999999999995</v>
       </c>
       <c r="K245" t="n">
-        <v>3.448275862068902</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>5.641</v>
@@ -12774,7 +12796,7 @@
         <v>4.619999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>3.44827586206905</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L246" t="n">
         <v>5.643999999999999</v>
@@ -12825,7 +12847,7 @@
         <v>4.649999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>15.38461538461541</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L247" t="n">
         <v>5.645</v>
@@ -12876,7 +12898,7 @@
         <v>4.679999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>4.347826086956622</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L248" t="n">
         <v>5.646</v>
@@ -12927,7 +12949,7 @@
         <v>4.679999999999996</v>
       </c>
       <c r="K249" t="n">
-        <v>4.347826086956622</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>5.647</v>
@@ -12978,7 +13000,7 @@
         <v>4.729999999999996</v>
       </c>
       <c r="K250" t="n">
-        <v>11.62790697674436</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L250" t="n">
         <v>5.642</v>
@@ -13029,7 +13051,7 @@
         <v>4.779999999999996</v>
       </c>
       <c r="K251" t="n">
-        <v>20.83333333333346</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L251" t="n">
         <v>5.642</v>
@@ -13080,7 +13102,7 @@
         <v>4.799999999999995</v>
       </c>
       <c r="K252" t="n">
-        <v>11.62790697674418</v>
+        <v>18.51851851851842</v>
       </c>
       <c r="L252" t="n">
         <v>5.648000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>4.809999999999996</v>
       </c>
       <c r="K253" t="n">
-        <v>16.27906976744194</v>
+        <v>12.00000000000006</v>
       </c>
       <c r="L253" t="n">
         <v>5.654</v>
@@ -13182,7 +13204,7 @@
         <v>4.819999999999997</v>
       </c>
       <c r="K254" t="n">
-        <v>11.62790697674413</v>
+        <v>21.73913043478241</v>
       </c>
       <c r="L254" t="n">
         <v>5.656000000000001</v>
@@ -13233,7 +13255,7 @@
         <v>4.869999999999997</v>
       </c>
       <c r="K255" t="n">
-        <v>4.347826086956421</v>
+        <v>-12.00000000000006</v>
       </c>
       <c r="L255" t="n">
         <v>5.656000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>4.879999999999996</v>
       </c>
       <c r="K256" t="n">
-        <v>-2.222222222222169</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L256" t="n">
         <v>5.651999999999999</v>
@@ -13335,7 +13357,7 @@
         <v>4.889999999999996</v>
       </c>
       <c r="K257" t="n">
-        <v>-2.222222222222169</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L257" t="n">
         <v>5.649999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>4.899999999999996</v>
       </c>
       <c r="K258" t="n">
-        <v>-6.97674418604656</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L258" t="n">
         <v>5.645999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>4.899999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>-6.97674418604656</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L259" t="n">
         <v>5.641999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>4.909999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>-6.97674418604656</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L260" t="n">
         <v>5.643999999999999</v>
@@ -13539,7 +13561,7 @@
         <v>4.909999999999996</v>
       </c>
       <c r="K261" t="n">
-        <v>-6.97674418604656</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L261" t="n">
         <v>5.641</v>
@@ -13590,7 +13612,7 @@
         <v>4.959999999999996</v>
       </c>
       <c r="K262" t="n">
-        <v>13.63636363636354</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L262" t="n">
         <v>5.641</v>
@@ -13641,7 +13663,7 @@
         <v>4.959999999999996</v>
       </c>
       <c r="K263" t="n">
-        <v>11.62790697674413</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>5.64</v>
@@ -13692,7 +13714,7 @@
         <v>4.959999999999996</v>
       </c>
       <c r="K264" t="n">
-        <v>4.999999999999889</v>
+        <v>55.55555555555599</v>
       </c>
       <c r="L264" t="n">
         <v>5.64</v>
@@ -13743,7 +13765,7 @@
         <v>4.959999999999996</v>
       </c>
       <c r="K265" t="n">
-        <v>13.51351351351346</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L265" t="n">
         <v>5.645</v>
@@ -13794,7 +13816,7 @@
         <v>4.959999999999996</v>
       </c>
       <c r="K266" t="n">
-        <v>5.882352941176348</v>
+        <v>100</v>
       </c>
       <c r="L266" t="n">
         <v>5.651</v>
@@ -13845,7 +13867,7 @@
         <v>4.979999999999995</v>
       </c>
       <c r="K267" t="n">
-        <v>9.090909090909188</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L267" t="n">
         <v>5.656000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>4.999999999999995</v>
       </c>
       <c r="K268" t="n">
-        <v>6.249999999999896</v>
+        <v>60.00000000000036</v>
       </c>
       <c r="L268" t="n">
         <v>5.662000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>5.009999999999994</v>
       </c>
       <c r="K269" t="n">
-        <v>3.030303030302981</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L269" t="n">
         <v>5.667000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>5.009999999999994</v>
       </c>
       <c r="K270" t="n">
-        <v>21.42857142857141</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L270" t="n">
         <v>5.671000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>5.009999999999994</v>
       </c>
       <c r="K271" t="n">
-        <v>4.347826086956454</v>
+        <v>-20</v>
       </c>
       <c r="L271" t="n">
         <v>5.675000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>5.049999999999994</v>
       </c>
       <c r="K272" t="n">
-        <v>-20</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L272" t="n">
         <v>5.670000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>5.049999999999994</v>
       </c>
       <c r="K273" t="n">
-        <v>-25.00000000000037</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L273" t="n">
         <v>5.665000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>5.049999999999994</v>
       </c>
       <c r="K274" t="n">
-        <v>-21.73913043478274</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L274" t="n">
         <v>5.660000000000002</v>
@@ -14253,7 +14275,7 @@
         <v>5.089999999999995</v>
       </c>
       <c r="K275" t="n">
-        <v>18.18181818181836</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L275" t="n">
         <v>5.659000000000002</v>
@@ -14304,7 +14326,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K276" t="n">
-        <v>27.27272727272735</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L276" t="n">
         <v>5.659000000000002</v>
@@ -14355,7 +14377,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K277" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>5.661000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>5.109999999999994</v>
       </c>
       <c r="K278" t="n">
-        <v>23.80952380952393</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>5.660000000000002</v>
@@ -14457,7 +14479,7 @@
         <v>5.109999999999994</v>
       </c>
       <c r="K279" t="n">
-        <v>23.80952380952393</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>5.660000000000002</v>
@@ -14508,7 +14530,7 @@
         <v>5.119999999999994</v>
       </c>
       <c r="K280" t="n">
-        <v>14.28571428571453</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L280" t="n">
         <v>5.659000000000002</v>

--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>5.49</v>
       </c>
       <c r="C2" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E2" t="n">
         <v>5.49</v>
       </c>
       <c r="F2" t="n">
-        <v>91.0746</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>5.454833333333343</v>
+        <v>5.45650000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="n">
         <v>5.5</v>
@@ -477,13 +477,13 @@
         <v>5.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>47.9272</v>
       </c>
       <c r="G3" t="n">
-        <v>5.45650000000001</v>
+        <v>5.458833333333343</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>47.9272</v>
+        <v>450</v>
       </c>
       <c r="G4" t="n">
-        <v>5.458833333333343</v>
+        <v>5.461166666666676</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>450</v>
+        <v>62900.8991</v>
       </c>
       <c r="G5" t="n">
-        <v>5.461166666666676</v>
+        <v>5.46350000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>5.5</v>
       </c>
       <c r="F6" t="n">
-        <v>62900.8991</v>
+        <v>746.5454545454545</v>
       </c>
       <c r="G6" t="n">
-        <v>5.46350000000001</v>
+        <v>5.465333333333343</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C7" t="n">
         <v>5.5</v>
@@ -617,13 +617,13 @@
         <v>5.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F7" t="n">
-        <v>746.5454545454545</v>
+        <v>787.9335</v>
       </c>
       <c r="G7" t="n">
-        <v>5.465333333333343</v>
+        <v>5.46700000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="n">
         <v>5.5</v>
@@ -652,13 +652,13 @@
         <v>5.5</v>
       </c>
       <c r="E8" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F8" t="n">
-        <v>787.9335</v>
+        <v>740</v>
       </c>
       <c r="G8" t="n">
-        <v>5.46700000000001</v>
+        <v>5.468833333333344</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C9" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D9" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E9" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F9" t="n">
-        <v>740</v>
+        <v>738.15</v>
       </c>
       <c r="G9" t="n">
-        <v>5.468833333333344</v>
+        <v>5.470166666666677</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E10" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F10" t="n">
-        <v>738.15</v>
+        <v>41.0909</v>
       </c>
       <c r="G10" t="n">
-        <v>5.470166666666677</v>
+        <v>5.471833333333345</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>5.5</v>
       </c>
       <c r="F11" t="n">
-        <v>41.0909</v>
+        <v>733.6363636363636</v>
       </c>
       <c r="G11" t="n">
-        <v>5.471833333333345</v>
+        <v>5.472833333333345</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C12" t="n">
         <v>5.5</v>
@@ -792,13 +792,13 @@
         <v>5.5</v>
       </c>
       <c r="E12" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F12" t="n">
-        <v>733.6363636363636</v>
+        <v>781.8386</v>
       </c>
       <c r="G12" t="n">
-        <v>5.472833333333345</v>
+        <v>5.474166666666678</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="n">
         <v>5.5</v>
@@ -827,13 +827,13 @@
         <v>5.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F13" t="n">
-        <v>781.8386</v>
+        <v>106935.0909</v>
       </c>
       <c r="G13" t="n">
-        <v>5.474166666666678</v>
+        <v>5.475500000000011</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>5.5</v>
       </c>
       <c r="F14" t="n">
-        <v>106935.0909</v>
+        <v>166894.8181</v>
       </c>
       <c r="G14" t="n">
-        <v>5.475500000000011</v>
+        <v>5.47700000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>166894.8181</v>
+        <v>201341.5454</v>
       </c>
       <c r="G15" t="n">
-        <v>5.47700000000001</v>
+        <v>5.478333333333343</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>5.5</v>
       </c>
       <c r="F16" t="n">
-        <v>201341.5454</v>
+        <v>32137.78663992383</v>
       </c>
       <c r="G16" t="n">
-        <v>5.478333333333343</v>
+        <v>5.479000000000011</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C17" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="D17" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="E17" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F17" t="n">
-        <v>32137.78663992383</v>
+        <v>2785.3687</v>
       </c>
       <c r="G17" t="n">
-        <v>5.479000000000011</v>
+        <v>5.480000000000009</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="n">
         <v>5.53</v>
@@ -1002,13 +1002,13 @@
         <v>5.53</v>
       </c>
       <c r="E18" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2785.3687</v>
+        <v>81052.89539999999</v>
       </c>
       <c r="G18" t="n">
-        <v>5.480000000000009</v>
+        <v>5.481000000000009</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="C19" t="n">
         <v>5.53</v>
@@ -1037,13 +1037,13 @@
         <v>5.53</v>
       </c>
       <c r="E19" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="F19" t="n">
-        <v>81052.89539999999</v>
+        <v>36.8896</v>
       </c>
       <c r="G19" t="n">
-        <v>5.481000000000009</v>
+        <v>5.482000000000008</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>5.53</v>
       </c>
       <c r="F20" t="n">
-        <v>36.8896</v>
+        <v>2000</v>
       </c>
       <c r="G20" t="n">
-        <v>5.482000000000008</v>
+        <v>5.483000000000007</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="D21" t="n">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="E21" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>12817.5953</v>
       </c>
       <c r="G21" t="n">
-        <v>5.483000000000007</v>
+        <v>5.484333333333341</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="C22" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E22" t="n">
         <v>5.54</v>
       </c>
-      <c r="D22" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.5</v>
-      </c>
       <c r="F22" t="n">
-        <v>12817.5953</v>
+        <v>39957.6396</v>
       </c>
       <c r="G22" t="n">
-        <v>5.484333333333341</v>
+        <v>5.486000000000007</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.54</v>
+        <v>5.57</v>
       </c>
       <c r="C23" t="n">
         <v>5.57</v>
@@ -1177,13 +1177,13 @@
         <v>5.57</v>
       </c>
       <c r="E23" t="n">
-        <v>5.54</v>
+        <v>5.57</v>
       </c>
       <c r="F23" t="n">
-        <v>39957.6396</v>
+        <v>33.1418</v>
       </c>
       <c r="G23" t="n">
-        <v>5.486000000000007</v>
+        <v>5.487666666666673</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>5.57</v>
       </c>
       <c r="F24" t="n">
-        <v>33.1418</v>
+        <v>31.4811</v>
       </c>
       <c r="G24" t="n">
-        <v>5.487666666666673</v>
+        <v>5.489166666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>5.57</v>
       </c>
       <c r="F25" t="n">
-        <v>31.4811</v>
+        <v>27115.4398</v>
       </c>
       <c r="G25" t="n">
-        <v>5.489166666666673</v>
+        <v>5.490666666666672</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>5.57</v>
       </c>
       <c r="C26" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="D26" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="E26" t="n">
         <v>5.57</v>
       </c>
       <c r="F26" t="n">
-        <v>27115.4398</v>
+        <v>14888.2327</v>
       </c>
       <c r="G26" t="n">
-        <v>5.490666666666672</v>
+        <v>5.493000000000006</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="C27" t="n">
         <v>5.58</v>
@@ -1317,13 +1317,13 @@
         <v>5.58</v>
       </c>
       <c r="E27" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="F27" t="n">
-        <v>14888.2327</v>
+        <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>5.493000000000006</v>
+        <v>5.494833333333338</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="C28" t="n">
         <v>5.58</v>
@@ -1352,13 +1352,13 @@
         <v>5.58</v>
       </c>
       <c r="E28" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>39968.6396</v>
       </c>
       <c r="G28" t="n">
-        <v>5.494833333333338</v>
+        <v>5.496666666666671</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.57</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.58</v>
       </c>
       <c r="D29" t="n">
         <v>5.58</v>
       </c>
       <c r="E29" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="F29" t="n">
-        <v>39968.6396</v>
+        <v>135925.1283</v>
       </c>
       <c r="G29" t="n">
-        <v>5.496666666666671</v>
+        <v>5.498166666666671</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.58</v>
+        <v>5.55</v>
       </c>
       <c r="C30" t="n">
         <v>5.57</v>
       </c>
       <c r="D30" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E30" t="n">
         <v>5.55</v>
       </c>
       <c r="F30" t="n">
-        <v>135925.1283</v>
+        <v>7433.980251346499</v>
       </c>
       <c r="G30" t="n">
-        <v>5.498166666666671</v>
+        <v>5.50016666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>5.55</v>
       </c>
       <c r="C31" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="D31" t="n">
         <v>5.57</v>
@@ -1460,10 +1460,10 @@
         <v>5.55</v>
       </c>
       <c r="F31" t="n">
-        <v>7433.980251346499</v>
+        <v>33700.5495</v>
       </c>
       <c r="G31" t="n">
-        <v>5.50016666666667</v>
+        <v>5.502000000000004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.55</v>
+        <v>5.53</v>
       </c>
       <c r="C32" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D32" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="E32" t="n">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="F32" t="n">
-        <v>33700.5495</v>
+        <v>50212.1481</v>
       </c>
       <c r="G32" t="n">
-        <v>5.502000000000004</v>
+        <v>5.503666666666671</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
       <c r="C33" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="D33" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="E33" t="n">
         <v>5.5</v>
       </c>
       <c r="F33" t="n">
-        <v>50212.1481</v>
+        <v>243774.1164</v>
       </c>
       <c r="G33" t="n">
-        <v>5.503666666666671</v>
+        <v>5.504166666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="C34" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="D34" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="E34" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="F34" t="n">
-        <v>243774.1164</v>
+        <v>33</v>
       </c>
       <c r="G34" t="n">
-        <v>5.504166666666671</v>
+        <v>5.505333333333337</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="C35" t="n">
         <v>5.54</v>
@@ -1597,13 +1597,13 @@
         <v>5.54</v>
       </c>
       <c r="E35" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>24033.5495</v>
       </c>
       <c r="G35" t="n">
-        <v>5.505333333333337</v>
+        <v>5.506500000000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C36" t="n">
         <v>5.54</v>
@@ -1632,13 +1632,13 @@
         <v>5.54</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F36" t="n">
-        <v>24033.5495</v>
+        <v>12896.7249</v>
       </c>
       <c r="G36" t="n">
-        <v>5.506500000000004</v>
+        <v>5.507833333333338</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="C37" t="n">
         <v>5.54</v>
@@ -1667,13 +1667,13 @@
         <v>5.54</v>
       </c>
       <c r="E37" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F37" t="n">
-        <v>12896.7249</v>
+        <v>177.2563</v>
       </c>
       <c r="G37" t="n">
-        <v>5.507833333333338</v>
+        <v>5.509000000000004</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="C38" t="n">
         <v>5.54</v>
@@ -1702,13 +1702,13 @@
         <v>5.54</v>
       </c>
       <c r="E38" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F38" t="n">
-        <v>177.2563</v>
+        <v>9366.7168</v>
       </c>
       <c r="G38" t="n">
-        <v>5.509000000000004</v>
+        <v>5.510166666666671</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C39" t="n">
         <v>5.54</v>
@@ -1737,13 +1737,13 @@
         <v>5.54</v>
       </c>
       <c r="E39" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F39" t="n">
-        <v>9366.7168</v>
+        <v>87.9061</v>
       </c>
       <c r="G39" t="n">
-        <v>5.510166666666671</v>
+        <v>5.511333333333337</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>5.54</v>
       </c>
       <c r="C40" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="D40" t="n">
         <v>5.54</v>
       </c>
       <c r="E40" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F40" t="n">
-        <v>87.9061</v>
+        <v>75346.99275884476</v>
       </c>
       <c r="G40" t="n">
-        <v>5.511333333333337</v>
+        <v>5.512000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="C41" t="n">
         <v>5.51</v>
       </c>
       <c r="D41" t="n">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="E41" t="n">
         <v>5.51</v>
       </c>
       <c r="F41" t="n">
-        <v>75346.99275884476</v>
+        <v>13280.0066</v>
       </c>
       <c r="G41" t="n">
-        <v>5.512000000000003</v>
+        <v>5.512833333333337</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>5.52</v>
       </c>
       <c r="C42" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D42" t="n">
         <v>5.52</v>
       </c>
       <c r="E42" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="F42" t="n">
-        <v>13280.0066</v>
+        <v>126804.1666</v>
       </c>
       <c r="G42" t="n">
-        <v>5.512833333333337</v>
+        <v>5.513666666666669</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="C43" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="D43" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="E43" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="F43" t="n">
-        <v>126804.1666</v>
+        <v>47438.3301</v>
       </c>
       <c r="G43" t="n">
-        <v>5.513666666666669</v>
+        <v>5.514333333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="C44" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="D44" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="E44" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F44" t="n">
-        <v>47438.3301</v>
+        <v>10.18</v>
       </c>
       <c r="G44" t="n">
-        <v>5.514333333333336</v>
+        <v>5.515500000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>5.54</v>
       </c>
       <c r="C45" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D45" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E45" t="n">
         <v>5.54</v>
       </c>
       <c r="F45" t="n">
-        <v>10.18</v>
+        <v>68599.53164115523</v>
       </c>
       <c r="G45" t="n">
-        <v>5.515500000000002</v>
+        <v>5.516833333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C46" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E46" t="n">
         <v>5.55</v>
       </c>
-      <c r="D46" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5.54</v>
-      </c>
       <c r="F46" t="n">
-        <v>68599.53164115523</v>
+        <v>184717.4368</v>
       </c>
       <c r="G46" t="n">
-        <v>5.516833333333335</v>
+        <v>5.518333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C47" t="n">
         <v>5.56</v>
@@ -2017,13 +2017,13 @@
         <v>5.56</v>
       </c>
       <c r="E47" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F47" t="n">
-        <v>184717.4368</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>5.518333333333334</v>
+        <v>5.519833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>5.56</v>
       </c>
       <c r="C48" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D48" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E48" t="n">
         <v>5.56</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="G48" t="n">
-        <v>5.519833333333334</v>
+        <v>5.521500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>5.56</v>
       </c>
       <c r="C49" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D49" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E49" t="n">
         <v>5.56</v>
       </c>
       <c r="F49" t="n">
-        <v>7500</v>
+        <v>52543.3</v>
       </c>
       <c r="G49" t="n">
-        <v>5.521500000000001</v>
+        <v>5.523</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="C50" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D50" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E50" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F50" t="n">
-        <v>52543.3</v>
+        <v>98633.9317</v>
       </c>
       <c r="G50" t="n">
-        <v>5.523</v>
+        <v>5.5245</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>5.57</v>
       </c>
       <c r="F51" t="n">
-        <v>98633.9317</v>
+        <v>14907.8994</v>
       </c>
       <c r="G51" t="n">
-        <v>5.5245</v>
+        <v>5.525999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="C52" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D52" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E52" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="F52" t="n">
-        <v>14907.8994</v>
+        <v>6194.11</v>
       </c>
       <c r="G52" t="n">
-        <v>5.525999999999999</v>
+        <v>5.527166666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="C53" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="D53" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="E53" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="F53" t="n">
-        <v>6194.11</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="n">
-        <v>5.527166666666665</v>
+        <v>5.528166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C54" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D54" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E54" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F54" t="n">
-        <v>2500</v>
+        <v>2510</v>
       </c>
       <c r="G54" t="n">
-        <v>5.528166666666666</v>
+        <v>5.528999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C55" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D55" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E55" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="F55" t="n">
-        <v>2510</v>
+        <v>28.5135</v>
       </c>
       <c r="G55" t="n">
-        <v>5.528999999999999</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>5.55</v>
       </c>
       <c r="F56" t="n">
-        <v>28.5135</v>
+        <v>179610.6306</v>
       </c>
       <c r="G56" t="n">
-        <v>5.529999999999999</v>
+        <v>5.531</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>5.55</v>
       </c>
       <c r="F57" t="n">
-        <v>179610.6306</v>
+        <v>12780.5405</v>
       </c>
       <c r="G57" t="n">
-        <v>5.531</v>
+        <v>5.531999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="C58" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="D58" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="E58" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="F58" t="n">
-        <v>12780.5405</v>
+        <v>72.6211</v>
       </c>
       <c r="G58" t="n">
-        <v>5.531999999999999</v>
+        <v>5.533333333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="C59" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D59" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E59" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="F59" t="n">
-        <v>72.6211</v>
+        <v>4769.0647</v>
       </c>
       <c r="G59" t="n">
-        <v>5.533333333333332</v>
+        <v>5.534499999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>5.56</v>
       </c>
       <c r="F60" t="n">
-        <v>4769.0647</v>
+        <v>33.9118</v>
       </c>
       <c r="G60" t="n">
-        <v>5.534499999999999</v>
+        <v>5.535666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="C61" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="D61" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="E61" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="F61" t="n">
-        <v>33.9118</v>
+        <v>32.2702</v>
       </c>
       <c r="G61" t="n">
-        <v>5.535666666666666</v>
+        <v>5.536666666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C62" t="n">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="D62" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E62" t="n">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="F62" t="n">
-        <v>32.2702</v>
+        <v>12780.5404</v>
       </c>
       <c r="G62" t="n">
         <v>5.536666666666665</v>
@@ -2571,19 +2571,19 @@
         <v>5.54</v>
       </c>
       <c r="C63" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="D63" t="n">
         <v>5.54</v>
       </c>
       <c r="E63" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="F63" t="n">
-        <v>12780.5404</v>
+        <v>8148.528782310469</v>
       </c>
       <c r="G63" t="n">
-        <v>5.536666666666665</v>
+        <v>5.537333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>5.54</v>
       </c>
       <c r="F64" t="n">
-        <v>8148.528782310469</v>
+        <v>23</v>
       </c>
       <c r="G64" t="n">
-        <v>5.537333333333333</v>
+        <v>5.537999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>5.54</v>
       </c>
       <c r="F65" t="n">
-        <v>23</v>
+        <v>241457.9775176895</v>
       </c>
       <c r="G65" t="n">
-        <v>5.537999999999999</v>
+        <v>5.538666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C66" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D66" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E66" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="F66" t="n">
-        <v>241457.9775176895</v>
+        <v>24.4504</v>
       </c>
       <c r="G66" t="n">
-        <v>5.538666666666667</v>
+        <v>5.5395</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>5.55</v>
       </c>
       <c r="F67" t="n">
-        <v>24.4504</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>5.5395</v>
+        <v>5.540333333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>5.55</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="G68" t="n">
-        <v>5.540333333333334</v>
+        <v>5.541166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>5.55</v>
       </c>
       <c r="C69" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="D69" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="E69" t="n">
         <v>5.55</v>
       </c>
       <c r="F69" t="n">
-        <v>330</v>
+        <v>338074.1062</v>
       </c>
       <c r="G69" t="n">
-        <v>5.541166666666667</v>
+        <v>5.542666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="C70" t="n">
         <v>5.57</v>
@@ -2822,13 +2822,13 @@
         <v>5.57</v>
       </c>
       <c r="E70" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="F70" t="n">
-        <v>338074.1062</v>
+        <v>1022</v>
       </c>
       <c r="G70" t="n">
-        <v>5.542666666666666</v>
+        <v>5.543833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>5.57</v>
       </c>
       <c r="F71" t="n">
-        <v>1022</v>
+        <v>131069.834</v>
       </c>
       <c r="G71" t="n">
-        <v>5.543833333333334</v>
+        <v>5.545</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>5.57</v>
       </c>
       <c r="F72" t="n">
-        <v>131069.834</v>
+        <v>226600</v>
       </c>
       <c r="G72" t="n">
-        <v>5.545</v>
+        <v>5.546166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>5.57</v>
       </c>
       <c r="C73" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="D73" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="E73" t="n">
         <v>5.57</v>
       </c>
       <c r="F73" t="n">
-        <v>226600</v>
+        <v>600011</v>
       </c>
       <c r="G73" t="n">
-        <v>5.546166666666666</v>
+        <v>5.547499999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="C74" t="n">
         <v>5.58</v>
@@ -2962,13 +2962,13 @@
         <v>5.58</v>
       </c>
       <c r="E74" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="F74" t="n">
-        <v>600011</v>
+        <v>2500</v>
       </c>
       <c r="G74" t="n">
-        <v>5.547499999999999</v>
+        <v>5.548833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>5.58</v>
       </c>
       <c r="C75" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="D75" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="E75" t="n">
         <v>5.58</v>
       </c>
       <c r="F75" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>5.548833333333333</v>
+        <v>5.5505</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="C76" t="n">
         <v>5.6</v>
@@ -3032,13 +3032,13 @@
         <v>5.6</v>
       </c>
       <c r="E76" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G76" t="n">
-        <v>5.5505</v>
+        <v>5.552166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>5.6</v>
       </c>
       <c r="F77" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>5.552166666666666</v>
+        <v>5.553333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>5.6</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>133.9285</v>
       </c>
       <c r="G78" t="n">
-        <v>5.553333333333334</v>
+        <v>5.554500000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>5.6</v>
       </c>
       <c r="C79" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="D79" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="E79" t="n">
         <v>5.6</v>
       </c>
       <c r="F79" t="n">
-        <v>133.9285</v>
+        <v>389564.2576</v>
       </c>
       <c r="G79" t="n">
-        <v>5.554500000000002</v>
+        <v>5.556333333333336</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="C80" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E80" t="n">
         <v>5.64</v>
       </c>
-      <c r="D80" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5.6</v>
-      </c>
       <c r="F80" t="n">
-        <v>389564.2576</v>
+        <v>1798479.34</v>
       </c>
       <c r="G80" t="n">
-        <v>5.556333333333336</v>
+        <v>5.559500000000003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="C81" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E81" t="n">
         <v>5.72</v>
       </c>
-      <c r="D81" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E81" t="n">
-        <v>5.64</v>
-      </c>
       <c r="F81" t="n">
-        <v>1798479.34</v>
+        <v>503472.3986</v>
       </c>
       <c r="G81" t="n">
-        <v>5.559500000000003</v>
+        <v>5.564666666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.72</v>
+        <v>5.83</v>
       </c>
       <c r="C82" t="n">
-        <v>5.85</v>
+        <v>5.78</v>
       </c>
       <c r="D82" t="n">
         <v>5.85</v>
       </c>
       <c r="E82" t="n">
-        <v>5.72</v>
+        <v>5.78</v>
       </c>
       <c r="F82" t="n">
-        <v>503472.3986</v>
+        <v>294627.7715</v>
       </c>
       <c r="G82" t="n">
-        <v>5.564666666666669</v>
+        <v>5.568166666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="C83" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="D83" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="E83" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="F83" t="n">
-        <v>294627.7715</v>
+        <v>197605.775</v>
       </c>
       <c r="G83" t="n">
-        <v>5.568166666666669</v>
+        <v>5.571333333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="C84" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="D84" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="E84" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="F84" t="n">
-        <v>197605.775</v>
+        <v>8145.726</v>
       </c>
       <c r="G84" t="n">
-        <v>5.571333333333336</v>
+        <v>5.574666666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>5.77</v>
       </c>
       <c r="F85" t="n">
-        <v>8145.726</v>
+        <v>6854.274</v>
       </c>
       <c r="G85" t="n">
-        <v>5.574666666666669</v>
+        <v>5.578000000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.77</v>
+        <v>5.81</v>
       </c>
       <c r="C86" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="D86" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="E86" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="F86" t="n">
-        <v>6854.274</v>
+        <v>78605.72629999999</v>
       </c>
       <c r="G86" t="n">
-        <v>5.578000000000002</v>
+        <v>5.582000000000003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="C87" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E87" t="n">
         <v>5.82</v>
       </c>
-      <c r="D87" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5.78</v>
-      </c>
       <c r="F87" t="n">
-        <v>78605.72629999999</v>
+        <v>95318.78170000001</v>
       </c>
       <c r="G87" t="n">
-        <v>5.582000000000003</v>
+        <v>5.586333333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="C88" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E88" t="n">
         <v>5.84</v>
       </c>
-      <c r="D88" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5.82</v>
-      </c>
       <c r="F88" t="n">
-        <v>95318.78170000001</v>
+        <v>323684.5919</v>
       </c>
       <c r="G88" t="n">
-        <v>5.586333333333335</v>
+        <v>5.591000000000003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="C89" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E89" t="n">
         <v>5.86</v>
       </c>
-      <c r="D89" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5.84</v>
-      </c>
       <c r="F89" t="n">
-        <v>323684.5919</v>
+        <v>354711.0434</v>
       </c>
       <c r="G89" t="n">
-        <v>5.591000000000003</v>
+        <v>5.596000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C90" t="n">
         <v>5.86</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5.87</v>
       </c>
       <c r="D90" t="n">
         <v>5.87</v>
@@ -3525,10 +3525,10 @@
         <v>5.86</v>
       </c>
       <c r="F90" t="n">
-        <v>354711.0434</v>
+        <v>266757.5858</v>
       </c>
       <c r="G90" t="n">
-        <v>5.596000000000003</v>
+        <v>5.600833333333337</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="C91" t="n">
         <v>5.86</v>
       </c>
       <c r="D91" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E91" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="F91" t="n">
-        <v>266757.5858</v>
+        <v>33932</v>
       </c>
       <c r="G91" t="n">
-        <v>5.600833333333337</v>
+        <v>5.606000000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="C92" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E92" t="n">
         <v>5.86</v>
       </c>
-      <c r="D92" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5.82</v>
-      </c>
       <c r="F92" t="n">
-        <v>33932</v>
+        <v>2793103.6194</v>
       </c>
       <c r="G92" t="n">
-        <v>5.606000000000003</v>
+        <v>5.61316666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.86</v>
+        <v>5.98</v>
       </c>
       <c r="C93" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="D93" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E93" t="n">
-        <v>5.86</v>
+        <v>5.98</v>
       </c>
       <c r="F93" t="n">
-        <v>2793103.6194</v>
+        <v>1172506.528</v>
       </c>
       <c r="G93" t="n">
-        <v>5.61316666666667</v>
+        <v>5.62116666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>5.98</v>
       </c>
       <c r="C94" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="D94" t="n">
         <v>5.98</v>
       </c>
       <c r="E94" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="F94" t="n">
-        <v>1172506.528</v>
+        <v>1210358.8697</v>
       </c>
       <c r="G94" t="n">
-        <v>5.62116666666667</v>
+        <v>5.628000000000003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.98</v>
+        <v>5.95</v>
       </c>
       <c r="C95" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="D95" t="n">
         <v>5.98</v>
@@ -3700,10 +3700,10 @@
         <v>5.95</v>
       </c>
       <c r="F95" t="n">
-        <v>1210358.8697</v>
+        <v>364817.2759</v>
       </c>
       <c r="G95" t="n">
-        <v>5.628000000000003</v>
+        <v>5.635166666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="C96" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D96" t="n">
         <v>5.97</v>
       </c>
-      <c r="D96" t="n">
-        <v>5.98</v>
-      </c>
       <c r="E96" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="F96" t="n">
-        <v>364817.2759</v>
+        <v>1019576.2094</v>
       </c>
       <c r="G96" t="n">
-        <v>5.635166666666669</v>
+        <v>5.641166666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="C97" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="D97" t="n">
-        <v>5.97</v>
+        <v>5.95</v>
       </c>
       <c r="E97" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F97" t="n">
-        <v>1019576.2094</v>
+        <v>57056.9688</v>
       </c>
       <c r="G97" t="n">
-        <v>5.641166666666669</v>
+        <v>5.648000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="C98" t="n">
         <v>5.95</v>
@@ -3802,13 +3802,13 @@
         <v>5.95</v>
       </c>
       <c r="E98" t="n">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="F98" t="n">
-        <v>57056.9688</v>
+        <v>17515.1344</v>
       </c>
       <c r="G98" t="n">
-        <v>5.648000000000001</v>
+        <v>5.654833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C99" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D99" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E99" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F99" t="n">
-        <v>17515.1344</v>
+        <v>21917</v>
       </c>
       <c r="G99" t="n">
-        <v>5.654833333333334</v>
+        <v>5.661333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="C100" t="n">
         <v>5.93</v>
       </c>
       <c r="D100" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E100" t="n">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="F100" t="n">
-        <v>21917</v>
+        <v>564614.9271</v>
       </c>
       <c r="G100" t="n">
-        <v>5.661333333333334</v>
+        <v>5.668333333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C101" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="D101" t="n">
         <v>5.95</v>
@@ -3910,10 +3910,10 @@
         <v>5.92</v>
       </c>
       <c r="F101" t="n">
-        <v>564614.9271</v>
+        <v>13500</v>
       </c>
       <c r="G101" t="n">
-        <v>5.668333333333335</v>
+        <v>5.675666666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="C102" t="n">
-        <v>5.95</v>
+        <v>5.83</v>
       </c>
       <c r="D102" t="n">
-        <v>5.95</v>
+        <v>5.92</v>
       </c>
       <c r="E102" t="n">
-        <v>5.92</v>
+        <v>5.83</v>
       </c>
       <c r="F102" t="n">
-        <v>13500</v>
+        <v>216623.2153</v>
       </c>
       <c r="G102" t="n">
-        <v>5.675666666666668</v>
+        <v>5.680833333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.92</v>
+        <v>5.88</v>
       </c>
       <c r="C103" t="n">
-        <v>5.83</v>
+        <v>5.8</v>
       </c>
       <c r="D103" t="n">
-        <v>5.92</v>
+        <v>5.88</v>
       </c>
       <c r="E103" t="n">
-        <v>5.83</v>
+        <v>5.76</v>
       </c>
       <c r="F103" t="n">
-        <v>216623.2153</v>
+        <v>223445.4288</v>
       </c>
       <c r="G103" t="n">
-        <v>5.680833333333335</v>
+        <v>5.685666666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="C104" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="D104" t="n">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="E104" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="F104" t="n">
-        <v>223445.4288</v>
+        <v>21394.6865</v>
       </c>
       <c r="G104" t="n">
-        <v>5.685666666666668</v>
+        <v>5.690833333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.79</v>
+        <v>5.84</v>
       </c>
       <c r="C105" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="D105" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="E105" t="n">
-        <v>5.79</v>
+        <v>5.84</v>
       </c>
       <c r="F105" t="n">
-        <v>21394.6865</v>
+        <v>111.6438</v>
       </c>
       <c r="G105" t="n">
-        <v>5.690833333333335</v>
+        <v>5.695666666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>5.84</v>
       </c>
       <c r="C106" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="D106" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E106" t="n">
         <v>5.84</v>
       </c>
       <c r="F106" t="n">
-        <v>111.6438</v>
+        <v>151090.2036</v>
       </c>
       <c r="G106" t="n">
-        <v>5.695666666666668</v>
+        <v>5.700500000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C107" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E107" t="n">
         <v>5.85</v>
       </c>
-      <c r="D107" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E107" t="n">
-        <v>5.84</v>
-      </c>
       <c r="F107" t="n">
-        <v>151090.2036</v>
+        <v>42381.1043</v>
       </c>
       <c r="G107" t="n">
-        <v>5.700500000000002</v>
+        <v>5.706166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C108" t="n">
-        <v>5.9</v>
+        <v>5.77</v>
       </c>
       <c r="D108" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="E108" t="n">
-        <v>5.85</v>
+        <v>5.77</v>
       </c>
       <c r="F108" t="n">
-        <v>42381.1043</v>
+        <v>438920.316</v>
       </c>
       <c r="G108" t="n">
-        <v>5.706166666666667</v>
+        <v>5.709500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.87</v>
+        <v>5.76</v>
       </c>
       <c r="C109" t="n">
-        <v>5.77</v>
+        <v>5.7</v>
       </c>
       <c r="D109" t="n">
-        <v>5.87</v>
+        <v>5.76</v>
       </c>
       <c r="E109" t="n">
-        <v>5.77</v>
+        <v>5.7</v>
       </c>
       <c r="F109" t="n">
-        <v>438920.316</v>
+        <v>1014385.9147</v>
       </c>
       <c r="G109" t="n">
-        <v>5.709500000000001</v>
+        <v>5.711833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="C110" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D110" t="n">
-        <v>5.76</v>
+        <v>5.71</v>
       </c>
       <c r="E110" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F110" t="n">
-        <v>1014385.9147</v>
+        <v>407996.3227</v>
       </c>
       <c r="G110" t="n">
-        <v>5.711833333333334</v>
+        <v>5.713833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="C111" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="D111" t="n">
-        <v>5.71</v>
+        <v>5.73</v>
       </c>
       <c r="E111" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F111" t="n">
-        <v>407996.3227</v>
+        <v>529484.4789</v>
       </c>
       <c r="G111" t="n">
-        <v>5.713833333333334</v>
+        <v>5.716333333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="C112" t="n">
-        <v>5.72</v>
+        <v>5.75</v>
       </c>
       <c r="D112" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E112" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="F112" t="n">
-        <v>529484.4789</v>
+        <v>227048.76</v>
       </c>
       <c r="G112" t="n">
-        <v>5.716333333333335</v>
+        <v>5.719500000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="C113" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E113" t="n">
         <v>5.75</v>
       </c>
-      <c r="D113" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5.71</v>
-      </c>
       <c r="F113" t="n">
-        <v>227048.76</v>
+        <v>290509.5299</v>
       </c>
       <c r="G113" t="n">
-        <v>5.719500000000001</v>
+        <v>5.723333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="C114" t="n">
         <v>5.78</v>
@@ -4362,13 +4362,13 @@
         <v>5.78</v>
       </c>
       <c r="E114" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="F114" t="n">
-        <v>290509.5299</v>
+        <v>52101.8719</v>
       </c>
       <c r="G114" t="n">
-        <v>5.723333333333334</v>
+        <v>5.727333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>5.78</v>
       </c>
       <c r="C115" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="D115" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="E115" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="F115" t="n">
-        <v>52101.8719</v>
+        <v>263157.7493</v>
       </c>
       <c r="G115" t="n">
-        <v>5.727333333333333</v>
+        <v>5.7315</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="C116" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="D116" t="n">
         <v>5.8</v>
       </c>
       <c r="E116" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="F116" t="n">
-        <v>263157.7493</v>
+        <v>398434.6801</v>
       </c>
       <c r="G116" t="n">
-        <v>5.7315</v>
+        <v>5.735166666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C117" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="D117" t="n">
         <v>5.8</v>
       </c>
       <c r="E117" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="F117" t="n">
-        <v>398434.6801</v>
+        <v>53160.285</v>
       </c>
       <c r="G117" t="n">
-        <v>5.735166666666666</v>
+        <v>5.738666666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C118" t="n">
         <v>5.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5.76</v>
       </c>
       <c r="D118" t="n">
         <v>5.8</v>
       </c>
       <c r="E118" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="F118" t="n">
-        <v>53160.285</v>
+        <v>60459.7372</v>
       </c>
       <c r="G118" t="n">
-        <v>5.738666666666665</v>
+        <v>5.742499999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C119" t="n">
         <v>5.8</v>
@@ -4537,13 +4537,13 @@
         <v>5.8</v>
       </c>
       <c r="E119" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F119" t="n">
-        <v>60459.7372</v>
+        <v>12575.5862</v>
       </c>
       <c r="G119" t="n">
-        <v>5.742499999999999</v>
+        <v>5.746499999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>5.8</v>
       </c>
       <c r="F120" t="n">
-        <v>12575.5862</v>
+        <v>21434.3926</v>
       </c>
       <c r="G120" t="n">
-        <v>5.746499999999999</v>
+        <v>5.7505</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>5.8</v>
       </c>
       <c r="C121" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D121" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="E121" t="n">
         <v>5.8</v>
       </c>
       <c r="F121" t="n">
-        <v>21434.3926</v>
+        <v>51056.9509</v>
       </c>
       <c r="G121" t="n">
-        <v>5.7505</v>
+        <v>5.754833333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="C122" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D122" t="n">
         <v>5.84</v>
       </c>
       <c r="E122" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="F122" t="n">
-        <v>51056.9509</v>
+        <v>11</v>
       </c>
       <c r="G122" t="n">
-        <v>5.754833333333333</v>
+        <v>5.760499999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C123" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D123" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E123" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F123" t="n">
-        <v>11</v>
+        <v>50103.6775</v>
       </c>
       <c r="G123" t="n">
-        <v>5.760499999999999</v>
+        <v>5.765333333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C124" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="D124" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="E124" t="n">
         <v>5.83</v>
       </c>
       <c r="F124" t="n">
-        <v>50103.6775</v>
+        <v>640089.8016</v>
       </c>
       <c r="G124" t="n">
-        <v>5.765333333333332</v>
+        <v>5.770499999999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,10 +4738,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C125" t="n">
         <v>5.84</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.85</v>
       </c>
       <c r="D125" t="n">
         <v>5.85</v>
@@ -4750,10 +4750,10 @@
         <v>5.83</v>
       </c>
       <c r="F125" t="n">
-        <v>640089.8016</v>
+        <v>250941.4023</v>
       </c>
       <c r="G125" t="n">
-        <v>5.770499999999998</v>
+        <v>5.775499999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="C126" t="n">
         <v>5.84</v>
       </c>
       <c r="D126" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="E126" t="n">
         <v>5.83</v>
       </c>
       <c r="F126" t="n">
-        <v>250941.4023</v>
+        <v>129335.7675</v>
       </c>
       <c r="G126" t="n">
-        <v>5.775499999999997</v>
+        <v>5.78033333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C127" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D127" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E127" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="F127" t="n">
-        <v>129335.7675</v>
+        <v>69.6734</v>
       </c>
       <c r="G127" t="n">
-        <v>5.78033333333333</v>
+        <v>5.78583333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>5.88</v>
       </c>
       <c r="C128" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D128" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E128" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F128" t="n">
-        <v>69.6734</v>
+        <v>241599.9727</v>
       </c>
       <c r="G128" t="n">
-        <v>5.78583333333333</v>
+        <v>5.791166666666664</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C129" t="n">
         <v>5.87</v>
       </c>
       <c r="D129" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E129" t="n">
         <v>5.87</v>
       </c>
       <c r="F129" t="n">
-        <v>241599.9727</v>
+        <v>20121.5728</v>
       </c>
       <c r="G129" t="n">
-        <v>5.791166666666664</v>
+        <v>5.796166666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C130" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D130" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E130" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F130" t="n">
-        <v>20121.5728</v>
+        <v>7077.1221</v>
       </c>
       <c r="G130" t="n">
-        <v>5.796166666666664</v>
+        <v>5.801499999999996</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>5.89</v>
       </c>
       <c r="F131" t="n">
-        <v>7077.1221</v>
+        <v>11964.4067</v>
       </c>
       <c r="G131" t="n">
-        <v>5.801499999999996</v>
+        <v>5.80683333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C132" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="D132" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="E132" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="F132" t="n">
-        <v>11964.4067</v>
+        <v>21299</v>
       </c>
       <c r="G132" t="n">
-        <v>5.80683333333333</v>
+        <v>5.811499999999997</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>5.85</v>
       </c>
       <c r="C133" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="D133" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="E133" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="F133" t="n">
-        <v>21299</v>
+        <v>76557.2885</v>
       </c>
       <c r="G133" t="n">
-        <v>5.811499999999997</v>
+        <v>5.816666666666664</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="C134" t="n">
         <v>5.89</v>
@@ -5062,13 +5062,13 @@
         <v>5.89</v>
       </c>
       <c r="E134" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="F134" t="n">
-        <v>76557.2885</v>
+        <v>5192.0203</v>
       </c>
       <c r="G134" t="n">
-        <v>5.816666666666664</v>
+        <v>5.821833333333331</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="C135" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="D135" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="E135" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="F135" t="n">
-        <v>5192.0203</v>
+        <v>34559.1091</v>
       </c>
       <c r="G135" t="n">
-        <v>5.821833333333331</v>
+        <v>5.826166666666664</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>5.86</v>
       </c>
       <c r="F136" t="n">
-        <v>34559.1091</v>
+        <v>6782.3136</v>
       </c>
       <c r="G136" t="n">
-        <v>5.826166666666664</v>
+        <v>5.830499999999997</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C137" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D137" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="E137" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F137" t="n">
-        <v>6782.3136</v>
+        <v>221.6524</v>
       </c>
       <c r="G137" t="n">
-        <v>5.830499999999997</v>
+        <v>5.834999999999996</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="D138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E138" t="n">
-        <v>5.87</v>
+        <v>5.85</v>
       </c>
       <c r="F138" t="n">
-        <v>221.6524</v>
+        <v>133367.5446</v>
       </c>
       <c r="G138" t="n">
-        <v>5.834999999999996</v>
+        <v>5.83933333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="C139" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D139" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="E139" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="F139" t="n">
-        <v>133367.5446</v>
+        <v>111437.7241</v>
       </c>
       <c r="G139" t="n">
-        <v>5.83933333333333</v>
+        <v>5.842499999999997</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="C140" t="n">
         <v>5.83</v>
       </c>
       <c r="D140" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="E140" t="n">
         <v>5.83</v>
       </c>
       <c r="F140" t="n">
-        <v>111437.7241</v>
+        <v>47048.71355060034</v>
       </c>
       <c r="G140" t="n">
-        <v>5.842499999999997</v>
+        <v>5.844333333333329</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>5.83</v>
       </c>
       <c r="F141" t="n">
-        <v>47048.71355060034</v>
+        <v>3021.2692</v>
       </c>
       <c r="G141" t="n">
-        <v>5.844333333333329</v>
+        <v>5.843999999999995</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="C142" t="n">
-        <v>5.83</v>
+        <v>5.77</v>
       </c>
       <c r="D142" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="E142" t="n">
-        <v>5.83</v>
+        <v>5.77</v>
       </c>
       <c r="F142" t="n">
-        <v>3021.2692</v>
+        <v>93429.70419999999</v>
       </c>
       <c r="G142" t="n">
-        <v>5.843999999999995</v>
+        <v>5.843833333333328</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="C143" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="D143" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="E143" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="F143" t="n">
-        <v>93429.70419999999</v>
+        <v>7268.7042</v>
       </c>
       <c r="G143" t="n">
-        <v>5.843833333333328</v>
+        <v>5.843333333333329</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="C144" t="n">
-        <v>5.73</v>
+        <v>5.83</v>
       </c>
       <c r="D144" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="E144" t="n">
-        <v>5.73</v>
+        <v>5.65</v>
       </c>
       <c r="F144" t="n">
-        <v>7268.7042</v>
+        <v>611283.9953</v>
       </c>
       <c r="G144" t="n">
-        <v>5.843333333333329</v>
+        <v>5.844333333333329</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="C145" t="n">
-        <v>5.83</v>
+        <v>5.78</v>
       </c>
       <c r="D145" t="n">
         <v>5.83</v>
       </c>
       <c r="E145" t="n">
-        <v>5.65</v>
+        <v>5.78</v>
       </c>
       <c r="F145" t="n">
-        <v>611283.9953</v>
+        <v>570.6048</v>
       </c>
       <c r="G145" t="n">
-        <v>5.844333333333329</v>
+        <v>5.844499999999996</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="C146" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="D146" t="n">
-        <v>5.83</v>
+        <v>5.77</v>
       </c>
       <c r="E146" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="F146" t="n">
-        <v>570.6048</v>
+        <v>26.5164</v>
       </c>
       <c r="G146" t="n">
-        <v>5.844499999999996</v>
+        <v>5.843666666666662</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="C147" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="D147" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="E147" t="n">
-        <v>5.77</v>
+        <v>5.72</v>
       </c>
       <c r="F147" t="n">
-        <v>26.5164</v>
+        <v>246893.3541</v>
       </c>
       <c r="G147" t="n">
-        <v>5.843666666666662</v>
+        <v>5.841999999999996</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="C148" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="D148" t="n">
         <v>5.75</v>
       </c>
       <c r="E148" t="n">
-        <v>5.72</v>
+        <v>5.75</v>
       </c>
       <c r="F148" t="n">
-        <v>246893.3541</v>
+        <v>5000</v>
       </c>
       <c r="G148" t="n">
-        <v>5.841999999999996</v>
+        <v>5.840166666666662</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>5.75</v>
       </c>
       <c r="F149" t="n">
-        <v>5000</v>
+        <v>10737.3913</v>
       </c>
       <c r="G149" t="n">
-        <v>5.840166666666662</v>
+        <v>5.838166666666663</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="C150" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="D150" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="E150" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="F150" t="n">
-        <v>10737.3913</v>
+        <v>5000</v>
       </c>
       <c r="G150" t="n">
-        <v>5.838166666666663</v>
+        <v>5.835999999999996</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="C151" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="D151" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="E151" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="F151" t="n">
-        <v>5000</v>
+        <v>11964.4068</v>
       </c>
       <c r="G151" t="n">
-        <v>5.835999999999996</v>
+        <v>5.833333333333329</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="C152" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="D152" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="E152" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="F152" t="n">
-        <v>11964.4068</v>
+        <v>175.4442</v>
       </c>
       <c r="G152" t="n">
-        <v>5.833333333333329</v>
+        <v>5.829499999999995</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="C153" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="D153" t="n">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="E153" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="F153" t="n">
-        <v>175.4442</v>
+        <v>196160.7648</v>
       </c>
       <c r="G153" t="n">
-        <v>5.829499999999995</v>
+        <v>5.824833333333328</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.71</v>
+        <v>5.68</v>
       </c>
       <c r="C154" t="n">
-        <v>5.7</v>
+        <v>5.65</v>
       </c>
       <c r="D154" t="n">
-        <v>5.71</v>
+        <v>5.68</v>
       </c>
       <c r="E154" t="n">
-        <v>5.7</v>
+        <v>5.65</v>
       </c>
       <c r="F154" t="n">
-        <v>196160.7648</v>
+        <v>271022.1375</v>
       </c>
       <c r="G154" t="n">
-        <v>5.824833333333328</v>
+        <v>5.819833333333327</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="C155" t="n">
         <v>5.65</v>
       </c>
       <c r="D155" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="E155" t="n">
-        <v>5.65</v>
+        <v>5.59</v>
       </c>
       <c r="F155" t="n">
-        <v>271022.1375</v>
+        <v>20720.3023</v>
       </c>
       <c r="G155" t="n">
-        <v>5.819833333333327</v>
+        <v>5.814499999999994</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>5.63</v>
       </c>
       <c r="C156" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="D156" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="E156" t="n">
-        <v>5.59</v>
+        <v>5.63</v>
       </c>
       <c r="F156" t="n">
-        <v>20720.3023</v>
+        <v>38089.9345</v>
       </c>
       <c r="G156" t="n">
-        <v>5.814499999999994</v>
+        <v>5.811333333333327</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="C157" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="D157" t="n">
         <v>5.71</v>
       </c>
       <c r="E157" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F157" t="n">
-        <v>38089.9345</v>
+        <v>66158.9999</v>
       </c>
       <c r="G157" t="n">
-        <v>5.811333333333327</v>
+        <v>5.80716666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.71</v>
+        <v>5.73</v>
       </c>
       <c r="C158" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D158" t="n">
-        <v>5.71</v>
+        <v>5.73</v>
       </c>
       <c r="E158" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F158" t="n">
-        <v>66158.9999</v>
+        <v>243221.9626</v>
       </c>
       <c r="G158" t="n">
-        <v>5.80716666666666</v>
+        <v>5.803333333333327</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.73</v>
+        <v>5.69</v>
       </c>
       <c r="C159" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="D159" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="E159" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="F159" t="n">
-        <v>243221.9626</v>
+        <v>5000</v>
       </c>
       <c r="G159" t="n">
-        <v>5.803333333333327</v>
+        <v>5.799499999999994</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="C160" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="D160" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="E160" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="F160" t="n">
         <v>5000</v>
       </c>
       <c r="G160" t="n">
-        <v>5.799499999999994</v>
+        <v>5.795333333333327</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="C161" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="D161" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="E161" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="F161" t="n">
         <v>5000</v>
       </c>
       <c r="G161" t="n">
-        <v>5.795333333333327</v>
+        <v>5.790666666666661</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,35 +6033,31 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="C162" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="D162" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="E162" t="n">
-        <v>5.67</v>
+        <v>5.6</v>
       </c>
       <c r="F162" t="n">
-        <v>5000</v>
+        <v>14448.0429</v>
       </c>
       <c r="G162" t="n">
-        <v>5.790666666666661</v>
+        <v>5.788166666666661</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K162" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
@@ -6075,19 +6071,19 @@
         <v>5.65</v>
       </c>
       <c r="C163" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="D163" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="E163" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="F163" t="n">
-        <v>14448.0429</v>
+        <v>15166.0817</v>
       </c>
       <c r="G163" t="n">
-        <v>5.788166666666661</v>
+        <v>5.786333333333328</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6096,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6116,37 +6106,33 @@
         <v>5.65</v>
       </c>
       <c r="C164" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.782999999999993</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
         <v>5.69</v>
       </c>
-      <c r="D164" t="n">
+      <c r="K164" t="n">
         <v>5.69</v>
       </c>
-      <c r="E164" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F164" t="n">
-        <v>15166.0817</v>
-      </c>
-      <c r="G164" t="n">
-        <v>5.786333333333328</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6168,10 +6154,10 @@
         <v>5.65</v>
       </c>
       <c r="F165" t="n">
-        <v>5000</v>
+        <v>23519.6582</v>
       </c>
       <c r="G165" t="n">
-        <v>5.782999999999993</v>
+        <v>5.779833333333327</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -6180,14 +6166,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K165" t="n">
         <v>5.69</v>
       </c>
-      <c r="K165" t="n">
-        <v>5.68</v>
-      </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -6199,22 +6185,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C166" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D166" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E166" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F166" t="n">
-        <v>23519.6582</v>
+        <v>268.4533</v>
       </c>
       <c r="G166" t="n">
-        <v>5.779833333333327</v>
+        <v>5.77716666666666</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
@@ -6226,11 +6212,11 @@
         <v>5.65</v>
       </c>
       <c r="K166" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M166" t="n">
@@ -6254,10 +6240,10 @@
         <v>5.69</v>
       </c>
       <c r="F167" t="n">
-        <v>268.4533</v>
+        <v>124.0263</v>
       </c>
       <c r="G167" t="n">
-        <v>5.77716666666666</v>
+        <v>5.77366666666666</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -6266,16 +6252,12 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="K167" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.69</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6297,10 +6279,10 @@
         <v>5.69</v>
       </c>
       <c r="F168" t="n">
-        <v>124.0263</v>
+        <v>118.0404</v>
       </c>
       <c r="G168" t="n">
-        <v>5.77366666666666</v>
+        <v>5.772333333333327</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -6312,11 +6294,11 @@
         <v>5.69</v>
       </c>
       <c r="K168" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6328,36 +6310,38 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17398</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.771499999999993</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
         <v>5.69</v>
       </c>
-      <c r="C169" t="n">
+      <c r="K169" t="n">
         <v>5.69</v>
       </c>
-      <c r="D169" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F169" t="n">
-        <v>118.0404</v>
-      </c>
-      <c r="G169" t="n">
-        <v>5.772333333333327</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.68</v>
-      </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -6369,22 +6353,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C170" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D170" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E170" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="F170" t="n">
-        <v>17398</v>
+        <v>5000</v>
       </c>
       <c r="G170" t="n">
-        <v>5.771499999999993</v>
+        <v>5.77066666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6393,14 +6377,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6413,19 +6391,19 @@
         <v>5.64</v>
       </c>
       <c r="C171" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="D171" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E171" t="n">
         <v>5.64</v>
       </c>
       <c r="F171" t="n">
-        <v>5000</v>
+        <v>5112.938</v>
       </c>
       <c r="G171" t="n">
-        <v>5.77066666666666</v>
+        <v>5.769499999999993</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6434,14 +6412,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6451,7 +6423,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C172" t="n">
         <v>5.65</v>
@@ -6460,27 +6432,27 @@
         <v>5.65</v>
       </c>
       <c r="E172" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="F172" t="n">
-        <v>5112.938</v>
+        <v>83651.0448</v>
       </c>
       <c r="G172" t="n">
-        <v>5.769499999999993</v>
+        <v>5.767833333333326</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J172" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6492,33 +6464,33 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C173" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F173" t="n">
+        <v>25730.6049</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.765166666666659</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
         <v>5.65</v>
       </c>
-      <c r="D173" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F173" t="n">
-        <v>83651.0448</v>
-      </c>
-      <c r="G173" t="n">
-        <v>5.767833333333326</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6545,21 +6517,21 @@
         <v>5.62</v>
       </c>
       <c r="F174" t="n">
-        <v>25730.6049</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="n">
-        <v>5.765166666666659</v>
+        <v>5.762499999999993</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J174" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,7 +6546,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C175" t="n">
         <v>5.62</v>
@@ -6583,24 +6555,24 @@
         <v>5.62</v>
       </c>
       <c r="E175" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F175" t="n">
+        <v>178136.4966</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.759499999999993</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
         <v>5.62</v>
       </c>
-      <c r="F175" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>5.762499999999993</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6615,33 +6587,33 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.6</v>
+        <v>5.57</v>
       </c>
       <c r="C176" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F176" t="n">
+        <v>46931.0918</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5.755833333333327</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
         <v>5.62</v>
       </c>
-      <c r="D176" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F176" t="n">
-        <v>178136.4966</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5.759499999999993</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,33 +6628,33 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.57</v>
+        <v>5.62</v>
       </c>
       <c r="C177" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.753499999999994</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
         <v>5.55</v>
       </c>
-      <c r="D177" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="F177" t="n">
-        <v>46931.0918</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5.755833333333327</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,7 +6669,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C178" t="n">
         <v>5.62</v>
@@ -6706,24 +6678,24 @@
         <v>5.62</v>
       </c>
       <c r="E178" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>192289.771</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.750499999999994</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
         <v>5.62</v>
       </c>
-      <c r="F178" t="n">
-        <v>10</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5.753499999999994</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,33 +6710,33 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="C179" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="F179" t="n">
+        <v>15889.4743</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.747833333333327</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
         <v>5.62</v>
       </c>
-      <c r="D179" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F179" t="n">
-        <v>192289.771</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5.750499999999994</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6788,24 +6760,24 @@
         <v>5.64</v>
       </c>
       <c r="E180" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F180" t="n">
+        <v>170301.3674</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.74516666666666</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
         <v>5.64</v>
       </c>
-      <c r="F180" t="n">
-        <v>15889.4743</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5.747833333333327</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6820,33 +6792,33 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F181" t="n">
+        <v>96.8318</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5.742499999999993</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
         <v>5.64</v>
       </c>
-      <c r="C181" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F181" t="n">
-        <v>170301.3674</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5.74516666666666</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,21 +6845,21 @@
         <v>5.65</v>
       </c>
       <c r="F182" t="n">
-        <v>96.8318</v>
+        <v>20633.773</v>
       </c>
       <c r="G182" t="n">
-        <v>5.742499999999993</v>
+        <v>5.739333333333326</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J182" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6902,33 +6874,33 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F183" t="n">
+        <v>91.3356</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.736999999999993</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
         <v>5.65</v>
       </c>
-      <c r="C183" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F183" t="n">
-        <v>20633.773</v>
-      </c>
-      <c r="G183" t="n">
-        <v>5.739333333333326</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,21 +6927,21 @@
         <v>5.69</v>
       </c>
       <c r="F184" t="n">
-        <v>91.3356</v>
+        <v>118104.5042</v>
       </c>
       <c r="G184" t="n">
-        <v>5.736999999999993</v>
+        <v>5.734333333333326</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J184" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,22 +6956,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C185" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D185" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E185" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F185" t="n">
-        <v>118104.5042</v>
+        <v>86.6228</v>
       </c>
       <c r="G185" t="n">
-        <v>5.734333333333326</v>
+        <v>5.731999999999993</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7008,9 +6980,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,22 +6995,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C186" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D186" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E186" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F186" t="n">
-        <v>86.6228</v>
+        <v>5354.982</v>
       </c>
       <c r="G186" t="n">
-        <v>5.731999999999993</v>
+        <v>5.729499999999993</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7049,9 +7019,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,10 +7046,10 @@
         <v>5.69</v>
       </c>
       <c r="F187" t="n">
-        <v>5354.982</v>
+        <v>38560.9314</v>
       </c>
       <c r="G187" t="n">
-        <v>5.729499999999993</v>
+        <v>5.726333333333327</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7090,9 +7058,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,10 +7085,10 @@
         <v>5.69</v>
       </c>
       <c r="F188" t="n">
-        <v>38560.9314</v>
+        <v>34704.833</v>
       </c>
       <c r="G188" t="n">
-        <v>5.726333333333327</v>
+        <v>5.723333333333327</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7131,9 +7097,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7148,22 +7112,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="C189" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="D189" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="E189" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F189" t="n">
-        <v>34704.833</v>
+        <v>251485.2527</v>
       </c>
       <c r="G189" t="n">
-        <v>5.723333333333327</v>
+        <v>5.72016666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7172,9 +7136,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,22 +7151,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C190" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="D190" t="n">
-        <v>5.68</v>
+        <v>5.64</v>
       </c>
       <c r="E190" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F190" t="n">
-        <v>251485.2527</v>
+        <v>90325.63400000001</v>
       </c>
       <c r="G190" t="n">
-        <v>5.72016666666666</v>
+        <v>5.715833333333326</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7213,9 +7175,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7230,22 +7190,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="C191" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D191" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E191" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F191" t="n">
-        <v>90325.63400000001</v>
+        <v>3670.9447</v>
       </c>
       <c r="G191" t="n">
-        <v>5.715833333333326</v>
+        <v>5.71116666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7254,9 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7283,10 +7241,10 @@
         <v>5.61</v>
       </c>
       <c r="F192" t="n">
-        <v>3670.9447</v>
+        <v>24675.5347</v>
       </c>
       <c r="G192" t="n">
-        <v>5.71116666666666</v>
+        <v>5.707166666666661</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7295,9 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,10 +7280,10 @@
         <v>5.61</v>
       </c>
       <c r="F193" t="n">
-        <v>24675.5347</v>
+        <v>2118.6306</v>
       </c>
       <c r="G193" t="n">
-        <v>5.707166666666661</v>
+        <v>5.702499999999994</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7336,9 +7292,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,22 +7307,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="C194" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D194" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="E194" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F194" t="n">
-        <v>2118.6306</v>
+        <v>71.4387</v>
       </c>
       <c r="G194" t="n">
-        <v>5.702499999999994</v>
+        <v>5.698166666666661</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7377,9 +7331,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,10 +7358,10 @@
         <v>5.63</v>
       </c>
       <c r="F195" t="n">
-        <v>71.4387</v>
+        <v>67.3897</v>
       </c>
       <c r="G195" t="n">
-        <v>5.698166666666661</v>
+        <v>5.694333333333327</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7418,9 +7370,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,22 +7385,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="C196" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="D196" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="E196" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="F196" t="n">
-        <v>67.3897</v>
+        <v>64.03879999999999</v>
       </c>
       <c r="G196" t="n">
-        <v>5.694333333333327</v>
+        <v>5.69116666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7459,9 +7409,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7488,10 +7436,10 @@
         <v>5.67</v>
       </c>
       <c r="F197" t="n">
-        <v>64.03879999999999</v>
+        <v>60.8377</v>
       </c>
       <c r="G197" t="n">
-        <v>5.69116666666666</v>
+        <v>5.687833333333328</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7500,9 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,22 +7463,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="C198" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="D198" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="E198" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="F198" t="n">
-        <v>60.8377</v>
+        <v>203.221</v>
       </c>
       <c r="G198" t="n">
-        <v>5.687833333333328</v>
+        <v>5.683833333333327</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7541,9 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7558,22 +7502,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="C199" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="D199" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="E199" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="F199" t="n">
-        <v>203.221</v>
+        <v>58.1028</v>
       </c>
       <c r="G199" t="n">
-        <v>5.683833333333327</v>
+        <v>5.680666666666661</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7582,9 +7526,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,7 +7541,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C200" t="n">
         <v>5.64</v>
@@ -7608,13 +7550,13 @@
         <v>5.64</v>
       </c>
       <c r="E200" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="F200" t="n">
-        <v>58.1028</v>
+        <v>167956.1822</v>
       </c>
       <c r="G200" t="n">
-        <v>5.680666666666661</v>
+        <v>5.677499999999994</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7623,9 +7565,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,22 +7580,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C201" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="D201" t="n">
         <v>5.64</v>
       </c>
       <c r="E201" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F201" t="n">
-        <v>167956.1822</v>
+        <v>81730.60739999999</v>
       </c>
       <c r="G201" t="n">
-        <v>5.677499999999994</v>
+        <v>5.674166666666661</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7664,9 +7604,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7681,22 +7619,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C202" t="n">
         <v>5.63</v>
       </c>
       <c r="D202" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E202" t="n">
         <v>5.63</v>
       </c>
       <c r="F202" t="n">
-        <v>81730.60739999999</v>
+        <v>72411.5076</v>
       </c>
       <c r="G202" t="n">
-        <v>5.674166666666661</v>
+        <v>5.671833333333328</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7705,9 +7643,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,10 +7658,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C203" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="D203" t="n">
         <v>5.65</v>
@@ -7734,10 +7670,10 @@
         <v>5.63</v>
       </c>
       <c r="F203" t="n">
-        <v>72411.5076</v>
+        <v>25853.441</v>
       </c>
       <c r="G203" t="n">
-        <v>5.671833333333328</v>
+        <v>5.670499999999993</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7746,9 +7682,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7772,13 +7706,13 @@
         <v>5.65</v>
       </c>
       <c r="E204" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F204" t="n">
-        <v>25853.441</v>
+        <v>66.0973</v>
       </c>
       <c r="G204" t="n">
-        <v>5.670499999999993</v>
+        <v>5.667499999999993</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7787,9 +7721,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,10 +7748,10 @@
         <v>5.65</v>
       </c>
       <c r="F205" t="n">
-        <v>66.0973</v>
+        <v>100</v>
       </c>
       <c r="G205" t="n">
-        <v>5.667499999999993</v>
+        <v>5.665333333333327</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7828,9 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7857,10 +7787,10 @@
         <v>5.65</v>
       </c>
       <c r="F206" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G206" t="n">
-        <v>5.665333333333327</v>
+        <v>5.663333333333327</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7869,9 +7799,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7886,22 +7814,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="C207" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="D207" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="E207" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F207" t="n">
-        <v>5000</v>
+        <v>20227.559</v>
       </c>
       <c r="G207" t="n">
-        <v>5.663333333333327</v>
+        <v>5.661499999999993</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7910,9 +7838,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,10 +7865,10 @@
         <v>5.63</v>
       </c>
       <c r="F208" t="n">
-        <v>20227.559</v>
+        <v>58532</v>
       </c>
       <c r="G208" t="n">
-        <v>5.661499999999993</v>
+        <v>5.659499999999993</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7951,9 +7877,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,19 +7895,19 @@
         <v>5.63</v>
       </c>
       <c r="C209" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D209" t="n">
         <v>5.63</v>
       </c>
       <c r="E209" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F209" t="n">
-        <v>58532</v>
+        <v>253339.9285</v>
       </c>
       <c r="G209" t="n">
-        <v>5.659499999999993</v>
+        <v>5.657333333333327</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7992,9 +7916,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,22 +7931,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C210" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D210" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="E210" t="n">
         <v>5.62</v>
       </c>
       <c r="F210" t="n">
-        <v>253339.9285</v>
+        <v>66196.0707</v>
       </c>
       <c r="G210" t="n">
-        <v>5.657333333333327</v>
+        <v>5.655999999999993</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8033,9 +7955,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,19 +7973,19 @@
         <v>5.62</v>
       </c>
       <c r="C211" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="D211" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="E211" t="n">
         <v>5.62</v>
       </c>
       <c r="F211" t="n">
-        <v>66196.0707</v>
+        <v>41873.055</v>
       </c>
       <c r="G211" t="n">
-        <v>5.655999999999993</v>
+        <v>5.654666666666659</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8074,9 +7994,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8091,22 +8009,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="C212" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="D212" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="E212" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F212" t="n">
-        <v>41873.055</v>
+        <v>195106.5446</v>
       </c>
       <c r="G212" t="n">
-        <v>5.654666666666659</v>
+        <v>5.652999999999992</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8115,9 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,22 +8048,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="C213" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="D213" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="E213" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
       <c r="F213" t="n">
-        <v>195106.5446</v>
+        <v>7320.8142</v>
       </c>
       <c r="G213" t="n">
-        <v>5.652999999999992</v>
+        <v>5.65066666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8156,9 +8072,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8173,22 +8087,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="C214" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="D214" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="E214" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="F214" t="n">
-        <v>7320.8142</v>
+        <v>2270.1358</v>
       </c>
       <c r="G214" t="n">
-        <v>5.65066666666666</v>
+        <v>5.65016666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8197,9 +8111,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8226,10 +8138,10 @@
         <v>5.62</v>
       </c>
       <c r="F215" t="n">
-        <v>2270.1358</v>
+        <v>88.8888</v>
       </c>
       <c r="G215" t="n">
-        <v>5.65016666666666</v>
+        <v>5.64966666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8238,9 +8150,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8267,10 +8177,10 @@
         <v>5.62</v>
       </c>
       <c r="F216" t="n">
-        <v>88.8888</v>
+        <v>78.1112</v>
       </c>
       <c r="G216" t="n">
-        <v>5.64966666666666</v>
+        <v>5.64816666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8279,9 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8308,10 +8216,10 @@
         <v>5.62</v>
       </c>
       <c r="F217" t="n">
-        <v>78.1112</v>
+        <v>10058.5409</v>
       </c>
       <c r="G217" t="n">
-        <v>5.64816666666666</v>
+        <v>5.646833333333328</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8320,9 +8228,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,10 +8255,10 @@
         <v>5.62</v>
       </c>
       <c r="F218" t="n">
-        <v>10058.5409</v>
+        <v>168.5498</v>
       </c>
       <c r="G218" t="n">
-        <v>5.646833333333328</v>
+        <v>5.64516666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8361,9 +8267,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,10 +8294,10 @@
         <v>5.62</v>
       </c>
       <c r="F219" t="n">
-        <v>168.5498</v>
+        <v>9572.909299999999</v>
       </c>
       <c r="G219" t="n">
-        <v>5.64516666666666</v>
+        <v>5.643833333333328</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8402,9 +8306,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8419,22 +8321,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="C220" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="D220" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="E220" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="F220" t="n">
-        <v>9572.909299999999</v>
+        <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>5.643833333333328</v>
+        <v>5.64316666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8443,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,10 +8372,10 @@
         <v>5.64</v>
       </c>
       <c r="F221" t="n">
-        <v>10</v>
+        <v>201.4184</v>
       </c>
       <c r="G221" t="n">
-        <v>5.64316666666666</v>
+        <v>5.64266666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8484,9 +8384,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8501,22 +8399,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="C222" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D222" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E222" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="F222" t="n">
-        <v>201.4184</v>
+        <v>553.2075</v>
       </c>
       <c r="G222" t="n">
-        <v>5.64266666666666</v>
+        <v>5.641499999999994</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8525,9 +8423,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8554,10 +8450,10 @@
         <v>5.61</v>
       </c>
       <c r="F223" t="n">
-        <v>553.2075</v>
+        <v>43980.6534</v>
       </c>
       <c r="G223" t="n">
-        <v>5.641499999999994</v>
+        <v>5.64016666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8566,9 +8462,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8586,19 +8480,19 @@
         <v>5.61</v>
       </c>
       <c r="C224" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="D224" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E224" t="n">
         <v>5.61</v>
       </c>
       <c r="F224" t="n">
-        <v>43980.6534</v>
+        <v>48657.0538</v>
       </c>
       <c r="G224" t="n">
-        <v>5.64016666666666</v>
+        <v>5.639999999999994</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8607,9 +8501,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8627,19 +8519,19 @@
         <v>5.61</v>
       </c>
       <c r="C225" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D225" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E225" t="n">
         <v>5.61</v>
       </c>
       <c r="F225" t="n">
-        <v>48657.0538</v>
+        <v>81315</v>
       </c>
       <c r="G225" t="n">
-        <v>5.639999999999994</v>
+        <v>5.639333333333328</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8648,9 +8540,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,19 +8558,19 @@
         <v>5.61</v>
       </c>
       <c r="C226" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="D226" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E226" t="n">
         <v>5.61</v>
       </c>
       <c r="F226" t="n">
-        <v>81315</v>
+        <v>28817.7389</v>
       </c>
       <c r="G226" t="n">
-        <v>5.639333333333328</v>
+        <v>5.638499999999994</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8689,9 +8579,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,19 +8597,19 @@
         <v>5.61</v>
       </c>
       <c r="C227" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="D227" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E227" t="n">
-        <v>5.61</v>
+        <v>5.55</v>
       </c>
       <c r="F227" t="n">
-        <v>28817.7389</v>
+        <v>271141.793</v>
       </c>
       <c r="G227" t="n">
-        <v>5.638499999999994</v>
+        <v>5.636166666666662</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8730,9 +8618,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,22 +8633,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C228" t="n">
-        <v>5.55</v>
+        <v>5.64</v>
       </c>
       <c r="D228" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E228" t="n">
-        <v>5.55</v>
+        <v>5.64</v>
       </c>
       <c r="F228" t="n">
-        <v>271141.793</v>
+        <v>12</v>
       </c>
       <c r="G228" t="n">
-        <v>5.636166666666662</v>
+        <v>5.635333333333327</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8771,9 +8657,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8800,10 +8684,10 @@
         <v>5.64</v>
       </c>
       <c r="F229" t="n">
-        <v>12</v>
+        <v>9999</v>
       </c>
       <c r="G229" t="n">
-        <v>5.635333333333327</v>
+        <v>5.635166666666661</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8812,9 +8696,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,22 +8711,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="C230" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="D230" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="E230" t="n">
-        <v>5.64</v>
+        <v>5.56</v>
       </c>
       <c r="F230" t="n">
-        <v>9999</v>
+        <v>43727.4161</v>
       </c>
       <c r="G230" t="n">
-        <v>5.635166666666661</v>
+        <v>5.633833333333328</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8853,9 +8735,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,10 +8762,10 @@
         <v>5.56</v>
       </c>
       <c r="F231" t="n">
-        <v>43727.4161</v>
+        <v>139346.9141</v>
       </c>
       <c r="G231" t="n">
-        <v>5.633833333333328</v>
+        <v>5.632333333333329</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8894,9 +8774,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,22 +8789,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="C232" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="D232" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="E232" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="F232" t="n">
-        <v>139346.9141</v>
+        <v>194.6234</v>
       </c>
       <c r="G232" t="n">
-        <v>5.632333333333329</v>
+        <v>5.631999999999995</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8935,9 +8813,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,19 +8828,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C233" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D233" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E233" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F233" t="n">
-        <v>194.6234</v>
+        <v>5000</v>
       </c>
       <c r="G233" t="n">
         <v>5.631999999999995</v>
@@ -8976,9 +8852,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,22 +8867,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C234" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D234" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E234" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F234" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G234" t="n">
-        <v>5.631999999999995</v>
+        <v>5.632166666666662</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9017,9 +8891,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,22 +8906,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="C235" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D235" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="E235" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F235" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G235" t="n">
-        <v>5.632166666666662</v>
+        <v>5.631999999999995</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9058,9 +8930,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,22 +8945,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>5.61</v>
+        <v>5.59</v>
       </c>
       <c r="C236" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D236" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="E236" t="n">
-        <v>5.61</v>
+        <v>5.56</v>
       </c>
       <c r="F236" t="n">
-        <v>5000</v>
+        <v>25282</v>
       </c>
       <c r="G236" t="n">
-        <v>5.631999999999995</v>
+        <v>5.633333333333328</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9099,9 +8969,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,19 +8984,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>5.59</v>
+        <v>5.63</v>
       </c>
       <c r="C237" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D237" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="E237" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="F237" t="n">
-        <v>25282</v>
+        <v>148804.1059</v>
       </c>
       <c r="G237" t="n">
         <v>5.633333333333328</v>
@@ -9140,9 +9008,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9157,22 +9023,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="C238" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D238" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E238" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="F238" t="n">
-        <v>148804.1059</v>
+        <v>11</v>
       </c>
       <c r="G238" t="n">
-        <v>5.633333333333328</v>
+        <v>5.633833333333328</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9181,9 +9047,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9198,7 +9062,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="C239" t="n">
         <v>5.65</v>
@@ -9207,13 +9071,13 @@
         <v>5.65</v>
       </c>
       <c r="E239" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F239" t="n">
-        <v>11</v>
+        <v>15000</v>
       </c>
       <c r="G239" t="n">
-        <v>5.633833333333328</v>
+        <v>5.633999999999995</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9222,9 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9239,22 +9101,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E240" t="n">
         <v>5.63</v>
       </c>
-      <c r="C240" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D240" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E240" t="n">
-        <v>5.62</v>
-      </c>
       <c r="F240" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="G240" t="n">
-        <v>5.633999999999995</v>
+        <v>5.634333333333329</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9263,9 +9125,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9280,7 +9140,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C241" t="n">
         <v>5.66</v>
@@ -9292,10 +9152,10 @@
         <v>5.63</v>
       </c>
       <c r="F241" t="n">
-        <v>55000</v>
+        <v>5173.5159</v>
       </c>
       <c r="G241" t="n">
-        <v>5.634333333333329</v>
+        <v>5.634499999999997</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9304,9 +9164,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9321,22 +9179,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C242" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="D242" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="E242" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F242" t="n">
-        <v>5173.5159</v>
+        <v>63300</v>
       </c>
       <c r="G242" t="n">
-        <v>5.634499999999997</v>
+        <v>5.633999999999997</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9345,9 +9203,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9362,22 +9218,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="C243" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D243" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="E243" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F243" t="n">
-        <v>63300</v>
+        <v>8073.5469</v>
       </c>
       <c r="G243" t="n">
-        <v>5.633999999999997</v>
+        <v>5.632999999999996</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9386,9 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,19 +9260,19 @@
         <v>5.66</v>
       </c>
       <c r="C244" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D244" t="n">
         <v>5.66</v>
       </c>
       <c r="E244" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F244" t="n">
-        <v>8073.5469</v>
+        <v>164.8409</v>
       </c>
       <c r="G244" t="n">
-        <v>5.632999999999996</v>
+        <v>5.632499999999997</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9427,9 +9281,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9444,22 +9296,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C245" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D245" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E245" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F245" t="n">
-        <v>164.8409</v>
+        <v>5000</v>
       </c>
       <c r="G245" t="n">
-        <v>5.632499999999997</v>
+        <v>5.63133333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9468,9 +9320,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9485,22 +9335,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C246" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D246" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E246" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F246" t="n">
-        <v>5000</v>
+        <v>156.5989</v>
       </c>
       <c r="G246" t="n">
-        <v>5.63133333333333</v>
+        <v>5.630833333333331</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9509,9 +9359,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,22 +9374,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C247" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D247" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E247" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F247" t="n">
-        <v>156.5989</v>
+        <v>17082.0487</v>
       </c>
       <c r="G247" t="n">
-        <v>5.630833333333331</v>
+        <v>5.629833333333331</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9550,9 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,22 +9413,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C248" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D248" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E248" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F248" t="n">
-        <v>17082.0487</v>
+        <v>148.772</v>
       </c>
       <c r="G248" t="n">
-        <v>5.629833333333331</v>
+        <v>5.629333333333332</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9591,9 +9437,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,10 +9464,10 @@
         <v>5.66</v>
       </c>
       <c r="F249" t="n">
-        <v>148.772</v>
+        <v>141.3339</v>
       </c>
       <c r="G249" t="n">
-        <v>5.629333333333332</v>
+        <v>5.628999999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9632,9 +9476,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,22 +9491,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="C250" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="D250" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="E250" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="F250" t="n">
-        <v>141.3339</v>
+        <v>13062.5469</v>
       </c>
       <c r="G250" t="n">
-        <v>5.628999999999999</v>
+        <v>5.628666666666665</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9673,9 +9515,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9693,19 +9533,19 @@
         <v>5.62</v>
       </c>
       <c r="C251" t="n">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="D251" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E251" t="n">
         <v>5.62</v>
       </c>
-      <c r="E251" t="n">
-        <v>5.61</v>
-      </c>
       <c r="F251" t="n">
-        <v>13062.5469</v>
+        <v>2511</v>
       </c>
       <c r="G251" t="n">
-        <v>5.628666666666665</v>
+        <v>5.629499999999998</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9714,9 +9554,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9731,22 +9569,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="C252" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D252" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E252" t="n">
         <v>5.66</v>
       </c>
-      <c r="D252" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E252" t="n">
-        <v>5.62</v>
-      </c>
       <c r="F252" t="n">
-        <v>2511</v>
+        <v>3100</v>
       </c>
       <c r="G252" t="n">
-        <v>5.629499999999998</v>
+        <v>5.630666666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9755,9 +9593,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,22 +9608,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="C253" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E253" t="n">
         <v>5.68</v>
       </c>
-      <c r="D253" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E253" t="n">
-        <v>5.66</v>
-      </c>
       <c r="F253" t="n">
-        <v>3100</v>
+        <v>30727.7917</v>
       </c>
       <c r="G253" t="n">
-        <v>5.630666666666666</v>
+        <v>5.631999999999999</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9796,9 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9813,10 +9647,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C254" t="n">
         <v>5.68</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.69</v>
       </c>
       <c r="D254" t="n">
         <v>5.69</v>
@@ -9825,10 +9659,10 @@
         <v>5.68</v>
       </c>
       <c r="F254" t="n">
-        <v>30727.7917</v>
+        <v>157010.3735</v>
       </c>
       <c r="G254" t="n">
-        <v>5.631999999999999</v>
+        <v>5.632833333333332</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9837,9 +9671,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,19 +9686,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="C255" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D255" t="n">
         <v>5.68</v>
       </c>
-      <c r="D255" t="n">
-        <v>5.69</v>
-      </c>
       <c r="E255" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="F255" t="n">
-        <v>157010.3735</v>
+        <v>43534.2341</v>
       </c>
       <c r="G255" t="n">
         <v>5.632833333333332</v>
@@ -9878,9 +9710,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9895,22 +9725,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="C256" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D256" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="E256" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F256" t="n">
-        <v>43534.2341</v>
+        <v>5000</v>
       </c>
       <c r="G256" t="n">
-        <v>5.632833333333332</v>
+        <v>5.631999999999999</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9919,9 +9749,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9939,19 +9767,19 @@
         <v>5.62</v>
       </c>
       <c r="C257" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="D257" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E257" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F257" t="n">
-        <v>5000</v>
+        <v>50545.3109</v>
       </c>
       <c r="G257" t="n">
-        <v>5.631999999999999</v>
+        <v>5.630999999999998</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9960,9 +9788,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9980,16 +9806,16 @@
         <v>5.62</v>
       </c>
       <c r="C258" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="D258" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E258" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="F258" t="n">
-        <v>50545.3109</v>
+        <v>128.4608</v>
       </c>
       <c r="G258" t="n">
         <v>5.630999999999998</v>
@@ -10001,9 +9827,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10018,7 +9842,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C259" t="n">
         <v>5.62</v>
@@ -10027,13 +9851,13 @@
         <v>5.62</v>
       </c>
       <c r="E259" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F259" t="n">
-        <v>128.4608</v>
+        <v>21884.4087</v>
       </c>
       <c r="G259" t="n">
-        <v>5.630999999999998</v>
+        <v>5.630666666666666</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10042,9 +9866,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10059,22 +9881,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C260" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E260" t="n">
         <v>5.62</v>
       </c>
-      <c r="D260" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E260" t="n">
-        <v>5.6</v>
-      </c>
       <c r="F260" t="n">
-        <v>21884.4087</v>
+        <v>5042.2579</v>
       </c>
       <c r="G260" t="n">
-        <v>5.630666666666666</v>
+        <v>5.630499999999999</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10083,56 +9905,13 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C261" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D261" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E261" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F261" t="n">
-        <v>5042.2579</v>
-      </c>
-      <c r="G261" t="n">
-        <v>5.630499999999999</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>5.49</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="E2" t="n">
         <v>5.49</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>91.0746</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45650000000001</v>
+        <v>5.454833333333343</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C3" t="n">
         <v>5.5</v>
@@ -477,13 +477,13 @@
         <v>5.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F3" t="n">
-        <v>47.9272</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>5.458833333333343</v>
+        <v>5.45650000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>450</v>
+        <v>47.9272</v>
       </c>
       <c r="G4" t="n">
-        <v>5.461166666666676</v>
+        <v>5.458833333333343</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>62900.8991</v>
+        <v>450</v>
       </c>
       <c r="G5" t="n">
-        <v>5.46350000000001</v>
+        <v>5.461166666666676</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>5.5</v>
       </c>
       <c r="F6" t="n">
-        <v>746.5454545454545</v>
+        <v>62900.8991</v>
       </c>
       <c r="G6" t="n">
-        <v>5.465333333333343</v>
+        <v>5.46350000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="n">
         <v>5.5</v>
@@ -617,13 +617,13 @@
         <v>5.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F7" t="n">
-        <v>787.9335</v>
+        <v>746.5454545454545</v>
       </c>
       <c r="G7" t="n">
-        <v>5.46700000000001</v>
+        <v>5.465333333333343</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C8" t="n">
         <v>5.5</v>
@@ -652,13 +652,13 @@
         <v>5.5</v>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F8" t="n">
-        <v>740</v>
+        <v>787.9335</v>
       </c>
       <c r="G8" t="n">
-        <v>5.468833333333344</v>
+        <v>5.46700000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,31 +678,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F9" t="n">
-        <v>738.15</v>
+        <v>740</v>
       </c>
       <c r="G9" t="n">
-        <v>5.470166666666677</v>
+        <v>5.468833333333344</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -713,32 +717,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F10" t="n">
+        <v>738.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.470166666666677</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>5.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>41.0909</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.471833333333345</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -760,10 +770,10 @@
         <v>5.5</v>
       </c>
       <c r="F11" t="n">
-        <v>733.6363636363636</v>
+        <v>41.0909</v>
       </c>
       <c r="G11" t="n">
-        <v>5.472833333333345</v>
+        <v>5.471833333333345</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +782,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="n">
         <v>5.5</v>
@@ -792,13 +808,13 @@
         <v>5.5</v>
       </c>
       <c r="E12" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F12" t="n">
-        <v>781.8386</v>
+        <v>733.6363636363636</v>
       </c>
       <c r="G12" t="n">
-        <v>5.474166666666678</v>
+        <v>5.472833333333345</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C13" t="n">
         <v>5.5</v>
@@ -827,13 +843,13 @@
         <v>5.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F13" t="n">
-        <v>106935.0909</v>
+        <v>781.8386</v>
       </c>
       <c r="G13" t="n">
-        <v>5.475500000000011</v>
+        <v>5.474166666666678</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +881,10 @@
         <v>5.5</v>
       </c>
       <c r="F14" t="n">
-        <v>166894.8181</v>
+        <v>106935.0909</v>
       </c>
       <c r="G14" t="n">
-        <v>5.47700000000001</v>
+        <v>5.475500000000011</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +916,10 @@
         <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>201341.5454</v>
+        <v>166894.8181</v>
       </c>
       <c r="G15" t="n">
-        <v>5.478333333333343</v>
+        <v>5.47700000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +951,10 @@
         <v>5.5</v>
       </c>
       <c r="F16" t="n">
-        <v>32137.78663992383</v>
+        <v>201341.5454</v>
       </c>
       <c r="G16" t="n">
-        <v>5.479000000000011</v>
+        <v>5.478333333333343</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="D17" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="E17" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2785.3687</v>
+        <v>32137.78663992383</v>
       </c>
       <c r="G17" t="n">
-        <v>5.480000000000009</v>
+        <v>5.479000000000011</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C18" t="n">
         <v>5.53</v>
@@ -1002,13 +1018,13 @@
         <v>5.53</v>
       </c>
       <c r="E18" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F18" t="n">
-        <v>81052.89539999999</v>
+        <v>2785.3687</v>
       </c>
       <c r="G18" t="n">
-        <v>5.481000000000009</v>
+        <v>5.480000000000009</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="n">
         <v>5.53</v>
@@ -1037,13 +1053,13 @@
         <v>5.53</v>
       </c>
       <c r="E19" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="F19" t="n">
-        <v>36.8896</v>
+        <v>81052.89539999999</v>
       </c>
       <c r="G19" t="n">
-        <v>5.482000000000008</v>
+        <v>5.481000000000009</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1091,10 @@
         <v>5.53</v>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>36.8896</v>
       </c>
       <c r="G20" t="n">
-        <v>5.483000000000007</v>
+        <v>5.482000000000008</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1114,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="C21" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="D21" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="E21" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="F21" t="n">
-        <v>12817.5953</v>
+        <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>5.484333333333341</v>
+        <v>5.483000000000007</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C22" t="n">
         <v>5.54</v>
       </c>
-      <c r="C22" t="n">
-        <v>5.57</v>
-      </c>
       <c r="D22" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="E22" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F22" t="n">
-        <v>39957.6396</v>
+        <v>12817.5953</v>
       </c>
       <c r="G22" t="n">
-        <v>5.486000000000007</v>
+        <v>5.484333333333341</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="C23" t="n">
         <v>5.57</v>
@@ -1177,13 +1193,13 @@
         <v>5.57</v>
       </c>
       <c r="E23" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="F23" t="n">
-        <v>33.1418</v>
+        <v>39957.6396</v>
       </c>
       <c r="G23" t="n">
-        <v>5.487666666666673</v>
+        <v>5.486000000000007</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1231,10 @@
         <v>5.57</v>
       </c>
       <c r="F24" t="n">
-        <v>31.4811</v>
+        <v>33.1418</v>
       </c>
       <c r="G24" t="n">
-        <v>5.489166666666673</v>
+        <v>5.487666666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1266,10 @@
         <v>5.57</v>
       </c>
       <c r="F25" t="n">
-        <v>27115.4398</v>
+        <v>31.4811</v>
       </c>
       <c r="G25" t="n">
-        <v>5.490666666666672</v>
+        <v>5.489166666666673</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1292,19 @@
         <v>5.57</v>
       </c>
       <c r="C26" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="D26" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E26" t="n">
         <v>5.57</v>
       </c>
       <c r="F26" t="n">
-        <v>14888.2327</v>
+        <v>27115.4398</v>
       </c>
       <c r="G26" t="n">
-        <v>5.493000000000006</v>
+        <v>5.490666666666672</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="C27" t="n">
         <v>5.58</v>
@@ -1317,13 +1333,13 @@
         <v>5.58</v>
       </c>
       <c r="E27" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>14888.2327</v>
       </c>
       <c r="G27" t="n">
-        <v>5.494833333333338</v>
+        <v>5.493000000000006</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="C28" t="n">
         <v>5.58</v>
@@ -1352,13 +1368,13 @@
         <v>5.58</v>
       </c>
       <c r="E28" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="F28" t="n">
-        <v>39968.6396</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>5.496666666666671</v>
+        <v>5.494833333333338</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.58</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.57</v>
       </c>
       <c r="D29" t="n">
         <v>5.58</v>
       </c>
       <c r="E29" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="F29" t="n">
-        <v>135925.1283</v>
+        <v>39968.6396</v>
       </c>
       <c r="G29" t="n">
-        <v>5.498166666666671</v>
+        <v>5.496666666666671</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.55</v>
+        <v>5.58</v>
       </c>
       <c r="C30" t="n">
         <v>5.57</v>
       </c>
       <c r="D30" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="E30" t="n">
         <v>5.55</v>
       </c>
       <c r="F30" t="n">
-        <v>7433.980251346499</v>
+        <v>135925.1283</v>
       </c>
       <c r="G30" t="n">
-        <v>5.50016666666667</v>
+        <v>5.498166666666671</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,7 +1467,7 @@
         <v>5.55</v>
       </c>
       <c r="C31" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="D31" t="n">
         <v>5.57</v>
@@ -1460,10 +1476,10 @@
         <v>5.55</v>
       </c>
       <c r="F31" t="n">
-        <v>33700.5495</v>
+        <v>7433.980251346499</v>
       </c>
       <c r="G31" t="n">
-        <v>5.502000000000004</v>
+        <v>5.50016666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="C32" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D32" t="n">
-        <v>5.54</v>
+        <v>5.57</v>
       </c>
       <c r="E32" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="F32" t="n">
-        <v>50212.1481</v>
+        <v>33700.5495</v>
       </c>
       <c r="G32" t="n">
-        <v>5.503666666666671</v>
+        <v>5.502000000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="C33" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="D33" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="E33" t="n">
         <v>5.5</v>
       </c>
       <c r="F33" t="n">
-        <v>243774.1164</v>
+        <v>50212.1481</v>
       </c>
       <c r="G33" t="n">
-        <v>5.504166666666671</v>
+        <v>5.503666666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="C34" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="D34" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="E34" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F34" t="n">
-        <v>33</v>
+        <v>243774.1164</v>
       </c>
       <c r="G34" t="n">
-        <v>5.505333333333337</v>
+        <v>5.504166666666671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="C35" t="n">
         <v>5.54</v>
@@ -1597,13 +1613,13 @@
         <v>5.54</v>
       </c>
       <c r="E35" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="F35" t="n">
-        <v>24033.5495</v>
+        <v>33</v>
       </c>
       <c r="G35" t="n">
-        <v>5.506500000000004</v>
+        <v>5.505333333333337</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C36" t="n">
         <v>5.54</v>
@@ -1632,13 +1648,13 @@
         <v>5.54</v>
       </c>
       <c r="E36" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F36" t="n">
-        <v>12896.7249</v>
+        <v>24033.5495</v>
       </c>
       <c r="G36" t="n">
-        <v>5.507833333333338</v>
+        <v>5.506500000000004</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="C37" t="n">
         <v>5.54</v>
@@ -1667,13 +1683,13 @@
         <v>5.54</v>
       </c>
       <c r="E37" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F37" t="n">
-        <v>177.2563</v>
+        <v>12896.7249</v>
       </c>
       <c r="G37" t="n">
-        <v>5.509000000000004</v>
+        <v>5.507833333333338</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C38" t="n">
         <v>5.54</v>
@@ -1702,13 +1718,13 @@
         <v>5.54</v>
       </c>
       <c r="E38" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F38" t="n">
-        <v>9366.7168</v>
+        <v>177.2563</v>
       </c>
       <c r="G38" t="n">
-        <v>5.510166666666671</v>
+        <v>5.509000000000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="C39" t="n">
         <v>5.54</v>
@@ -1737,13 +1753,13 @@
         <v>5.54</v>
       </c>
       <c r="E39" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F39" t="n">
-        <v>87.9061</v>
+        <v>9366.7168</v>
       </c>
       <c r="G39" t="n">
-        <v>5.511333333333337</v>
+        <v>5.510166666666671</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1782,19 @@
         <v>5.54</v>
       </c>
       <c r="C40" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="D40" t="n">
         <v>5.54</v>
       </c>
       <c r="E40" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F40" t="n">
-        <v>75346.99275884476</v>
+        <v>87.9061</v>
       </c>
       <c r="G40" t="n">
-        <v>5.512000000000003</v>
+        <v>5.511333333333337</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C41" t="n">
         <v>5.51</v>
       </c>
       <c r="D41" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="E41" t="n">
         <v>5.51</v>
       </c>
       <c r="F41" t="n">
-        <v>13280.0066</v>
+        <v>75346.99275884476</v>
       </c>
       <c r="G41" t="n">
-        <v>5.512833333333337</v>
+        <v>5.512000000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1852,19 @@
         <v>5.52</v>
       </c>
       <c r="C42" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="D42" t="n">
         <v>5.52</v>
       </c>
       <c r="E42" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="F42" t="n">
-        <v>126804.1666</v>
+        <v>13280.0066</v>
       </c>
       <c r="G42" t="n">
-        <v>5.513666666666669</v>
+        <v>5.512833333333337</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="C43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="E43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="F43" t="n">
-        <v>47438.3301</v>
+        <v>126804.1666</v>
       </c>
       <c r="G43" t="n">
-        <v>5.514333333333336</v>
+        <v>5.513666666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="C44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="D44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="E44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F44" t="n">
-        <v>10.18</v>
+        <v>47438.3301</v>
       </c>
       <c r="G44" t="n">
-        <v>5.515500000000002</v>
+        <v>5.514333333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1957,19 @@
         <v>5.54</v>
       </c>
       <c r="C45" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D45" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E45" t="n">
         <v>5.54</v>
       </c>
       <c r="F45" t="n">
-        <v>68599.53164115523</v>
+        <v>10.18</v>
       </c>
       <c r="G45" t="n">
-        <v>5.516833333333335</v>
+        <v>5.515500000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="C46" t="n">
         <v>5.55</v>
       </c>
-      <c r="C46" t="n">
-        <v>5.56</v>
-      </c>
       <c r="D46" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="E46" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F46" t="n">
-        <v>184717.4368</v>
+        <v>68599.53164115523</v>
       </c>
       <c r="G46" t="n">
-        <v>5.518333333333334</v>
+        <v>5.516833333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2024,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="C47" t="n">
         <v>5.56</v>
@@ -2017,13 +2033,13 @@
         <v>5.56</v>
       </c>
       <c r="E47" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>184717.4368</v>
       </c>
       <c r="G47" t="n">
-        <v>5.519833333333334</v>
+        <v>5.518333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2062,19 @@
         <v>5.56</v>
       </c>
       <c r="C48" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D48" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E48" t="n">
         <v>5.56</v>
       </c>
       <c r="F48" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>5.521500000000001</v>
+        <v>5.519833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2097,19 @@
         <v>5.56</v>
       </c>
       <c r="C49" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D49" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E49" t="n">
         <v>5.56</v>
       </c>
       <c r="F49" t="n">
-        <v>52543.3</v>
+        <v>7500</v>
       </c>
       <c r="G49" t="n">
-        <v>5.523</v>
+        <v>5.521500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="C50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="F50" t="n">
-        <v>98633.9317</v>
+        <v>52543.3</v>
       </c>
       <c r="G50" t="n">
-        <v>5.5245</v>
+        <v>5.523</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2176,10 @@
         <v>5.57</v>
       </c>
       <c r="F51" t="n">
-        <v>14907.8994</v>
+        <v>98633.9317</v>
       </c>
       <c r="G51" t="n">
-        <v>5.525999999999999</v>
+        <v>5.5245</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="C52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F52" t="n">
-        <v>6194.11</v>
+        <v>14907.8994</v>
       </c>
       <c r="G52" t="n">
-        <v>5.527166666666665</v>
+        <v>5.525999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="D53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="E53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>6194.11</v>
       </c>
       <c r="G53" t="n">
-        <v>5.528166666666666</v>
+        <v>5.527166666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="F54" t="n">
-        <v>2510</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="n">
-        <v>5.528999999999999</v>
+        <v>5.528166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F55" t="n">
-        <v>28.5135</v>
+        <v>2510</v>
       </c>
       <c r="G55" t="n">
-        <v>5.529999999999999</v>
+        <v>5.528999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2351,10 @@
         <v>5.55</v>
       </c>
       <c r="F56" t="n">
-        <v>179610.6306</v>
+        <v>28.5135</v>
       </c>
       <c r="G56" t="n">
-        <v>5.531</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2386,10 @@
         <v>5.55</v>
       </c>
       <c r="F57" t="n">
-        <v>12780.5405</v>
+        <v>179610.6306</v>
       </c>
       <c r="G57" t="n">
-        <v>5.531999999999999</v>
+        <v>5.531</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="C58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="D58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="E58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="F58" t="n">
-        <v>72.6211</v>
+        <v>12780.5405</v>
       </c>
       <c r="G58" t="n">
-        <v>5.533333333333332</v>
+        <v>5.531999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="C59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F59" t="n">
-        <v>4769.0647</v>
+        <v>72.6211</v>
       </c>
       <c r="G59" t="n">
-        <v>5.534499999999999</v>
+        <v>5.533333333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2491,10 @@
         <v>5.56</v>
       </c>
       <c r="F60" t="n">
-        <v>33.9118</v>
+        <v>4769.0647</v>
       </c>
       <c r="G60" t="n">
-        <v>5.535666666666666</v>
+        <v>5.534499999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="D61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="E61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F61" t="n">
-        <v>32.2702</v>
+        <v>33.9118</v>
       </c>
       <c r="G61" t="n">
-        <v>5.536666666666665</v>
+        <v>5.535666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,19 +2549,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C62" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="D62" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E62" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="F62" t="n">
-        <v>12780.5404</v>
+        <v>32.2702</v>
       </c>
       <c r="G62" t="n">
         <v>5.536666666666665</v>
@@ -2571,19 +2587,19 @@
         <v>5.54</v>
       </c>
       <c r="C63" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="D63" t="n">
         <v>5.54</v>
       </c>
       <c r="E63" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F63" t="n">
-        <v>8148.528782310469</v>
+        <v>12780.5404</v>
       </c>
       <c r="G63" t="n">
-        <v>5.537333333333333</v>
+        <v>5.536666666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2631,10 @@
         <v>5.54</v>
       </c>
       <c r="F64" t="n">
-        <v>23</v>
+        <v>8148.528782310469</v>
       </c>
       <c r="G64" t="n">
-        <v>5.537999999999999</v>
+        <v>5.537333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2666,10 @@
         <v>5.54</v>
       </c>
       <c r="F65" t="n">
-        <v>241457.9775176895</v>
+        <v>23</v>
       </c>
       <c r="G65" t="n">
-        <v>5.538666666666667</v>
+        <v>5.537999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F66" t="n">
-        <v>24.4504</v>
+        <v>241457.9775176895</v>
       </c>
       <c r="G66" t="n">
-        <v>5.5395</v>
+        <v>5.538666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2736,10 @@
         <v>5.55</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>24.4504</v>
       </c>
       <c r="G67" t="n">
-        <v>5.540333333333334</v>
+        <v>5.5395</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2771,10 @@
         <v>5.55</v>
       </c>
       <c r="F68" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>5.541166666666667</v>
+        <v>5.540333333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2797,19 @@
         <v>5.55</v>
       </c>
       <c r="C69" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="D69" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="E69" t="n">
         <v>5.55</v>
       </c>
       <c r="F69" t="n">
-        <v>338074.1062</v>
+        <v>330</v>
       </c>
       <c r="G69" t="n">
-        <v>5.542666666666666</v>
+        <v>5.541166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2829,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="C70" t="n">
         <v>5.57</v>
@@ -2822,13 +2838,13 @@
         <v>5.57</v>
       </c>
       <c r="E70" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="F70" t="n">
-        <v>1022</v>
+        <v>338074.1062</v>
       </c>
       <c r="G70" t="n">
-        <v>5.543833333333334</v>
+        <v>5.542666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2876,10 @@
         <v>5.57</v>
       </c>
       <c r="F71" t="n">
-        <v>131069.834</v>
+        <v>1022</v>
       </c>
       <c r="G71" t="n">
-        <v>5.545</v>
+        <v>5.543833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2911,10 @@
         <v>5.57</v>
       </c>
       <c r="F72" t="n">
-        <v>226600</v>
+        <v>131069.834</v>
       </c>
       <c r="G72" t="n">
-        <v>5.546166666666666</v>
+        <v>5.545</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2937,19 @@
         <v>5.57</v>
       </c>
       <c r="C73" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="D73" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E73" t="n">
         <v>5.57</v>
       </c>
       <c r="F73" t="n">
-        <v>600011</v>
+        <v>226600</v>
       </c>
       <c r="G73" t="n">
-        <v>5.547499999999999</v>
+        <v>5.546166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2969,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="C74" t="n">
         <v>5.58</v>
@@ -2962,13 +2978,13 @@
         <v>5.58</v>
       </c>
       <c r="E74" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="F74" t="n">
-        <v>2500</v>
+        <v>600011</v>
       </c>
       <c r="G74" t="n">
-        <v>5.548833333333333</v>
+        <v>5.547499999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +3007,19 @@
         <v>5.58</v>
       </c>
       <c r="C75" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="D75" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="E75" t="n">
         <v>5.58</v>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G75" t="n">
-        <v>5.5505</v>
+        <v>5.548833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,7 +3039,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="C76" t="n">
         <v>5.6</v>
@@ -3032,13 +3048,13 @@
         <v>5.6</v>
       </c>
       <c r="E76" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="F76" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>5.552166666666666</v>
+        <v>5.5505</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3086,10 @@
         <v>5.6</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G77" t="n">
-        <v>5.553333333333334</v>
+        <v>5.552166666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3121,10 @@
         <v>5.6</v>
       </c>
       <c r="F78" t="n">
-        <v>133.9285</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>5.554500000000002</v>
+        <v>5.553333333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3147,19 @@
         <v>5.6</v>
       </c>
       <c r="C79" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="D79" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="E79" t="n">
         <v>5.6</v>
       </c>
       <c r="F79" t="n">
-        <v>389564.2576</v>
+        <v>133.9285</v>
       </c>
       <c r="G79" t="n">
-        <v>5.556333333333336</v>
+        <v>5.554500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C80" t="n">
         <v>5.64</v>
       </c>
-      <c r="C80" t="n">
-        <v>5.72</v>
-      </c>
       <c r="D80" t="n">
-        <v>5.72</v>
+        <v>5.64</v>
       </c>
       <c r="E80" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="F80" t="n">
-        <v>1798479.34</v>
+        <v>389564.2576</v>
       </c>
       <c r="G80" t="n">
-        <v>5.559500000000003</v>
+        <v>5.556333333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C81" t="n">
         <v>5.72</v>
       </c>
-      <c r="C81" t="n">
-        <v>5.85</v>
-      </c>
       <c r="D81" t="n">
-        <v>5.85</v>
+        <v>5.72</v>
       </c>
       <c r="E81" t="n">
-        <v>5.72</v>
+        <v>5.64</v>
       </c>
       <c r="F81" t="n">
-        <v>503472.3986</v>
+        <v>1798479.34</v>
       </c>
       <c r="G81" t="n">
-        <v>5.564666666666669</v>
+        <v>5.559500000000003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.83</v>
+        <v>5.72</v>
       </c>
       <c r="C82" t="n">
-        <v>5.78</v>
+        <v>5.85</v>
       </c>
       <c r="D82" t="n">
         <v>5.85</v>
       </c>
       <c r="E82" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="F82" t="n">
-        <v>294627.7715</v>
+        <v>503472.3986</v>
       </c>
       <c r="G82" t="n">
-        <v>5.568166666666669</v>
+        <v>5.564666666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="C83" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="D83" t="n">
-        <v>5.82</v>
+        <v>5.85</v>
       </c>
       <c r="E83" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F83" t="n">
-        <v>197605.775</v>
+        <v>294627.7715</v>
       </c>
       <c r="G83" t="n">
-        <v>5.571333333333336</v>
+        <v>5.568166666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="C84" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="D84" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="E84" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F84" t="n">
-        <v>8145.726</v>
+        <v>197605.775</v>
       </c>
       <c r="G84" t="n">
-        <v>5.574666666666669</v>
+        <v>5.571333333333336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3366,10 @@
         <v>5.77</v>
       </c>
       <c r="F85" t="n">
-        <v>6854.274</v>
+        <v>8145.726</v>
       </c>
       <c r="G85" t="n">
-        <v>5.578000000000002</v>
+        <v>5.574666666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="C86" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="D86" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="E86" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="F86" t="n">
-        <v>78605.72629999999</v>
+        <v>6854.274</v>
       </c>
       <c r="G86" t="n">
-        <v>5.582000000000003</v>
+        <v>5.578000000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C87" t="n">
         <v>5.82</v>
       </c>
-      <c r="C87" t="n">
-        <v>5.84</v>
-      </c>
       <c r="D87" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="E87" t="n">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="F87" t="n">
-        <v>95318.78170000001</v>
+        <v>78605.72629999999</v>
       </c>
       <c r="G87" t="n">
-        <v>5.586333333333335</v>
+        <v>5.582000000000003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C88" t="n">
         <v>5.84</v>
       </c>
-      <c r="C88" t="n">
-        <v>5.86</v>
-      </c>
       <c r="D88" t="n">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="E88" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="F88" t="n">
-        <v>323684.5919</v>
+        <v>95318.78170000001</v>
       </c>
       <c r="G88" t="n">
-        <v>5.591000000000003</v>
+        <v>5.586333333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C89" t="n">
         <v>5.86</v>
       </c>
-      <c r="C89" t="n">
-        <v>5.87</v>
-      </c>
       <c r="D89" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E89" t="n">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="F89" t="n">
-        <v>354711.0434</v>
+        <v>323684.5919</v>
       </c>
       <c r="G89" t="n">
-        <v>5.596000000000003</v>
+        <v>5.591000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,10 +3529,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C90" t="n">
         <v>5.87</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5.86</v>
       </c>
       <c r="D90" t="n">
         <v>5.87</v>
@@ -3525,10 +3541,10 @@
         <v>5.86</v>
       </c>
       <c r="F90" t="n">
-        <v>266757.5858</v>
+        <v>354711.0434</v>
       </c>
       <c r="G90" t="n">
-        <v>5.600833333333337</v>
+        <v>5.596000000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="C91" t="n">
         <v>5.86</v>
       </c>
       <c r="D91" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E91" t="n">
         <v>5.86</v>
       </c>
-      <c r="E91" t="n">
-        <v>5.82</v>
-      </c>
       <c r="F91" t="n">
-        <v>33932</v>
+        <v>266757.5858</v>
       </c>
       <c r="G91" t="n">
-        <v>5.606000000000003</v>
+        <v>5.600833333333337</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C92" t="n">
         <v>5.86</v>
       </c>
-      <c r="C92" t="n">
-        <v>5.97</v>
-      </c>
       <c r="D92" t="n">
-        <v>5.97</v>
+        <v>5.86</v>
       </c>
       <c r="E92" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="F92" t="n">
-        <v>2793103.6194</v>
+        <v>33932</v>
       </c>
       <c r="G92" t="n">
-        <v>5.61316666666667</v>
+        <v>5.606000000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="C93" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="D93" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="E93" t="n">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="F93" t="n">
-        <v>1172506.528</v>
+        <v>2793103.6194</v>
       </c>
       <c r="G93" t="n">
-        <v>5.62116666666667</v>
+        <v>5.61316666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3672,19 @@
         <v>5.98</v>
       </c>
       <c r="C94" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="D94" t="n">
         <v>5.98</v>
       </c>
       <c r="E94" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="F94" t="n">
-        <v>1210358.8697</v>
+        <v>1172506.528</v>
       </c>
       <c r="G94" t="n">
-        <v>5.628000000000003</v>
+        <v>5.62116666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,10 +3704,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C95" t="n">
         <v>5.95</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5.97</v>
       </c>
       <c r="D95" t="n">
         <v>5.98</v>
@@ -3700,10 +3716,10 @@
         <v>5.95</v>
       </c>
       <c r="F95" t="n">
-        <v>364817.2759</v>
+        <v>1210358.8697</v>
       </c>
       <c r="G95" t="n">
-        <v>5.635166666666669</v>
+        <v>5.628000000000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C96" t="n">
         <v>5.97</v>
       </c>
-      <c r="C96" t="n">
-        <v>5.9</v>
-      </c>
       <c r="D96" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E96" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F96" t="n">
-        <v>1019576.2094</v>
+        <v>364817.2759</v>
       </c>
       <c r="G96" t="n">
-        <v>5.641166666666669</v>
+        <v>5.635166666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.89</v>
+        <v>5.97</v>
       </c>
       <c r="C97" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="D97" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="E97" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="F97" t="n">
-        <v>57056.9688</v>
+        <v>1019576.2094</v>
       </c>
       <c r="G97" t="n">
-        <v>5.648000000000001</v>
+        <v>5.641166666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3809,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.95</v>
+        <v>5.89</v>
       </c>
       <c r="C98" t="n">
         <v>5.95</v>
@@ -3802,13 +3818,13 @@
         <v>5.95</v>
       </c>
       <c r="E98" t="n">
-        <v>5.95</v>
+        <v>5.89</v>
       </c>
       <c r="F98" t="n">
-        <v>17515.1344</v>
+        <v>57056.9688</v>
       </c>
       <c r="G98" t="n">
-        <v>5.654833333333334</v>
+        <v>5.648000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="C99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="D99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="F99" t="n">
-        <v>21917</v>
+        <v>17515.1344</v>
       </c>
       <c r="G99" t="n">
-        <v>5.661333333333334</v>
+        <v>5.654833333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C100" t="n">
         <v>5.93</v>
       </c>
       <c r="D100" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E100" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="F100" t="n">
-        <v>564614.9271</v>
+        <v>21917</v>
       </c>
       <c r="G100" t="n">
-        <v>5.668333333333335</v>
+        <v>5.661333333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,10 +3914,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C101" t="n">
         <v>5.93</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5.95</v>
       </c>
       <c r="D101" t="n">
         <v>5.95</v>
@@ -3910,10 +3926,10 @@
         <v>5.92</v>
       </c>
       <c r="F101" t="n">
-        <v>13500</v>
+        <v>564614.9271</v>
       </c>
       <c r="G101" t="n">
-        <v>5.675666666666668</v>
+        <v>5.668333333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E102" t="n">
         <v>5.92</v>
       </c>
-      <c r="C102" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5.83</v>
-      </c>
       <c r="F102" t="n">
-        <v>216623.2153</v>
+        <v>13500</v>
       </c>
       <c r="G102" t="n">
-        <v>5.680833333333335</v>
+        <v>5.675666666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="C103" t="n">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="D103" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="E103" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="F103" t="n">
-        <v>223445.4288</v>
+        <v>216623.2153</v>
       </c>
       <c r="G103" t="n">
-        <v>5.685666666666668</v>
+        <v>5.680833333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="C104" t="n">
-        <v>5.85</v>
+        <v>5.8</v>
       </c>
       <c r="D104" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="E104" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="F104" t="n">
-        <v>21394.6865</v>
+        <v>223445.4288</v>
       </c>
       <c r="G104" t="n">
-        <v>5.690833333333335</v>
+        <v>5.685666666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.84</v>
+        <v>5.79</v>
       </c>
       <c r="C105" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="D105" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E105" t="n">
-        <v>5.84</v>
+        <v>5.79</v>
       </c>
       <c r="F105" t="n">
-        <v>111.6438</v>
+        <v>21394.6865</v>
       </c>
       <c r="G105" t="n">
-        <v>5.695666666666668</v>
+        <v>5.690833333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4092,19 @@
         <v>5.84</v>
       </c>
       <c r="C106" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="D106" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="E106" t="n">
         <v>5.84</v>
       </c>
       <c r="F106" t="n">
-        <v>151090.2036</v>
+        <v>111.6438</v>
       </c>
       <c r="G106" t="n">
-        <v>5.700500000000002</v>
+        <v>5.695666666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="C107" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="D107" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="E107" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="F107" t="n">
-        <v>42381.1043</v>
+        <v>151090.2036</v>
       </c>
       <c r="G107" t="n">
-        <v>5.706166666666667</v>
+        <v>5.700500000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C108" t="n">
-        <v>5.77</v>
+        <v>5.9</v>
       </c>
       <c r="D108" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="E108" t="n">
-        <v>5.77</v>
+        <v>5.85</v>
       </c>
       <c r="F108" t="n">
-        <v>438920.316</v>
+        <v>42381.1043</v>
       </c>
       <c r="G108" t="n">
-        <v>5.709500000000001</v>
+        <v>5.706166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.76</v>
+        <v>5.87</v>
       </c>
       <c r="C109" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="D109" t="n">
-        <v>5.76</v>
+        <v>5.87</v>
       </c>
       <c r="E109" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="F109" t="n">
-        <v>1014385.9147</v>
+        <v>438920.316</v>
       </c>
       <c r="G109" t="n">
-        <v>5.711833333333334</v>
+        <v>5.709500000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.71</v>
+        <v>5.76</v>
       </c>
       <c r="C110" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D110" t="n">
-        <v>5.71</v>
+        <v>5.76</v>
       </c>
       <c r="E110" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F110" t="n">
-        <v>407996.3227</v>
+        <v>1014385.9147</v>
       </c>
       <c r="G110" t="n">
-        <v>5.713833333333334</v>
+        <v>5.711833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C111" t="n">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="D111" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E111" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F111" t="n">
-        <v>529484.4789</v>
+        <v>407996.3227</v>
       </c>
       <c r="G111" t="n">
-        <v>5.716333333333335</v>
+        <v>5.713833333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D112" t="n">
         <v>5.73</v>
       </c>
-      <c r="C112" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5.75</v>
-      </c>
       <c r="E112" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="F112" t="n">
-        <v>227048.76</v>
+        <v>529484.4789</v>
       </c>
       <c r="G112" t="n">
-        <v>5.719500000000001</v>
+        <v>5.716333333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,32 +4334,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C113" t="n">
         <v>5.75</v>
       </c>
-      <c r="C113" t="n">
-        <v>5.78</v>
-      </c>
       <c r="D113" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="E113" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="F113" t="n">
-        <v>290509.5299</v>
+        <v>227048.76</v>
       </c>
       <c r="G113" t="n">
-        <v>5.723333333333334</v>
+        <v>5.719500000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,7 +4375,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="C114" t="n">
         <v>5.78</v>
@@ -4362,23 +4384,29 @@
         <v>5.78</v>
       </c>
       <c r="E114" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="F114" t="n">
-        <v>52101.8719</v>
+        <v>290509.5299</v>
       </c>
       <c r="G114" t="n">
-        <v>5.727333333333333</v>
+        <v>5.723333333333334</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.75</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4391,29 +4419,35 @@
         <v>5.78</v>
       </c>
       <c r="C115" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="D115" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="E115" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F115" t="n">
-        <v>263157.7493</v>
+        <v>52101.8719</v>
       </c>
       <c r="G115" t="n">
-        <v>5.7315</v>
+        <v>5.727333333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.78</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,32 +4457,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="C116" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D116" t="n">
         <v>5.8</v>
       </c>
       <c r="E116" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="F116" t="n">
-        <v>398434.6801</v>
+        <v>263157.7493</v>
       </c>
       <c r="G116" t="n">
-        <v>5.735166666666666</v>
+        <v>5.7315</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.78</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4498,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C117" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="D117" t="n">
         <v>5.8</v>
       </c>
       <c r="E117" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="F117" t="n">
-        <v>53160.285</v>
+        <v>398434.6801</v>
       </c>
       <c r="G117" t="n">
-        <v>5.738666666666665</v>
+        <v>5.735166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4523,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4537,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C118" t="n">
-        <v>5.8</v>
+        <v>5.76</v>
       </c>
       <c r="D118" t="n">
         <v>5.8</v>
       </c>
       <c r="E118" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F118" t="n">
-        <v>60459.7372</v>
+        <v>53160.285</v>
       </c>
       <c r="G118" t="n">
-        <v>5.742499999999999</v>
+        <v>5.738666666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4562,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4576,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C119" t="n">
         <v>5.8</v>
@@ -4537,13 +4585,13 @@
         <v>5.8</v>
       </c>
       <c r="E119" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="F119" t="n">
-        <v>12575.5862</v>
+        <v>60459.7372</v>
       </c>
       <c r="G119" t="n">
-        <v>5.746499999999999</v>
+        <v>5.742499999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4601,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4575,10 +4627,10 @@
         <v>5.8</v>
       </c>
       <c r="F120" t="n">
-        <v>21434.3926</v>
+        <v>12575.5862</v>
       </c>
       <c r="G120" t="n">
-        <v>5.7505</v>
+        <v>5.746499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4640,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4601,19 +4657,19 @@
         <v>5.8</v>
       </c>
       <c r="C121" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="D121" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="E121" t="n">
         <v>5.8</v>
       </c>
       <c r="F121" t="n">
-        <v>51056.9509</v>
+        <v>21434.3926</v>
       </c>
       <c r="G121" t="n">
-        <v>5.754833333333333</v>
+        <v>5.7505</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +4679,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +4693,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="C122" t="n">
-        <v>5.84</v>
+        <v>5.81</v>
       </c>
       <c r="D122" t="n">
         <v>5.84</v>
       </c>
       <c r="E122" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="F122" t="n">
-        <v>11</v>
+        <v>51056.9509</v>
       </c>
       <c r="G122" t="n">
-        <v>5.760499999999999</v>
+        <v>5.754833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +4718,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4732,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F123" t="n">
-        <v>50103.6775</v>
+        <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>5.765333333333332</v>
+        <v>5.760499999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4757,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4771,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C124" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="D124" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="E124" t="n">
         <v>5.83</v>
       </c>
       <c r="F124" t="n">
-        <v>640089.8016</v>
+        <v>50103.6775</v>
       </c>
       <c r="G124" t="n">
-        <v>5.770499999999998</v>
+        <v>5.765333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +4796,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,10 +4810,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C125" t="n">
         <v>5.85</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.84</v>
       </c>
       <c r="D125" t="n">
         <v>5.85</v>
@@ -4750,10 +4822,10 @@
         <v>5.83</v>
       </c>
       <c r="F125" t="n">
-        <v>250941.4023</v>
+        <v>640089.8016</v>
       </c>
       <c r="G125" t="n">
-        <v>5.775499999999997</v>
+        <v>5.770499999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +4835,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4849,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="C126" t="n">
         <v>5.84</v>
       </c>
       <c r="D126" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E126" t="n">
         <v>5.83</v>
       </c>
       <c r="F126" t="n">
-        <v>129335.7675</v>
+        <v>250941.4023</v>
       </c>
       <c r="G126" t="n">
-        <v>5.78033333333333</v>
+        <v>5.775499999999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +4874,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4888,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C127" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="D127" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="E127" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F127" t="n">
-        <v>69.6734</v>
+        <v>129335.7675</v>
       </c>
       <c r="G127" t="n">
-        <v>5.78583333333333</v>
+        <v>5.78033333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +4913,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4846,19 +4930,19 @@
         <v>5.88</v>
       </c>
       <c r="C128" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D128" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E128" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F128" t="n">
-        <v>241599.9727</v>
+        <v>69.6734</v>
       </c>
       <c r="G128" t="n">
-        <v>5.791166666666664</v>
+        <v>5.78583333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +4952,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4966,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C129" t="n">
         <v>5.87</v>
       </c>
       <c r="D129" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E129" t="n">
         <v>5.87</v>
       </c>
       <c r="F129" t="n">
-        <v>20121.5728</v>
+        <v>241599.9727</v>
       </c>
       <c r="G129" t="n">
-        <v>5.796166666666664</v>
+        <v>5.791166666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,7 +4991,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5005,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="D130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F130" t="n">
-        <v>7077.1221</v>
+        <v>20121.5728</v>
       </c>
       <c r="G130" t="n">
-        <v>5.801499999999996</v>
+        <v>5.796166666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,7 +5030,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4960,10 +5056,10 @@
         <v>5.89</v>
       </c>
       <c r="F131" t="n">
-        <v>11964.4067</v>
+        <v>7077.1221</v>
       </c>
       <c r="G131" t="n">
-        <v>5.80683333333333</v>
+        <v>5.801499999999996</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,7 +5069,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5083,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="C132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="D132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="E132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="F132" t="n">
-        <v>21299</v>
+        <v>11964.4067</v>
       </c>
       <c r="G132" t="n">
-        <v>5.811499999999997</v>
+        <v>5.80683333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,7 +5108,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5021,19 +5125,19 @@
         <v>5.85</v>
       </c>
       <c r="C133" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="D133" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="E133" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="F133" t="n">
-        <v>76557.2885</v>
+        <v>21299</v>
       </c>
       <c r="G133" t="n">
-        <v>5.816666666666664</v>
+        <v>5.811499999999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,7 +5147,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,7 +5161,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C134" t="n">
         <v>5.89</v>
@@ -5062,13 +5170,13 @@
         <v>5.89</v>
       </c>
       <c r="E134" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="F134" t="n">
-        <v>5192.0203</v>
+        <v>76557.2885</v>
       </c>
       <c r="G134" t="n">
-        <v>5.821833333333331</v>
+        <v>5.816666666666664</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,7 +5186,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5200,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="C135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="E135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F135" t="n">
-        <v>34559.1091</v>
+        <v>5192.0203</v>
       </c>
       <c r="G135" t="n">
-        <v>5.826166666666664</v>
+        <v>5.821833333333331</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,7 +5225,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5135,10 +5251,10 @@
         <v>5.86</v>
       </c>
       <c r="F136" t="n">
-        <v>6782.3136</v>
+        <v>34559.1091</v>
       </c>
       <c r="G136" t="n">
-        <v>5.830499999999997</v>
+        <v>5.826166666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,7 +5264,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5278,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="D137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F137" t="n">
-        <v>221.6524</v>
+        <v>6782.3136</v>
       </c>
       <c r="G137" t="n">
-        <v>5.834999999999996</v>
+        <v>5.830499999999997</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,7 +5303,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5317,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C138" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D138" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="E138" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="F138" t="n">
-        <v>133367.5446</v>
+        <v>221.6524</v>
       </c>
       <c r="G138" t="n">
-        <v>5.83933333333333</v>
+        <v>5.834999999999996</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,7 +5342,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5356,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E139" t="n">
         <v>5.85</v>
       </c>
-      <c r="C139" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D139" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5.83</v>
-      </c>
       <c r="F139" t="n">
-        <v>111437.7241</v>
+        <v>133367.5446</v>
       </c>
       <c r="G139" t="n">
-        <v>5.842499999999997</v>
+        <v>5.83933333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,7 +5381,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5395,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="C140" t="n">
         <v>5.83</v>
       </c>
       <c r="D140" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="E140" t="n">
         <v>5.83</v>
       </c>
       <c r="F140" t="n">
-        <v>47048.71355060034</v>
+        <v>111437.7241</v>
       </c>
       <c r="G140" t="n">
-        <v>5.844333333333329</v>
+        <v>5.842499999999997</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,7 +5420,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5310,10 +5446,10 @@
         <v>5.83</v>
       </c>
       <c r="F141" t="n">
-        <v>3021.2692</v>
+        <v>47048.71355060034</v>
       </c>
       <c r="G141" t="n">
-        <v>5.843999999999995</v>
+        <v>5.844333333333329</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5459,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5473,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="C142" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="D142" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="E142" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="F142" t="n">
-        <v>93429.70419999999</v>
+        <v>3021.2692</v>
       </c>
       <c r="G142" t="n">
-        <v>5.843833333333328</v>
+        <v>5.843999999999995</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5498,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5512,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="C143" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="D143" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="E143" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="F143" t="n">
-        <v>7268.7042</v>
+        <v>93429.70419999999</v>
       </c>
       <c r="G143" t="n">
-        <v>5.843333333333329</v>
+        <v>5.843833333333328</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5537,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5551,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="C144" t="n">
-        <v>5.83</v>
+        <v>5.73</v>
       </c>
       <c r="D144" t="n">
-        <v>5.83</v>
+        <v>5.74</v>
       </c>
       <c r="E144" t="n">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="F144" t="n">
-        <v>611283.9953</v>
+        <v>7268.7042</v>
       </c>
       <c r="G144" t="n">
-        <v>5.844333333333329</v>
+        <v>5.843333333333329</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5576,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5590,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.82</v>
+        <v>5.72</v>
       </c>
       <c r="C145" t="n">
-        <v>5.78</v>
+        <v>5.83</v>
       </c>
       <c r="D145" t="n">
         <v>5.83</v>
       </c>
       <c r="E145" t="n">
-        <v>5.78</v>
+        <v>5.65</v>
       </c>
       <c r="F145" t="n">
-        <v>570.6048</v>
+        <v>611283.9953</v>
       </c>
       <c r="G145" t="n">
-        <v>5.844499999999996</v>
+        <v>5.844333333333329</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5615,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5629,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="C146" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="D146" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="E146" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="F146" t="n">
-        <v>26.5164</v>
+        <v>570.6048</v>
       </c>
       <c r="G146" t="n">
-        <v>5.843666666666662</v>
+        <v>5.844499999999996</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5654,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5668,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="C147" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="D147" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="E147" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="F147" t="n">
-        <v>246893.3541</v>
+        <v>26.5164</v>
       </c>
       <c r="G147" t="n">
-        <v>5.841999999999996</v>
+        <v>5.843666666666662</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +5693,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +5707,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="C148" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="D148" t="n">
         <v>5.75</v>
       </c>
       <c r="E148" t="n">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="F148" t="n">
-        <v>5000</v>
+        <v>246893.3541</v>
       </c>
       <c r="G148" t="n">
-        <v>5.840166666666662</v>
+        <v>5.841999999999996</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +5732,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5590,10 +5758,10 @@
         <v>5.75</v>
       </c>
       <c r="F149" t="n">
-        <v>10737.3913</v>
+        <v>5000</v>
       </c>
       <c r="G149" t="n">
-        <v>5.838166666666663</v>
+        <v>5.840166666666662</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +5771,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +5785,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="C150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="D150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="F150" t="n">
-        <v>5000</v>
+        <v>10737.3913</v>
       </c>
       <c r="G150" t="n">
-        <v>5.835999999999996</v>
+        <v>5.838166666666663</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,7 +5810,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +5824,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="C151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="D151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="E151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="F151" t="n">
-        <v>11964.4068</v>
+        <v>5000</v>
       </c>
       <c r="G151" t="n">
-        <v>5.833333333333329</v>
+        <v>5.835999999999996</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +5849,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +5863,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="D152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="E152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="F152" t="n">
-        <v>175.4442</v>
+        <v>11964.4068</v>
       </c>
       <c r="G152" t="n">
-        <v>5.829499999999995</v>
+        <v>5.833333333333329</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,7 +5888,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +5902,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.71</v>
+        <v>5.74</v>
       </c>
       <c r="C153" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="D153" t="n">
-        <v>5.71</v>
+        <v>5.74</v>
       </c>
       <c r="E153" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="F153" t="n">
-        <v>196160.7648</v>
+        <v>175.4442</v>
       </c>
       <c r="G153" t="n">
-        <v>5.824833333333328</v>
+        <v>5.829499999999995</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,7 +5927,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +5941,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="C154" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="D154" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="E154" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="F154" t="n">
-        <v>271022.1375</v>
+        <v>196160.7648</v>
       </c>
       <c r="G154" t="n">
-        <v>5.819833333333327</v>
+        <v>5.824833333333328</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,7 +5966,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +5980,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="C155" t="n">
         <v>5.65</v>
       </c>
       <c r="D155" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E155" t="n">
         <v>5.65</v>
       </c>
-      <c r="E155" t="n">
-        <v>5.59</v>
-      </c>
       <c r="F155" t="n">
-        <v>20720.3023</v>
+        <v>271022.1375</v>
       </c>
       <c r="G155" t="n">
-        <v>5.814499999999994</v>
+        <v>5.819833333333327</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,7 +6005,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5826,19 +6022,19 @@
         <v>5.63</v>
       </c>
       <c r="C156" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="D156" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="E156" t="n">
-        <v>5.63</v>
+        <v>5.59</v>
       </c>
       <c r="F156" t="n">
-        <v>38089.9345</v>
+        <v>20720.3023</v>
       </c>
       <c r="G156" t="n">
-        <v>5.811333333333327</v>
+        <v>5.814499999999994</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,7 +6044,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6058,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C157" t="n">
         <v>5.71</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.7</v>
       </c>
       <c r="D157" t="n">
         <v>5.71</v>
       </c>
       <c r="E157" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F157" t="n">
-        <v>66158.9999</v>
+        <v>38089.9345</v>
       </c>
       <c r="G157" t="n">
-        <v>5.80716666666666</v>
+        <v>5.811333333333327</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,7 +6083,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6097,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="C158" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="D158" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E158" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F158" t="n">
-        <v>243221.9626</v>
+        <v>66158.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>5.803333333333327</v>
+        <v>5.80716666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,7 +6122,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,22 +6136,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.69</v>
+        <v>5.73</v>
       </c>
       <c r="C159" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D159" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="E159" t="n">
-        <v>5.69</v>
+        <v>5.63</v>
       </c>
       <c r="F159" t="n">
-        <v>5000</v>
+        <v>243221.9626</v>
       </c>
       <c r="G159" t="n">
-        <v>5.799499999999994</v>
+        <v>5.803333333333327</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,7 +6161,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6175,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="C160" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="D160" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="E160" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="F160" t="n">
         <v>5000</v>
       </c>
       <c r="G160" t="n">
-        <v>5.795333333333327</v>
+        <v>5.799499999999994</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,7 +6200,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6214,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="D161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="E161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="F161" t="n">
         <v>5000</v>
       </c>
       <c r="G161" t="n">
-        <v>5.790666666666661</v>
+        <v>5.795333333333327</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,7 +6239,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +6253,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="C162" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="D162" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="E162" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="F162" t="n">
-        <v>14448.0429</v>
+        <v>5000</v>
       </c>
       <c r="G162" t="n">
-        <v>5.788166666666661</v>
+        <v>5.790666666666661</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,7 +6278,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6071,19 +6295,19 @@
         <v>5.65</v>
       </c>
       <c r="C163" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="D163" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="E163" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="F163" t="n">
-        <v>15166.0817</v>
+        <v>14448.0429</v>
       </c>
       <c r="G163" t="n">
-        <v>5.786333333333328</v>
+        <v>5.788166666666661</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,7 +6317,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6106,33 +6334,33 @@
         <v>5.65</v>
       </c>
       <c r="C164" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D164" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E164" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F164" t="n">
-        <v>5000</v>
+        <v>15166.0817</v>
       </c>
       <c r="G164" t="n">
-        <v>5.782999999999993</v>
+        <v>5.786333333333328</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6154,26 +6382,22 @@
         <v>5.65</v>
       </c>
       <c r="F165" t="n">
-        <v>23519.6582</v>
+        <v>5000</v>
       </c>
       <c r="G165" t="n">
-        <v>5.779833333333327</v>
+        <v>5.782999999999993</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -6185,38 +6409,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="C166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F166" t="n">
-        <v>268.4533</v>
+        <v>23519.6582</v>
       </c>
       <c r="G166" t="n">
-        <v>5.77716666666666</v>
+        <v>5.779833333333327</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M166" t="n">
@@ -6240,24 +6460,24 @@
         <v>5.69</v>
       </c>
       <c r="F167" t="n">
-        <v>124.0263</v>
+        <v>268.4533</v>
       </c>
       <c r="G167" t="n">
-        <v>5.77366666666666</v>
+        <v>5.77716666666666</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6279,26 +6499,22 @@
         <v>5.69</v>
       </c>
       <c r="F168" t="n">
-        <v>118.0404</v>
+        <v>124.0263</v>
       </c>
       <c r="G168" t="n">
-        <v>5.772333333333327</v>
+        <v>5.77366666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="K168" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6310,38 +6526,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F169" t="n">
-        <v>17398</v>
+        <v>118.0404</v>
       </c>
       <c r="G169" t="n">
-        <v>5.771499999999993</v>
+        <v>5.772333333333327</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -6353,22 +6565,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="D170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="F170" t="n">
-        <v>5000</v>
+        <v>17398</v>
       </c>
       <c r="G170" t="n">
-        <v>5.77066666666666</v>
+        <v>5.771499999999993</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6378,7 +6590,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6391,19 +6607,19 @@
         <v>5.64</v>
       </c>
       <c r="C171" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D171" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E171" t="n">
         <v>5.64</v>
       </c>
       <c r="F171" t="n">
-        <v>5112.938</v>
+        <v>5000</v>
       </c>
       <c r="G171" t="n">
-        <v>5.769499999999993</v>
+        <v>5.77066666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6413,7 +6629,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +6643,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C172" t="n">
         <v>5.65</v>
@@ -6432,27 +6652,25 @@
         <v>5.65</v>
       </c>
       <c r="E172" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F172" t="n">
-        <v>83651.0448</v>
+        <v>5112.938</v>
       </c>
       <c r="G172" t="n">
-        <v>5.767833333333326</v>
+        <v>5.769499999999993</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6464,32 +6682,30 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C173" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D173" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="E173" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F173" t="n">
-        <v>25730.6049</v>
+        <v>83651.0448</v>
       </c>
       <c r="G173" t="n">
-        <v>5.765166666666659</v>
+        <v>5.767833333333326</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6517,20 +6733,18 @@
         <v>5.62</v>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>25730.6049</v>
       </c>
       <c r="G174" t="n">
-        <v>5.762499999999993</v>
+        <v>5.765166666666659</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6546,7 +6760,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C175" t="n">
         <v>5.62</v>
@@ -6555,23 +6769,21 @@
         <v>5.62</v>
       </c>
       <c r="E175" t="n">
-        <v>5.57</v>
+        <v>5.62</v>
       </c>
       <c r="F175" t="n">
-        <v>178136.4966</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="n">
-        <v>5.759499999999993</v>
+        <v>5.762499999999993</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6587,32 +6799,30 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E176" t="n">
         <v>5.57</v>
       </c>
-      <c r="C176" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.55</v>
-      </c>
       <c r="F176" t="n">
-        <v>46931.0918</v>
+        <v>178136.4966</v>
       </c>
       <c r="G176" t="n">
-        <v>5.755833333333327</v>
+        <v>5.759499999999993</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6628,32 +6838,30 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="C177" t="n">
-        <v>5.62</v>
+        <v>5.55</v>
       </c>
       <c r="D177" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="E177" t="n">
-        <v>5.62</v>
+        <v>5.55</v>
       </c>
       <c r="F177" t="n">
-        <v>10</v>
+        <v>46931.0918</v>
       </c>
       <c r="G177" t="n">
-        <v>5.753499999999994</v>
+        <v>5.755833333333327</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>5.55</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6669,7 +6877,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C178" t="n">
         <v>5.62</v>
@@ -6678,23 +6886,21 @@
         <v>5.62</v>
       </c>
       <c r="E178" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F178" t="n">
-        <v>192289.771</v>
+        <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>5.750499999999994</v>
+        <v>5.753499999999994</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6710,32 +6916,30 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="C179" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D179" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E179" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="F179" t="n">
-        <v>15889.4743</v>
+        <v>192289.771</v>
       </c>
       <c r="G179" t="n">
-        <v>5.747833333333327</v>
+        <v>5.750499999999994</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6760,23 +6964,21 @@
         <v>5.64</v>
       </c>
       <c r="E180" t="n">
-        <v>5.59</v>
+        <v>5.64</v>
       </c>
       <c r="F180" t="n">
-        <v>170301.3674</v>
+        <v>15889.4743</v>
       </c>
       <c r="G180" t="n">
-        <v>5.74516666666666</v>
+        <v>5.747833333333327</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>5.64</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6792,32 +6994,30 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C181" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D181" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E181" t="n">
-        <v>5.65</v>
+        <v>5.59</v>
       </c>
       <c r="F181" t="n">
-        <v>96.8318</v>
+        <v>170301.3674</v>
       </c>
       <c r="G181" t="n">
-        <v>5.742499999999993</v>
+        <v>5.74516666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>5.64</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -6845,20 +7045,18 @@
         <v>5.65</v>
       </c>
       <c r="F182" t="n">
-        <v>20633.773</v>
+        <v>96.8318</v>
       </c>
       <c r="G182" t="n">
-        <v>5.739333333333326</v>
+        <v>5.742499999999993</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -6874,32 +7072,30 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="C183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F183" t="n">
-        <v>91.3356</v>
+        <v>20633.773</v>
       </c>
       <c r="G183" t="n">
-        <v>5.736999999999993</v>
+        <v>5.739333333333326</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -6927,20 +7123,18 @@
         <v>5.69</v>
       </c>
       <c r="F184" t="n">
-        <v>118104.5042</v>
+        <v>91.3356</v>
       </c>
       <c r="G184" t="n">
-        <v>5.734333333333326</v>
+        <v>5.736999999999993</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>5.69</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -6956,22 +7150,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F185" t="n">
-        <v>86.6228</v>
+        <v>118104.5042</v>
       </c>
       <c r="G185" t="n">
-        <v>5.731999999999993</v>
+        <v>5.734333333333326</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6995,22 +7189,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F186" t="n">
-        <v>5354.982</v>
+        <v>86.6228</v>
       </c>
       <c r="G186" t="n">
-        <v>5.729499999999993</v>
+        <v>5.731999999999993</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7046,10 +7240,10 @@
         <v>5.69</v>
       </c>
       <c r="F187" t="n">
-        <v>38560.9314</v>
+        <v>5354.982</v>
       </c>
       <c r="G187" t="n">
-        <v>5.726333333333327</v>
+        <v>5.729499999999993</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7085,10 +7279,10 @@
         <v>5.69</v>
       </c>
       <c r="F188" t="n">
-        <v>34704.833</v>
+        <v>38560.9314</v>
       </c>
       <c r="G188" t="n">
-        <v>5.723333333333327</v>
+        <v>5.726333333333327</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7112,22 +7306,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="C189" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="D189" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="E189" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F189" t="n">
-        <v>251485.2527</v>
+        <v>34704.833</v>
       </c>
       <c r="G189" t="n">
-        <v>5.72016666666666</v>
+        <v>5.723333333333327</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7151,22 +7345,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="C190" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="D190" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="E190" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F190" t="n">
-        <v>90325.63400000001</v>
+        <v>251485.2527</v>
       </c>
       <c r="G190" t="n">
-        <v>5.715833333333326</v>
+        <v>5.72016666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7190,22 +7384,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C191" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D191" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E191" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F191" t="n">
-        <v>3670.9447</v>
+        <v>90325.63400000001</v>
       </c>
       <c r="G191" t="n">
-        <v>5.71116666666666</v>
+        <v>5.715833333333326</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7241,10 +7435,10 @@
         <v>5.61</v>
       </c>
       <c r="F192" t="n">
-        <v>24675.5347</v>
+        <v>3670.9447</v>
       </c>
       <c r="G192" t="n">
-        <v>5.707166666666661</v>
+        <v>5.71116666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7280,10 +7474,10 @@
         <v>5.61</v>
       </c>
       <c r="F193" t="n">
-        <v>2118.6306</v>
+        <v>24675.5347</v>
       </c>
       <c r="G193" t="n">
-        <v>5.702499999999994</v>
+        <v>5.707166666666661</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7307,22 +7501,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="C194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="E194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F194" t="n">
-        <v>71.4387</v>
+        <v>2118.6306</v>
       </c>
       <c r="G194" t="n">
-        <v>5.698166666666661</v>
+        <v>5.702499999999994</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7358,10 +7552,10 @@
         <v>5.63</v>
       </c>
       <c r="F195" t="n">
-        <v>67.3897</v>
+        <v>71.4387</v>
       </c>
       <c r="G195" t="n">
-        <v>5.694333333333327</v>
+        <v>5.698166666666661</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7385,22 +7579,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="C196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="D196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="E196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="F196" t="n">
-        <v>64.03879999999999</v>
+        <v>67.3897</v>
       </c>
       <c r="G196" t="n">
-        <v>5.69116666666666</v>
+        <v>5.694333333333327</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7436,10 +7630,10 @@
         <v>5.67</v>
       </c>
       <c r="F197" t="n">
-        <v>60.8377</v>
+        <v>64.03879999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>5.687833333333328</v>
+        <v>5.69116666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7463,22 +7657,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="C198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="D198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="E198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="F198" t="n">
-        <v>203.221</v>
+        <v>60.8377</v>
       </c>
       <c r="G198" t="n">
-        <v>5.683833333333327</v>
+        <v>5.687833333333328</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7502,22 +7696,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F199" t="n">
-        <v>58.1028</v>
+        <v>203.221</v>
       </c>
       <c r="G199" t="n">
-        <v>5.680666666666661</v>
+        <v>5.683833333333327</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7541,7 +7735,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="C200" t="n">
         <v>5.64</v>
@@ -7550,13 +7744,13 @@
         <v>5.64</v>
       </c>
       <c r="E200" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F200" t="n">
-        <v>167956.1822</v>
+        <v>58.1028</v>
       </c>
       <c r="G200" t="n">
-        <v>5.677499999999994</v>
+        <v>5.680666666666661</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7580,22 +7774,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C201" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="D201" t="n">
         <v>5.64</v>
       </c>
       <c r="E201" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F201" t="n">
-        <v>81730.60739999999</v>
+        <v>167956.1822</v>
       </c>
       <c r="G201" t="n">
-        <v>5.674166666666661</v>
+        <v>5.677499999999994</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7619,22 +7813,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C202" t="n">
         <v>5.63</v>
       </c>
       <c r="D202" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E202" t="n">
         <v>5.63</v>
       </c>
       <c r="F202" t="n">
-        <v>72411.5076</v>
+        <v>81730.60739999999</v>
       </c>
       <c r="G202" t="n">
-        <v>5.671833333333328</v>
+        <v>5.674166666666661</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7658,10 +7852,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C203" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="D203" t="n">
         <v>5.65</v>
@@ -7670,10 +7864,10 @@
         <v>5.63</v>
       </c>
       <c r="F203" t="n">
-        <v>25853.441</v>
+        <v>72411.5076</v>
       </c>
       <c r="G203" t="n">
-        <v>5.670499999999993</v>
+        <v>5.671833333333328</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7706,13 +7900,13 @@
         <v>5.65</v>
       </c>
       <c r="E204" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F204" t="n">
-        <v>66.0973</v>
+        <v>25853.441</v>
       </c>
       <c r="G204" t="n">
-        <v>5.667499999999993</v>
+        <v>5.670499999999993</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7748,10 +7942,10 @@
         <v>5.65</v>
       </c>
       <c r="F205" t="n">
-        <v>100</v>
+        <v>66.0973</v>
       </c>
       <c r="G205" t="n">
-        <v>5.665333333333327</v>
+        <v>5.667499999999993</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7787,10 +7981,10 @@
         <v>5.65</v>
       </c>
       <c r="F206" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G206" t="n">
-        <v>5.663333333333327</v>
+        <v>5.665333333333327</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7814,22 +8008,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="C207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="D207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="E207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F207" t="n">
-        <v>20227.559</v>
+        <v>5000</v>
       </c>
       <c r="G207" t="n">
-        <v>5.661499999999993</v>
+        <v>5.663333333333327</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7865,10 +8059,10 @@
         <v>5.63</v>
       </c>
       <c r="F208" t="n">
-        <v>58532</v>
+        <v>20227.559</v>
       </c>
       <c r="G208" t="n">
-        <v>5.659499999999993</v>
+        <v>5.661499999999993</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7895,19 +8089,19 @@
         <v>5.63</v>
       </c>
       <c r="C209" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D209" t="n">
         <v>5.63</v>
       </c>
       <c r="E209" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F209" t="n">
-        <v>253339.9285</v>
+        <v>58532</v>
       </c>
       <c r="G209" t="n">
-        <v>5.657333333333327</v>
+        <v>5.659499999999993</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7931,22 +8125,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C210" t="n">
         <v>5.62</v>
       </c>
-      <c r="C210" t="n">
-        <v>5.65</v>
-      </c>
       <c r="D210" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="E210" t="n">
         <v>5.62</v>
       </c>
       <c r="F210" t="n">
-        <v>66196.0707</v>
+        <v>253339.9285</v>
       </c>
       <c r="G210" t="n">
-        <v>5.655999999999993</v>
+        <v>5.657333333333327</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7973,19 +8167,19 @@
         <v>5.62</v>
       </c>
       <c r="C211" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D211" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="E211" t="n">
         <v>5.62</v>
       </c>
       <c r="F211" t="n">
-        <v>41873.055</v>
+        <v>66196.0707</v>
       </c>
       <c r="G211" t="n">
-        <v>5.654666666666659</v>
+        <v>5.655999999999993</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8009,22 +8203,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C212" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D212" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E212" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F212" t="n">
-        <v>195106.5446</v>
+        <v>41873.055</v>
       </c>
       <c r="G212" t="n">
-        <v>5.652999999999992</v>
+        <v>5.654666666666659</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8048,22 +8242,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="C213" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="D213" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="E213" t="n">
-        <v>5.56</v>
+        <v>5.6</v>
       </c>
       <c r="F213" t="n">
-        <v>7320.8142</v>
+        <v>195106.5446</v>
       </c>
       <c r="G213" t="n">
-        <v>5.65066666666666</v>
+        <v>5.652999999999992</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8087,22 +8281,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="C214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="D214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="E214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="F214" t="n">
-        <v>2270.1358</v>
+        <v>7320.8142</v>
       </c>
       <c r="G214" t="n">
-        <v>5.65016666666666</v>
+        <v>5.65066666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8138,10 +8332,10 @@
         <v>5.62</v>
       </c>
       <c r="F215" t="n">
-        <v>88.8888</v>
+        <v>2270.1358</v>
       </c>
       <c r="G215" t="n">
-        <v>5.64966666666666</v>
+        <v>5.65016666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8177,10 +8371,10 @@
         <v>5.62</v>
       </c>
       <c r="F216" t="n">
-        <v>78.1112</v>
+        <v>88.8888</v>
       </c>
       <c r="G216" t="n">
-        <v>5.64816666666666</v>
+        <v>5.64966666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8216,10 +8410,10 @@
         <v>5.62</v>
       </c>
       <c r="F217" t="n">
-        <v>10058.5409</v>
+        <v>78.1112</v>
       </c>
       <c r="G217" t="n">
-        <v>5.646833333333328</v>
+        <v>5.64816666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8255,10 +8449,10 @@
         <v>5.62</v>
       </c>
       <c r="F218" t="n">
-        <v>168.5498</v>
+        <v>10058.5409</v>
       </c>
       <c r="G218" t="n">
-        <v>5.64516666666666</v>
+        <v>5.646833333333328</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8294,10 +8488,10 @@
         <v>5.62</v>
       </c>
       <c r="F219" t="n">
-        <v>9572.909299999999</v>
+        <v>168.5498</v>
       </c>
       <c r="G219" t="n">
-        <v>5.643833333333328</v>
+        <v>5.64516666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8321,22 +8515,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>9572.909299999999</v>
       </c>
       <c r="G220" t="n">
-        <v>5.64316666666666</v>
+        <v>5.643833333333328</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8372,10 +8566,10 @@
         <v>5.64</v>
       </c>
       <c r="F221" t="n">
-        <v>201.4184</v>
+        <v>10</v>
       </c>
       <c r="G221" t="n">
-        <v>5.64266666666666</v>
+        <v>5.64316666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8399,22 +8593,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="D222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F222" t="n">
-        <v>553.2075</v>
+        <v>201.4184</v>
       </c>
       <c r="G222" t="n">
-        <v>5.641499999999994</v>
+        <v>5.64266666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8450,10 +8644,10 @@
         <v>5.61</v>
       </c>
       <c r="F223" t="n">
-        <v>43980.6534</v>
+        <v>553.2075</v>
       </c>
       <c r="G223" t="n">
-        <v>5.64016666666666</v>
+        <v>5.641499999999994</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8480,19 +8674,19 @@
         <v>5.61</v>
       </c>
       <c r="C224" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D224" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E224" t="n">
         <v>5.61</v>
       </c>
       <c r="F224" t="n">
-        <v>48657.0538</v>
+        <v>43980.6534</v>
       </c>
       <c r="G224" t="n">
-        <v>5.639999999999994</v>
+        <v>5.64016666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8519,19 +8713,19 @@
         <v>5.61</v>
       </c>
       <c r="C225" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="D225" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E225" t="n">
         <v>5.61</v>
       </c>
       <c r="F225" t="n">
-        <v>81315</v>
+        <v>48657.0538</v>
       </c>
       <c r="G225" t="n">
-        <v>5.639333333333328</v>
+        <v>5.639999999999994</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8558,19 +8752,19 @@
         <v>5.61</v>
       </c>
       <c r="C226" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D226" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E226" t="n">
         <v>5.61</v>
       </c>
       <c r="F226" t="n">
-        <v>28817.7389</v>
+        <v>81315</v>
       </c>
       <c r="G226" t="n">
-        <v>5.638499999999994</v>
+        <v>5.639333333333328</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8597,19 +8791,19 @@
         <v>5.61</v>
       </c>
       <c r="C227" t="n">
-        <v>5.55</v>
+        <v>5.64</v>
       </c>
       <c r="D227" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E227" t="n">
         <v>5.61</v>
       </c>
-      <c r="E227" t="n">
-        <v>5.55</v>
-      </c>
       <c r="F227" t="n">
-        <v>271141.793</v>
+        <v>28817.7389</v>
       </c>
       <c r="G227" t="n">
-        <v>5.636166666666662</v>
+        <v>5.638499999999994</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8633,22 +8827,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="C228" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="D228" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E228" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="F228" t="n">
-        <v>12</v>
+        <v>271141.793</v>
       </c>
       <c r="G228" t="n">
-        <v>5.635333333333327</v>
+        <v>5.636166666666662</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8684,10 +8878,10 @@
         <v>5.64</v>
       </c>
       <c r="F229" t="n">
-        <v>9999</v>
+        <v>12</v>
       </c>
       <c r="G229" t="n">
-        <v>5.635166666666661</v>
+        <v>5.635333333333327</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8711,22 +8905,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="C230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="D230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="E230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="F230" t="n">
-        <v>43727.4161</v>
+        <v>9999</v>
       </c>
       <c r="G230" t="n">
-        <v>5.633833333333328</v>
+        <v>5.635166666666661</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8762,10 +8956,10 @@
         <v>5.56</v>
       </c>
       <c r="F231" t="n">
-        <v>139346.9141</v>
+        <v>43727.4161</v>
       </c>
       <c r="G231" t="n">
-        <v>5.632333333333329</v>
+        <v>5.633833333333328</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8789,22 +8983,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="C232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="D232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="E232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="F232" t="n">
-        <v>194.6234</v>
+        <v>139346.9141</v>
       </c>
       <c r="G232" t="n">
-        <v>5.631999999999995</v>
+        <v>5.632333333333329</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8828,19 +9022,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F233" t="n">
-        <v>5000</v>
+        <v>194.6234</v>
       </c>
       <c r="G233" t="n">
         <v>5.631999999999995</v>
@@ -8867,22 +9061,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F234" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G234" t="n">
-        <v>5.632166666666662</v>
+        <v>5.631999999999995</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8906,22 +9100,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="C235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="E235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F235" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G235" t="n">
-        <v>5.631999999999995</v>
+        <v>5.632166666666662</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8945,22 +9139,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>5.59</v>
+        <v>5.61</v>
       </c>
       <c r="C236" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D236" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="E236" t="n">
-        <v>5.56</v>
+        <v>5.61</v>
       </c>
       <c r="F236" t="n">
-        <v>25282</v>
+        <v>5000</v>
       </c>
       <c r="G236" t="n">
-        <v>5.633333333333328</v>
+        <v>5.631999999999995</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8984,19 +9178,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C237" t="n">
         <v>5.63</v>
       </c>
-      <c r="C237" t="n">
-        <v>5.62</v>
-      </c>
       <c r="D237" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="E237" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="F237" t="n">
-        <v>148804.1059</v>
+        <v>25282</v>
       </c>
       <c r="G237" t="n">
         <v>5.633333333333328</v>
@@ -9023,22 +9217,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="C238" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="D238" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E238" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F238" t="n">
-        <v>11</v>
+        <v>148804.1059</v>
       </c>
       <c r="G238" t="n">
-        <v>5.633833333333328</v>
+        <v>5.633333333333328</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9062,7 +9256,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="C239" t="n">
         <v>5.65</v>
@@ -9071,13 +9265,13 @@
         <v>5.65</v>
       </c>
       <c r="E239" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="F239" t="n">
-        <v>15000</v>
+        <v>11</v>
       </c>
       <c r="G239" t="n">
-        <v>5.633999999999995</v>
+        <v>5.633833333333328</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9101,22 +9295,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C240" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="D240" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="E240" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F240" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="G240" t="n">
-        <v>5.634333333333329</v>
+        <v>5.633999999999995</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9140,7 +9334,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C241" t="n">
         <v>5.66</v>
@@ -9152,10 +9346,10 @@
         <v>5.63</v>
       </c>
       <c r="F241" t="n">
-        <v>5173.5159</v>
+        <v>55000</v>
       </c>
       <c r="G241" t="n">
-        <v>5.634499999999997</v>
+        <v>5.634333333333329</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9179,22 +9373,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C242" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="D242" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="E242" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F242" t="n">
-        <v>63300</v>
+        <v>5173.5159</v>
       </c>
       <c r="G242" t="n">
-        <v>5.633999999999997</v>
+        <v>5.634499999999997</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9218,22 +9412,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="C243" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D243" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="E243" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F243" t="n">
-        <v>8073.5469</v>
+        <v>63300</v>
       </c>
       <c r="G243" t="n">
-        <v>5.632999999999996</v>
+        <v>5.633999999999997</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9260,19 +9454,19 @@
         <v>5.66</v>
       </c>
       <c r="C244" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D244" t="n">
         <v>5.66</v>
       </c>
       <c r="E244" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F244" t="n">
-        <v>164.8409</v>
+        <v>8073.5469</v>
       </c>
       <c r="G244" t="n">
-        <v>5.632499999999997</v>
+        <v>5.632999999999996</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9296,22 +9490,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F245" t="n">
-        <v>5000</v>
+        <v>164.8409</v>
       </c>
       <c r="G245" t="n">
-        <v>5.63133333333333</v>
+        <v>5.632499999999997</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9335,22 +9529,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F246" t="n">
-        <v>156.5989</v>
+        <v>5000</v>
       </c>
       <c r="G246" t="n">
-        <v>5.630833333333331</v>
+        <v>5.63133333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9374,22 +9568,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F247" t="n">
-        <v>17082.0487</v>
+        <v>156.5989</v>
       </c>
       <c r="G247" t="n">
-        <v>5.629833333333331</v>
+        <v>5.630833333333331</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9413,22 +9607,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F248" t="n">
-        <v>148.772</v>
+        <v>17082.0487</v>
       </c>
       <c r="G248" t="n">
-        <v>5.629333333333332</v>
+        <v>5.629833333333331</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9464,10 +9658,10 @@
         <v>5.66</v>
       </c>
       <c r="F249" t="n">
-        <v>141.3339</v>
+        <v>148.772</v>
       </c>
       <c r="G249" t="n">
-        <v>5.628999999999999</v>
+        <v>5.629333333333332</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9491,22 +9685,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="C250" t="n">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="D250" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="E250" t="n">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="F250" t="n">
-        <v>13062.5469</v>
+        <v>141.3339</v>
       </c>
       <c r="G250" t="n">
-        <v>5.628666666666665</v>
+        <v>5.628999999999999</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9533,19 +9727,19 @@
         <v>5.62</v>
       </c>
       <c r="C251" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="D251" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="E251" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F251" t="n">
-        <v>2511</v>
+        <v>13062.5469</v>
       </c>
       <c r="G251" t="n">
-        <v>5.629499999999998</v>
+        <v>5.628666666666665</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9569,22 +9763,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C252" t="n">
         <v>5.66</v>
       </c>
-      <c r="C252" t="n">
-        <v>5.68</v>
-      </c>
       <c r="D252" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="E252" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="F252" t="n">
-        <v>3100</v>
+        <v>2511</v>
       </c>
       <c r="G252" t="n">
-        <v>5.630666666666666</v>
+        <v>5.629499999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9608,22 +9802,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C253" t="n">
         <v>5.68</v>
       </c>
-      <c r="C253" t="n">
-        <v>5.69</v>
-      </c>
       <c r="D253" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="E253" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="F253" t="n">
-        <v>30727.7917</v>
+        <v>3100</v>
       </c>
       <c r="G253" t="n">
-        <v>5.631999999999999</v>
+        <v>5.630666666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9647,10 +9841,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C254" t="n">
         <v>5.69</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.68</v>
       </c>
       <c r="D254" t="n">
         <v>5.69</v>
@@ -9659,10 +9853,10 @@
         <v>5.68</v>
       </c>
       <c r="F254" t="n">
-        <v>157010.3735</v>
+        <v>30727.7917</v>
       </c>
       <c r="G254" t="n">
-        <v>5.632833333333332</v>
+        <v>5.631999999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9686,19 +9880,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C255" t="n">
         <v>5.68</v>
       </c>
-      <c r="C255" t="n">
-        <v>5.63</v>
-      </c>
       <c r="D255" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E255" t="n">
         <v>5.68</v>
       </c>
-      <c r="E255" t="n">
-        <v>5.63</v>
-      </c>
       <c r="F255" t="n">
-        <v>43534.2341</v>
+        <v>157010.3735</v>
       </c>
       <c r="G255" t="n">
         <v>5.632833333333332</v>
@@ -9725,22 +9919,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="C256" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D256" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="E256" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F256" t="n">
-        <v>5000</v>
+        <v>43534.2341</v>
       </c>
       <c r="G256" t="n">
-        <v>5.631999999999999</v>
+        <v>5.632833333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9767,19 +9961,19 @@
         <v>5.62</v>
       </c>
       <c r="C257" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="D257" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E257" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="F257" t="n">
-        <v>50545.3109</v>
+        <v>5000</v>
       </c>
       <c r="G257" t="n">
-        <v>5.630999999999998</v>
+        <v>5.631999999999999</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9806,16 +10000,16 @@
         <v>5.62</v>
       </c>
       <c r="C258" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="D258" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E258" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F258" t="n">
-        <v>128.4608</v>
+        <v>50545.3109</v>
       </c>
       <c r="G258" t="n">
         <v>5.630999999999998</v>
@@ -9842,7 +10036,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C259" t="n">
         <v>5.62</v>
@@ -9851,13 +10045,13 @@
         <v>5.62</v>
       </c>
       <c r="E259" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F259" t="n">
-        <v>21884.4087</v>
+        <v>128.4608</v>
       </c>
       <c r="G259" t="n">
-        <v>5.630666666666666</v>
+        <v>5.630999999999998</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9881,22 +10075,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C260" t="n">
         <v>5.62</v>
       </c>
-      <c r="C260" t="n">
-        <v>5.63</v>
-      </c>
       <c r="D260" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E260" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F260" t="n">
-        <v>5042.2579</v>
+        <v>21884.4087</v>
       </c>
       <c r="G260" t="n">
-        <v>5.630499999999999</v>
+        <v>5.630666666666666</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9912,6 +10106,45 @@
         </is>
       </c>
       <c r="M260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C261" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E261" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F261" t="n">
+        <v>5042.2579</v>
+      </c>
+      <c r="G261" t="n">
+        <v>5.630499999999999</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>91.0746</v>
       </c>
       <c r="G2" t="n">
+        <v>5.484666666666663</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.454833333333343</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
+        <v>5.486666666666663</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.45650000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.49</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>47.9272</v>
       </c>
       <c r="G4" t="n">
+        <v>5.488666666666663</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.458833333333343</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>450</v>
       </c>
       <c r="G5" t="n">
+        <v>5.490666666666663</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.461166666666676</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>62900.8991</v>
       </c>
       <c r="G6" t="n">
+        <v>5.491999999999996</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.46350000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>746.5454545454545</v>
       </c>
       <c r="G7" t="n">
+        <v>5.493333333333329</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.465333333333343</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>787.9335</v>
       </c>
       <c r="G8" t="n">
+        <v>5.493999999999996</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.46700000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,22 +755,27 @@
         <v>740</v>
       </c>
       <c r="G9" t="n">
+        <v>5.494666666666663</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.468833333333344</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>5.5</v>
       </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -732,24 +799,27 @@
         <v>738.15</v>
       </c>
       <c r="G10" t="n">
+        <v>5.493999999999997</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.470166666666677</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
         <v>5.5</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -773,24 +843,27 @@
         <v>41.0909</v>
       </c>
       <c r="G11" t="n">
+        <v>5.494666666666664</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.471833333333345</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>5.48</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -814,18 +887,27 @@
         <v>733.6363636363636</v>
       </c>
       <c r="G12" t="n">
+        <v>5.495333333333331</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.472833333333345</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -849,18 +931,27 @@
         <v>781.8386</v>
       </c>
       <c r="G13" t="n">
+        <v>5.495999999999998</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.474166666666678</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,18 +975,27 @@
         <v>106935.0909</v>
       </c>
       <c r="G14" t="n">
+        <v>5.496666666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.475500000000011</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,18 +1019,27 @@
         <v>166894.8181</v>
       </c>
       <c r="G15" t="n">
+        <v>5.497333333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.47700000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.5</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1063,25 @@
         <v>201341.5454</v>
       </c>
       <c r="G16" t="n">
+        <v>5.497999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.478333333333343</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1105,25 @@
         <v>32137.78663992383</v>
       </c>
       <c r="G17" t="n">
+        <v>5.498666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.479000000000011</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1147,25 @@
         <v>2785.3687</v>
       </c>
       <c r="G18" t="n">
+        <v>5.500666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.480000000000009</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1189,25 @@
         <v>81052.89539999999</v>
       </c>
       <c r="G19" t="n">
+        <v>5.502666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.481000000000009</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1231,25 @@
         <v>36.8896</v>
       </c>
       <c r="G20" t="n">
+        <v>5.504666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.482000000000008</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1273,25 @@
         <v>2000</v>
       </c>
       <c r="G21" t="n">
+        <v>5.506666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.483000000000007</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1315,25 @@
         <v>12817.5953</v>
       </c>
       <c r="G22" t="n">
+        <v>5.509333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.484333333333341</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1357,25 @@
         <v>39957.6396</v>
       </c>
       <c r="G23" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.486000000000007</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1399,25 @@
         <v>33.1418</v>
       </c>
       <c r="G24" t="n">
+        <v>5.518666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.487666666666673</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1441,25 @@
         <v>31.4811</v>
       </c>
       <c r="G25" t="n">
+        <v>5.524666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.489166666666673</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1483,25 @@
         <v>27115.4398</v>
       </c>
       <c r="G26" t="n">
+        <v>5.529333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.490666666666672</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1525,25 @@
         <v>14888.2327</v>
       </c>
       <c r="G27" t="n">
+        <v>5.534666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.493000000000006</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1567,25 @@
         <v>500</v>
       </c>
       <c r="G28" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.494833333333338</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1609,25 @@
         <v>39968.6396</v>
       </c>
       <c r="G29" t="n">
+        <v>5.545333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.496666666666671</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1651,25 @@
         <v>135925.1283</v>
       </c>
       <c r="G30" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.498166666666671</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1693,25 @@
         <v>7433.980251346499</v>
       </c>
       <c r="G31" t="n">
+        <v>5.554666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.50016666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1735,25 @@
         <v>33700.5495</v>
       </c>
       <c r="G32" t="n">
+        <v>5.557999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.502000000000004</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1777,25 @@
         <v>50212.1481</v>
       </c>
       <c r="G33" t="n">
+        <v>5.558666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.503666666666671</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1819,25 @@
         <v>243774.1164</v>
       </c>
       <c r="G34" t="n">
+        <v>5.556666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.504166666666671</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1861,25 @@
         <v>33</v>
       </c>
       <c r="G35" t="n">
+        <v>5.557333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.505333333333337</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1903,25 @@
         <v>24033.5495</v>
       </c>
       <c r="G36" t="n">
+        <v>5.558000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.506500000000004</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1945,25 @@
         <v>12896.7249</v>
       </c>
       <c r="G37" t="n">
+        <v>5.558000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.507833333333338</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1987,25 @@
         <v>177.2563</v>
       </c>
       <c r="G38" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.509000000000004</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +2029,25 @@
         <v>9366.7168</v>
       </c>
       <c r="G39" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.510166666666671</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2071,25 @@
         <v>87.9061</v>
       </c>
       <c r="G40" t="n">
+        <v>5.552</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.511333333333337</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2113,25 @@
         <v>75346.99275884476</v>
       </c>
       <c r="G41" t="n">
+        <v>5.548</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.512000000000003</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2155,25 @@
         <v>13280.0066</v>
       </c>
       <c r="G42" t="n">
+        <v>5.543333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.512833333333337</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2197,25 @@
         <v>126804.1666</v>
       </c>
       <c r="G43" t="n">
+        <v>5.539333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.513666666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2239,25 @@
         <v>47438.3301</v>
       </c>
       <c r="G44" t="n">
+        <v>5.534666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.514333333333336</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2281,25 @@
         <v>10.18</v>
       </c>
       <c r="G45" t="n">
+        <v>5.532666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.515500000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2323,25 @@
         <v>68599.53164115523</v>
       </c>
       <c r="G46" t="n">
+        <v>5.531333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.516833333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2365,25 @@
         <v>184717.4368</v>
       </c>
       <c r="G47" t="n">
+        <v>5.532</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.518333333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2407,25 @@
         <v>1000</v>
       </c>
       <c r="G48" t="n">
+        <v>5.533333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.519833333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2449,25 @@
         <v>7500</v>
       </c>
       <c r="G49" t="n">
+        <v>5.537999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.521500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2491,25 @@
         <v>52543.3</v>
       </c>
       <c r="G50" t="n">
+        <v>5.539333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.523</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2533,25 @@
         <v>98633.9317</v>
       </c>
       <c r="G51" t="n">
+        <v>5.541333333333332</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.5245</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2575,25 @@
         <v>14907.8994</v>
       </c>
       <c r="G52" t="n">
+        <v>5.543333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.525999999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2617,25 @@
         <v>6194.11</v>
       </c>
       <c r="G53" t="n">
+        <v>5.544666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.527166666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2659,25 @@
         <v>2500</v>
       </c>
       <c r="G54" t="n">
+        <v>5.545333333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.528166666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2701,25 @@
         <v>2510</v>
       </c>
       <c r="G55" t="n">
+        <v>5.545333333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.528999999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2743,25 @@
         <v>28.5135</v>
       </c>
       <c r="G56" t="n">
+        <v>5.547999999999998</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.529999999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2785,25 @@
         <v>179610.6306</v>
       </c>
       <c r="G57" t="n">
+        <v>5.550666666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.531</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2827,25 @@
         <v>12780.5405</v>
       </c>
       <c r="G58" t="n">
+        <v>5.552666666666664</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.531999999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2869,25 @@
         <v>72.6211</v>
       </c>
       <c r="G59" t="n">
+        <v>5.556666666666663</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.533333333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2911,25 @@
         <v>4769.0647</v>
       </c>
       <c r="G60" t="n">
+        <v>5.557999999999996</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.534499999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2953,25 @@
         <v>33.9118</v>
       </c>
       <c r="G61" t="n">
+        <v>5.558666666666664</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.535666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2995,25 @@
         <v>32.2702</v>
       </c>
       <c r="G62" t="n">
+        <v>5.557999999999996</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.536666666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3037,25 @@
         <v>12780.5404</v>
       </c>
       <c r="G63" t="n">
+        <v>5.553999999999997</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.536666666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3079,25 @@
         <v>8148.528782310469</v>
       </c>
       <c r="G64" t="n">
+        <v>5.551999999999996</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.537333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3121,25 @@
         <v>23</v>
       </c>
       <c r="G65" t="n">
+        <v>5.550666666666663</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.537999999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3163,25 @@
         <v>241457.9775176895</v>
       </c>
       <c r="G66" t="n">
+        <v>5.548666666666664</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.538666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3205,25 @@
         <v>24.4504</v>
       </c>
       <c r="G67" t="n">
+        <v>5.54733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.5395</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3247,25 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
+        <v>5.546666666666663</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.540333333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3289,25 @@
         <v>330</v>
       </c>
       <c r="G69" t="n">
+        <v>5.546666666666663</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.541166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3331,25 @@
         <v>338074.1062</v>
       </c>
       <c r="G70" t="n">
+        <v>5.548666666666663</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.542666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3373,25 @@
         <v>1022</v>
       </c>
       <c r="G71" t="n">
+        <v>5.549999999999997</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.543833333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3415,25 @@
         <v>131069.834</v>
       </c>
       <c r="G72" t="n">
+        <v>5.551333333333331</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.545</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3457,25 @@
         <v>226600</v>
       </c>
       <c r="G73" t="n">
+        <v>5.552666666666665</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.546166666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3499,25 @@
         <v>600011</v>
       </c>
       <c r="G74" t="n">
+        <v>5.553333333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.547499999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3541,25 @@
         <v>2500</v>
       </c>
       <c r="G75" t="n">
+        <v>5.554666666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.548833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3583,25 @@
         <v>5000</v>
       </c>
       <c r="G76" t="n">
+        <v>5.557333333333331</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.5505</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3625,25 @@
         <v>2500</v>
       </c>
       <c r="G77" t="n">
+        <v>5.560666666666664</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.552166666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3667,25 @@
         <v>100</v>
       </c>
       <c r="G78" t="n">
+        <v>5.567333333333331</v>
+      </c>
+      <c r="H78" t="n">
         <v>5.553333333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3709,25 @@
         <v>133.9285</v>
       </c>
       <c r="G79" t="n">
+        <v>5.57133333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.554500000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3751,25 @@
         <v>389564.2576</v>
       </c>
       <c r="G80" t="n">
+        <v>5.577999999999997</v>
+      </c>
+      <c r="H80" t="n">
         <v>5.556333333333336</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3793,25 @@
         <v>1798479.34</v>
       </c>
       <c r="G81" t="n">
+        <v>5.589999999999995</v>
+      </c>
+      <c r="H81" t="n">
         <v>5.559500000000003</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3835,25 @@
         <v>503472.3986</v>
       </c>
       <c r="G82" t="n">
+        <v>5.609999999999996</v>
+      </c>
+      <c r="H82" t="n">
         <v>5.564666666666669</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3877,25 @@
         <v>294627.7715</v>
       </c>
       <c r="G83" t="n">
+        <v>5.625333333333329</v>
+      </c>
+      <c r="H83" t="n">
         <v>5.568166666666669</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3919,25 @@
         <v>197605.775</v>
       </c>
       <c r="G84" t="n">
+        <v>5.63933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>5.571333333333336</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3961,25 @@
         <v>8145.726</v>
       </c>
       <c r="G85" t="n">
+        <v>5.652666666666662</v>
+      </c>
+      <c r="H85" t="n">
         <v>5.574666666666669</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +4003,25 @@
         <v>6854.274</v>
       </c>
       <c r="G86" t="n">
+        <v>5.665999999999995</v>
+      </c>
+      <c r="H86" t="n">
         <v>5.578000000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +4045,25 @@
         <v>78605.72629999999</v>
       </c>
       <c r="G87" t="n">
+        <v>5.682666666666662</v>
+      </c>
+      <c r="H87" t="n">
         <v>5.582000000000003</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4087,25 @@
         <v>95318.78170000001</v>
       </c>
       <c r="G88" t="n">
+        <v>5.700666666666662</v>
+      </c>
+      <c r="H88" t="n">
         <v>5.586333333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4129,25 @@
         <v>323684.5919</v>
       </c>
       <c r="G89" t="n">
+        <v>5.719333333333329</v>
+      </c>
+      <c r="H89" t="n">
         <v>5.591000000000003</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4171,25 @@
         <v>354711.0434</v>
       </c>
       <c r="G90" t="n">
+        <v>5.738666666666663</v>
+      </c>
+      <c r="H90" t="n">
         <v>5.596000000000003</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4213,25 @@
         <v>266757.5858</v>
       </c>
       <c r="G91" t="n">
+        <v>5.755999999999997</v>
+      </c>
+      <c r="H91" t="n">
         <v>5.600833333333337</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4255,25 @@
         <v>33932</v>
       </c>
       <c r="G92" t="n">
+        <v>5.77333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>5.606000000000003</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4297,25 @@
         <v>2793103.6194</v>
       </c>
       <c r="G93" t="n">
+        <v>5.797999999999997</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.61316666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4339,25 @@
         <v>1172506.528</v>
       </c>
       <c r="G94" t="n">
+        <v>5.823333333333331</v>
+      </c>
+      <c r="H94" t="n">
         <v>5.62116666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,20 +4381,25 @@
         <v>1210358.8697</v>
       </c>
       <c r="G95" t="n">
+        <v>5.843999999999998</v>
+      </c>
+      <c r="H95" t="n">
         <v>5.628000000000003</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3754,18 +4421,21 @@
         <v>364817.2759</v>
       </c>
       <c r="G96" t="n">
+        <v>5.860666666666664</v>
+      </c>
+      <c r="H96" t="n">
         <v>5.635166666666669</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4459,21 @@
         <v>1019576.2094</v>
       </c>
       <c r="G97" t="n">
+        <v>5.863999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>5.641166666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4497,21 @@
         <v>57056.9688</v>
       </c>
       <c r="G98" t="n">
+        <v>5.875333333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>5.648000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4535,21 @@
         <v>17515.1344</v>
       </c>
       <c r="G99" t="n">
+        <v>5.887999999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.654833333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4573,21 @@
         <v>21917</v>
       </c>
       <c r="G100" t="n">
+        <v>5.898666666666665</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.661333333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4611,21 @@
         <v>564614.9271</v>
       </c>
       <c r="G101" t="n">
+        <v>5.909333333333332</v>
+      </c>
+      <c r="H101" t="n">
         <v>5.668333333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4649,21 @@
         <v>13500</v>
       </c>
       <c r="G102" t="n">
+        <v>5.917999999999998</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.675666666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4687,21 @@
         <v>216623.2153</v>
       </c>
       <c r="G103" t="n">
+        <v>5.917333333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>5.680833333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4725,21 @@
         <v>223445.4288</v>
       </c>
       <c r="G104" t="n">
+        <v>5.913333333333331</v>
+      </c>
+      <c r="H104" t="n">
         <v>5.685666666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4763,21 @@
         <v>21394.6865</v>
       </c>
       <c r="G105" t="n">
+        <v>5.911999999999997</v>
+      </c>
+      <c r="H105" t="n">
         <v>5.690833333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4801,21 @@
         <v>111.6438</v>
       </c>
       <c r="G106" t="n">
+        <v>5.910666666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>5.695666666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4839,21 @@
         <v>151090.2036</v>
       </c>
       <c r="G107" t="n">
+        <v>5.909999999999997</v>
+      </c>
+      <c r="H107" t="n">
         <v>5.700500000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4877,21 @@
         <v>42381.1043</v>
       </c>
       <c r="G108" t="n">
+        <v>5.905333333333331</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.706166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4915,21 @@
         <v>438920.316</v>
       </c>
       <c r="G109" t="n">
+        <v>5.891333333333331</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.709500000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4953,21 @@
         <v>1014385.9147</v>
       </c>
       <c r="G110" t="n">
+        <v>5.874666666666664</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.711833333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4991,21 @@
         <v>407996.3227</v>
       </c>
       <c r="G111" t="n">
+        <v>5.855999999999997</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.713833333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +5029,21 @@
         <v>529484.4789</v>
       </c>
       <c r="G112" t="n">
+        <v>5.843999999999997</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.716333333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,24 +5067,21 @@
         <v>227048.76</v>
       </c>
       <c r="G113" t="n">
+        <v>5.830666666666663</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.719500000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>5.72</v>
+        <v>0</v>
       </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,24 +5105,21 @@
         <v>290509.5299</v>
       </c>
       <c r="G114" t="n">
+        <v>5.81933333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.723333333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,24 +5143,21 @@
         <v>52101.8719</v>
       </c>
       <c r="G115" t="n">
+        <v>5.80933333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.727333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,24 +5181,21 @@
         <v>263157.7493</v>
       </c>
       <c r="G116" t="n">
+        <v>5.800666666666664</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.7315</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4513,22 +5219,21 @@
         <v>398434.6801</v>
       </c>
       <c r="G117" t="n">
+        <v>5.788666666666663</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.735166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,22 +5257,21 @@
         <v>53160.285</v>
       </c>
       <c r="G118" t="n">
+        <v>5.783999999999997</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.738666666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4591,22 +5295,21 @@
         <v>60459.7372</v>
       </c>
       <c r="G119" t="n">
+        <v>5.783999999999997</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.742499999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,22 +5333,21 @@
         <v>12575.5862</v>
       </c>
       <c r="G120" t="n">
+        <v>5.780666666666664</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.746499999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,22 +5371,21 @@
         <v>21434.3926</v>
       </c>
       <c r="G121" t="n">
+        <v>5.777999999999997</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.7505</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,22 +5409,21 @@
         <v>51056.9509</v>
       </c>
       <c r="G122" t="n">
+        <v>5.775333333333331</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.754833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,22 +5447,21 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
+        <v>5.771333333333331</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.760499999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,22 +5485,21 @@
         <v>50103.6775</v>
       </c>
       <c r="G124" t="n">
+        <v>5.775333333333331</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.765333333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4825,22 +5523,21 @@
         <v>640089.8016</v>
       </c>
       <c r="G125" t="n">
+        <v>5.78533333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.770499999999998</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,22 +5561,21 @@
         <v>250941.4023</v>
       </c>
       <c r="G126" t="n">
+        <v>5.795333333333331</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.775499999999997</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,22 +5599,21 @@
         <v>129335.7675</v>
       </c>
       <c r="G127" t="n">
+        <v>5.803333333333331</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.78033333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,22 +5637,21 @@
         <v>69.6734</v>
       </c>
       <c r="G128" t="n">
+        <v>5.811999999999998</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.78583333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,22 +5675,21 @@
         <v>241599.9727</v>
       </c>
       <c r="G129" t="n">
+        <v>5.817999999999998</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.791166666666664</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5020,22 +5713,21 @@
         <v>20121.5728</v>
       </c>
       <c r="G130" t="n">
+        <v>5.823999999999998</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.796166666666664</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,22 +5751,21 @@
         <v>7077.1221</v>
       </c>
       <c r="G131" t="n">
+        <v>5.829999999999998</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.801499999999996</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,22 +5789,21 @@
         <v>11964.4067</v>
       </c>
       <c r="G132" t="n">
+        <v>5.837999999999998</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.80683333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,22 +5827,21 @@
         <v>21299</v>
       </c>
       <c r="G133" t="n">
+        <v>5.843999999999998</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.811499999999997</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,22 +5865,21 @@
         <v>76557.2885</v>
       </c>
       <c r="G134" t="n">
+        <v>5.849999999999998</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.816666666666664</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5215,22 +5903,21 @@
         <v>5192.0203</v>
       </c>
       <c r="G135" t="n">
+        <v>5.855999999999998</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.821833333333331</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,22 +5941,21 @@
         <v>34559.1091</v>
       </c>
       <c r="G136" t="n">
+        <v>5.859999999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.826166666666664</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,22 +5979,21 @@
         <v>6782.3136</v>
       </c>
       <c r="G137" t="n">
+        <v>5.863333333333332</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.830499999999997</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,22 +6017,21 @@
         <v>221.6524</v>
       </c>
       <c r="G138" t="n">
+        <v>5.865333333333331</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.834999999999996</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5371,22 +6055,21 @@
         <v>133367.5446</v>
       </c>
       <c r="G139" t="n">
+        <v>5.867333333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.83933333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,22 +6093,21 @@
         <v>111437.7241</v>
       </c>
       <c r="G140" t="n">
+        <v>5.865999999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.842499999999997</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5449,22 +6131,21 @@
         <v>47048.71355060034</v>
       </c>
       <c r="G141" t="n">
+        <v>5.865333333333331</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.844333333333329</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,22 +6169,21 @@
         <v>3021.2692</v>
       </c>
       <c r="G142" t="n">
+        <v>5.864666666666665</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.843999999999995</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5527,22 +6207,21 @@
         <v>93429.70419999999</v>
       </c>
       <c r="G143" t="n">
+        <v>5.857333333333331</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.843833333333328</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5566,22 +6245,21 @@
         <v>7268.7042</v>
       </c>
       <c r="G144" t="n">
+        <v>5.847999999999998</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.843333333333329</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5605,22 +6283,21 @@
         <v>611283.9953</v>
       </c>
       <c r="G145" t="n">
+        <v>5.845333333333331</v>
+      </c>
+      <c r="H145" t="n">
         <v>5.844333333333329</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,22 +6321,21 @@
         <v>570.6048</v>
       </c>
       <c r="G146" t="n">
+        <v>5.837999999999997</v>
+      </c>
+      <c r="H146" t="n">
         <v>5.844499999999996</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5683,22 +6359,21 @@
         <v>26.5164</v>
       </c>
       <c r="G147" t="n">
+        <v>5.829999999999997</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.843666666666662</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,22 +6397,21 @@
         <v>246893.3541</v>
       </c>
       <c r="G148" t="n">
+        <v>5.822666666666664</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.841999999999996</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,22 +6435,21 @@
         <v>5000</v>
       </c>
       <c r="G149" t="n">
+        <v>5.813333333333331</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.840166666666662</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,22 +6473,21 @@
         <v>10737.3913</v>
       </c>
       <c r="G150" t="n">
+        <v>5.803999999999998</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.838166666666663</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,22 +6511,21 @@
         <v>5000</v>
       </c>
       <c r="G151" t="n">
+        <v>5.795333333333331</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.835999999999996</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,22 +6549,21 @@
         <v>11964.4068</v>
       </c>
       <c r="G152" t="n">
+        <v>5.784666666666665</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.833333333333329</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5917,22 +6587,21 @@
         <v>175.4442</v>
       </c>
       <c r="G153" t="n">
+        <v>5.775999999999997</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.829499999999995</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,22 +6625,21 @@
         <v>196160.7648</v>
       </c>
       <c r="G154" t="n">
+        <v>5.765333333333331</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.824833333333328</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5995,22 +6663,21 @@
         <v>271022.1375</v>
       </c>
       <c r="G155" t="n">
+        <v>5.753333333333331</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.819833333333327</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,22 +6701,21 @@
         <v>20720.3023</v>
       </c>
       <c r="G156" t="n">
+        <v>5.741333333333332</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.814499999999994</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6073,22 +6739,21 @@
         <v>38089.9345</v>
       </c>
       <c r="G157" t="n">
+        <v>5.733333333333332</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.811333333333327</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,22 +6777,21 @@
         <v>66158.9999</v>
       </c>
       <c r="G158" t="n">
+        <v>5.728666666666665</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.80716666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6151,22 +6815,21 @@
         <v>243221.9626</v>
       </c>
       <c r="G159" t="n">
+        <v>5.727999999999998</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.803333333333327</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6190,22 +6853,21 @@
         <v>5000</v>
       </c>
       <c r="G160" t="n">
+        <v>5.719333333333332</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.799499999999994</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6229,22 +6891,21 @@
         <v>5000</v>
       </c>
       <c r="G161" t="n">
+        <v>5.712666666666665</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.795333333333327</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,22 +6929,21 @@
         <v>5000</v>
       </c>
       <c r="G162" t="n">
+        <v>5.705999999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.790666666666661</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6307,22 +6967,21 @@
         <v>14448.0429</v>
       </c>
       <c r="G163" t="n">
+        <v>5.701999999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.788166666666661</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,22 +7005,21 @@
         <v>15166.0817</v>
       </c>
       <c r="G164" t="n">
+        <v>5.697999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.786333333333328</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6385,22 +7043,21 @@
         <v>5000</v>
       </c>
       <c r="G165" t="n">
+        <v>5.691333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.782999999999993</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,22 +7081,21 @@
         <v>23519.6582</v>
       </c>
       <c r="G166" t="n">
+        <v>5.685999999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.779833333333327</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,22 +7119,21 @@
         <v>268.4533</v>
       </c>
       <c r="G167" t="n">
+        <v>5.685333333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.77716666666666</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,22 +7157,21 @@
         <v>124.0263</v>
       </c>
       <c r="G168" t="n">
+        <v>5.681999999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.77366666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,22 +7195,21 @@
         <v>118.0404</v>
       </c>
       <c r="G169" t="n">
+        <v>5.681333333333332</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.772333333333327</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6580,22 +7233,21 @@
         <v>17398</v>
       </c>
       <c r="G170" t="n">
+        <v>5.681333333333332</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.771499999999993</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,22 +7271,21 @@
         <v>5000</v>
       </c>
       <c r="G171" t="n">
+        <v>5.680666666666665</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.77066666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6658,22 +7309,21 @@
         <v>5112.938</v>
       </c>
       <c r="G172" t="n">
+        <v>5.676666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.769499999999993</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6697,22 +7347,21 @@
         <v>83651.0448</v>
       </c>
       <c r="G173" t="n">
+        <v>5.673333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.767833333333326</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6736,22 +7385,21 @@
         <v>25730.6049</v>
       </c>
       <c r="G174" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.765166666666659</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6775,22 +7423,21 @@
         <v>5000</v>
       </c>
       <c r="G175" t="n">
+        <v>5.661333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.762499999999993</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6814,22 +7461,21 @@
         <v>178136.4966</v>
       </c>
       <c r="G176" t="n">
+        <v>5.657333333333335</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.759499999999993</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,22 +7499,21 @@
         <v>46931.0918</v>
       </c>
       <c r="G177" t="n">
+        <v>5.649333333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>5.755833333333327</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,22 +7537,21 @@
         <v>10</v>
       </c>
       <c r="G178" t="n">
+        <v>5.645333333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>5.753499999999994</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6931,22 +7575,21 @@
         <v>192289.771</v>
       </c>
       <c r="G179" t="n">
+        <v>5.640666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>5.750499999999994</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6970,22 +7613,21 @@
         <v>15889.4743</v>
       </c>
       <c r="G180" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>5.747833333333327</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,22 +7651,21 @@
         <v>170301.3674</v>
       </c>
       <c r="G181" t="n">
+        <v>5.639333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>5.74516666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,22 +7689,21 @@
         <v>96.8318</v>
       </c>
       <c r="G182" t="n">
+        <v>5.636666666666668</v>
+      </c>
+      <c r="H182" t="n">
         <v>5.742499999999993</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7087,22 +7727,21 @@
         <v>20633.773</v>
       </c>
       <c r="G183" t="n">
+        <v>5.634000000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>5.739333333333326</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,22 +7765,21 @@
         <v>91.3356</v>
       </c>
       <c r="G184" t="n">
+        <v>5.634000000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>5.736999999999993</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7165,22 +7803,21 @@
         <v>118104.5042</v>
       </c>
       <c r="G185" t="n">
+        <v>5.636666666666668</v>
+      </c>
+      <c r="H185" t="n">
         <v>5.734333333333326</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,22 +7841,21 @@
         <v>86.6228</v>
       </c>
       <c r="G186" t="n">
+        <v>5.640666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>5.731999999999993</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7243,22 +7879,21 @@
         <v>5354.982</v>
       </c>
       <c r="G187" t="n">
+        <v>5.643333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>5.729499999999993</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,22 +7917,21 @@
         <v>38560.9314</v>
       </c>
       <c r="G188" t="n">
+        <v>5.646</v>
+      </c>
+      <c r="H188" t="n">
         <v>5.726333333333327</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7321,22 +7955,21 @@
         <v>34704.833</v>
       </c>
       <c r="G189" t="n">
+        <v>5.650666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>5.723333333333327</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7360,22 +7993,21 @@
         <v>251485.2527</v>
       </c>
       <c r="G190" t="n">
+        <v>5.654666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>5.72016666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7399,22 +8031,21 @@
         <v>90325.63400000001</v>
       </c>
       <c r="G191" t="n">
+        <v>5.655333333333332</v>
+      </c>
+      <c r="H191" t="n">
         <v>5.715833333333326</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7438,22 +8069,21 @@
         <v>3670.9447</v>
       </c>
       <c r="G192" t="n">
+        <v>5.659333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>5.71116666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7477,22 +8107,21 @@
         <v>24675.5347</v>
       </c>
       <c r="G193" t="n">
+        <v>5.658666666666665</v>
+      </c>
+      <c r="H193" t="n">
         <v>5.707166666666661</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7516,22 +8145,21 @@
         <v>2118.6306</v>
       </c>
       <c r="G194" t="n">
+        <v>5.657999999999999</v>
+      </c>
+      <c r="H194" t="n">
         <v>5.702499999999994</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7555,22 +8183,21 @@
         <v>71.4387</v>
       </c>
       <c r="G195" t="n">
+        <v>5.657333333333331</v>
+      </c>
+      <c r="H195" t="n">
         <v>5.698166666666661</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7594,22 +8221,21 @@
         <v>67.3897</v>
       </c>
       <c r="G196" t="n">
+        <v>5.656666666666665</v>
+      </c>
+      <c r="H196" t="n">
         <v>5.694333333333327</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7633,22 +8259,21 @@
         <v>64.03879999999999</v>
       </c>
       <c r="G197" t="n">
+        <v>5.657999999999998</v>
+      </c>
+      <c r="H197" t="n">
         <v>5.69116666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7672,22 +8297,21 @@
         <v>60.8377</v>
       </c>
       <c r="G198" t="n">
+        <v>5.659333333333331</v>
+      </c>
+      <c r="H198" t="n">
         <v>5.687833333333328</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,22 +8335,21 @@
         <v>203.221</v>
       </c>
       <c r="G199" t="n">
+        <v>5.654666666666665</v>
+      </c>
+      <c r="H199" t="n">
         <v>5.683833333333327</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7750,22 +8373,21 @@
         <v>58.1028</v>
       </c>
       <c r="G200" t="n">
+        <v>5.651333333333331</v>
+      </c>
+      <c r="H200" t="n">
         <v>5.680666666666661</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7789,22 +8411,21 @@
         <v>167956.1822</v>
       </c>
       <c r="G201" t="n">
+        <v>5.647333333333331</v>
+      </c>
+      <c r="H201" t="n">
         <v>5.677499999999994</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7828,22 +8449,21 @@
         <v>81730.60739999999</v>
       </c>
       <c r="G202" t="n">
+        <v>5.643333333333331</v>
+      </c>
+      <c r="H202" t="n">
         <v>5.674166666666661</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7867,22 +8487,21 @@
         <v>72411.5076</v>
       </c>
       <c r="G203" t="n">
+        <v>5.63933333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>5.671833333333328</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7906,22 +8525,21 @@
         <v>25853.441</v>
       </c>
       <c r="G204" t="n">
+        <v>5.636666666666665</v>
+      </c>
+      <c r="H204" t="n">
         <v>5.670499999999993</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,22 +8563,21 @@
         <v>66.0973</v>
       </c>
       <c r="G205" t="n">
+        <v>5.634666666666665</v>
+      </c>
+      <c r="H205" t="n">
         <v>5.667499999999993</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7984,22 +8601,21 @@
         <v>100</v>
       </c>
       <c r="G206" t="n">
+        <v>5.635999999999999</v>
+      </c>
+      <c r="H206" t="n">
         <v>5.665333333333327</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8023,22 +8639,21 @@
         <v>5000</v>
       </c>
       <c r="G207" t="n">
+        <v>5.638666666666666</v>
+      </c>
+      <c r="H207" t="n">
         <v>5.663333333333327</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8062,22 +8677,21 @@
         <v>20227.559</v>
       </c>
       <c r="G208" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H208" t="n">
         <v>5.661499999999993</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8101,22 +8715,21 @@
         <v>58532</v>
       </c>
       <c r="G209" t="n">
+        <v>5.641333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>5.659499999999993</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8140,22 +8753,21 @@
         <v>253339.9285</v>
       </c>
       <c r="G210" t="n">
+        <v>5.640666666666666</v>
+      </c>
+      <c r="H210" t="n">
         <v>5.657333333333327</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8179,22 +8791,21 @@
         <v>66196.0707</v>
       </c>
       <c r="G211" t="n">
+        <v>5.642</v>
+      </c>
+      <c r="H211" t="n">
         <v>5.655999999999993</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,22 +8829,21 @@
         <v>41873.055</v>
       </c>
       <c r="G212" t="n">
+        <v>5.638666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>5.654666666666659</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8257,22 +8867,21 @@
         <v>195106.5446</v>
       </c>
       <c r="G213" t="n">
+        <v>5.636666666666668</v>
+      </c>
+      <c r="H213" t="n">
         <v>5.652999999999992</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8296,22 +8905,21 @@
         <v>7320.8142</v>
       </c>
       <c r="G214" t="n">
+        <v>5.632666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>5.65066666666666</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8335,22 +8943,21 @@
         <v>2270.1358</v>
       </c>
       <c r="G215" t="n">
+        <v>5.631333333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>5.65016666666666</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8374,22 +8981,21 @@
         <v>88.8888</v>
       </c>
       <c r="G216" t="n">
+        <v>5.630000000000001</v>
+      </c>
+      <c r="H216" t="n">
         <v>5.64966666666666</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8413,22 +9019,21 @@
         <v>78.1112</v>
       </c>
       <c r="G217" t="n">
+        <v>5.629333333333335</v>
+      </c>
+      <c r="H217" t="n">
         <v>5.64816666666666</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8452,22 +9057,21 @@
         <v>10058.5409</v>
       </c>
       <c r="G218" t="n">
+        <v>5.628666666666669</v>
+      </c>
+      <c r="H218" t="n">
         <v>5.646833333333328</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8491,22 +9095,21 @@
         <v>168.5498</v>
       </c>
       <c r="G219" t="n">
+        <v>5.626666666666669</v>
+      </c>
+      <c r="H219" t="n">
         <v>5.64516666666666</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8530,22 +9133,21 @@
         <v>9572.909299999999</v>
       </c>
       <c r="G220" t="n">
+        <v>5.624666666666669</v>
+      </c>
+      <c r="H220" t="n">
         <v>5.643833333333328</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8569,22 +9171,21 @@
         <v>10</v>
       </c>
       <c r="G221" t="n">
+        <v>5.624000000000001</v>
+      </c>
+      <c r="H221" t="n">
         <v>5.64316666666666</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,22 +9209,21 @@
         <v>201.4184</v>
       </c>
       <c r="G222" t="n">
+        <v>5.623333333333335</v>
+      </c>
+      <c r="H222" t="n">
         <v>5.64266666666666</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8647,22 +9247,21 @@
         <v>553.2075</v>
       </c>
       <c r="G223" t="n">
+        <v>5.622000000000002</v>
+      </c>
+      <c r="H223" t="n">
         <v>5.641499999999994</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8686,22 +9285,21 @@
         <v>43980.6534</v>
       </c>
       <c r="G224" t="n">
+        <v>5.620666666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>5.64016666666666</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8725,22 +9323,21 @@
         <v>48657.0538</v>
       </c>
       <c r="G225" t="n">
+        <v>5.622000000000002</v>
+      </c>
+      <c r="H225" t="n">
         <v>5.639999999999994</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8764,22 +9361,21 @@
         <v>81315</v>
       </c>
       <c r="G226" t="n">
+        <v>5.619333333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>5.639333333333328</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8803,22 +9399,21 @@
         <v>28817.7389</v>
       </c>
       <c r="G227" t="n">
+        <v>5.620666666666668</v>
+      </c>
+      <c r="H227" t="n">
         <v>5.638499999999994</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8842,22 +9437,21 @@
         <v>271141.793</v>
       </c>
       <c r="G228" t="n">
+        <v>5.614666666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>5.636166666666662</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8881,22 +9475,21 @@
         <v>12</v>
       </c>
       <c r="G229" t="n">
+        <v>5.620000000000001</v>
+      </c>
+      <c r="H229" t="n">
         <v>5.635333333333327</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8920,22 +9513,21 @@
         <v>9999</v>
       </c>
       <c r="G230" t="n">
+        <v>5.621333333333334</v>
+      </c>
+      <c r="H230" t="n">
         <v>5.635166666666661</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8959,22 +9551,21 @@
         <v>43727.4161</v>
       </c>
       <c r="G231" t="n">
+        <v>5.617333333333334</v>
+      </c>
+      <c r="H231" t="n">
         <v>5.633833333333328</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8998,22 +9589,21 @@
         <v>139346.9141</v>
       </c>
       <c r="G232" t="n">
+        <v>5.613333333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>5.632333333333329</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9037,22 +9627,21 @@
         <v>194.6234</v>
       </c>
       <c r="G233" t="n">
+        <v>5.614</v>
+      </c>
+      <c r="H233" t="n">
         <v>5.631999999999995</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9076,22 +9665,21 @@
         <v>5000</v>
       </c>
       <c r="G234" t="n">
+        <v>5.614</v>
+      </c>
+      <c r="H234" t="n">
         <v>5.631999999999995</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9115,22 +9703,21 @@
         <v>100</v>
       </c>
       <c r="G235" t="n">
+        <v>5.614666666666666</v>
+      </c>
+      <c r="H235" t="n">
         <v>5.632166666666662</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9154,22 +9741,21 @@
         <v>5000</v>
       </c>
       <c r="G236" t="n">
+        <v>5.612666666666666</v>
+      </c>
+      <c r="H236" t="n">
         <v>5.631999999999995</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9193,22 +9779,21 @@
         <v>25282</v>
       </c>
       <c r="G237" t="n">
+        <v>5.611999999999998</v>
+      </c>
+      <c r="H237" t="n">
         <v>5.633333333333328</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9232,22 +9817,21 @@
         <v>148804.1059</v>
       </c>
       <c r="G238" t="n">
+        <v>5.612666666666666</v>
+      </c>
+      <c r="H238" t="n">
         <v>5.633333333333328</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,22 +9855,21 @@
         <v>11</v>
       </c>
       <c r="G239" t="n">
+        <v>5.615333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>5.633833333333328</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9310,22 +9893,21 @@
         <v>15000</v>
       </c>
       <c r="G240" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="H240" t="n">
         <v>5.633999999999995</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9349,22 +9931,21 @@
         <v>55000</v>
       </c>
       <c r="G241" t="n">
+        <v>5.619333333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>5.634333333333329</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9388,22 +9969,21 @@
         <v>5173.5159</v>
       </c>
       <c r="G242" t="n">
+        <v>5.620666666666666</v>
+      </c>
+      <c r="H242" t="n">
         <v>5.634499999999997</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9427,22 +10007,21 @@
         <v>63300</v>
       </c>
       <c r="G243" t="n">
+        <v>5.625333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>5.633999999999997</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9466,22 +10045,21 @@
         <v>8073.5469</v>
       </c>
       <c r="G244" t="n">
+        <v>5.624666666666666</v>
+      </c>
+      <c r="H244" t="n">
         <v>5.632999999999996</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9505,22 +10083,21 @@
         <v>164.8409</v>
       </c>
       <c r="G245" t="n">
+        <v>5.625999999999999</v>
+      </c>
+      <c r="H245" t="n">
         <v>5.632499999999997</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9544,22 +10121,21 @@
         <v>5000</v>
       </c>
       <c r="G246" t="n">
+        <v>5.630666666666666</v>
+      </c>
+      <c r="H246" t="n">
         <v>5.63133333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,22 +10159,21 @@
         <v>156.5989</v>
       </c>
       <c r="G247" t="n">
+        <v>5.637333333333332</v>
+      </c>
+      <c r="H247" t="n">
         <v>5.630833333333331</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9622,22 +10197,21 @@
         <v>17082.0487</v>
       </c>
       <c r="G248" t="n">
+        <v>5.637333333333332</v>
+      </c>
+      <c r="H248" t="n">
         <v>5.629833333333331</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9661,22 +10235,21 @@
         <v>148.772</v>
       </c>
       <c r="G249" t="n">
+        <v>5.639999999999998</v>
+      </c>
+      <c r="H249" t="n">
         <v>5.629333333333332</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9700,22 +10273,21 @@
         <v>141.3339</v>
       </c>
       <c r="G250" t="n">
+        <v>5.641999999999998</v>
+      </c>
+      <c r="H250" t="n">
         <v>5.628999999999999</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9739,22 +10311,21 @@
         <v>13062.5469</v>
       </c>
       <c r="G251" t="n">
+        <v>5.641999999999998</v>
+      </c>
+      <c r="H251" t="n">
         <v>5.628666666666665</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9778,22 +10349,21 @@
         <v>2511</v>
       </c>
       <c r="G252" t="n">
+        <v>5.643999999999997</v>
+      </c>
+      <c r="H252" t="n">
         <v>5.629499999999998</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9817,22 +10387,21 @@
         <v>3100</v>
       </c>
       <c r="G253" t="n">
+        <v>5.647999999999998</v>
+      </c>
+      <c r="H253" t="n">
         <v>5.630666666666666</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9856,22 +10425,21 @@
         <v>30727.7917</v>
       </c>
       <c r="G254" t="n">
+        <v>5.650666666666664</v>
+      </c>
+      <c r="H254" t="n">
         <v>5.631999999999999</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9895,22 +10463,21 @@
         <v>157010.3735</v>
       </c>
       <c r="G255" t="n">
+        <v>5.652666666666664</v>
+      </c>
+      <c r="H255" t="n">
         <v>5.632833333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,22 +10501,21 @@
         <v>43534.2341</v>
       </c>
       <c r="G256" t="n">
+        <v>5.650666666666664</v>
+      </c>
+      <c r="H256" t="n">
         <v>5.632833333333332</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9973,22 +10539,21 @@
         <v>5000</v>
       </c>
       <c r="G257" t="n">
+        <v>5.647999999999998</v>
+      </c>
+      <c r="H257" t="n">
         <v>5.631999999999999</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10012,22 +10577,21 @@
         <v>50545.3109</v>
       </c>
       <c r="G258" t="n">
+        <v>5.647333333333331</v>
+      </c>
+      <c r="H258" t="n">
         <v>5.630999999999998</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10051,22 +10615,21 @@
         <v>128.4608</v>
       </c>
       <c r="G259" t="n">
+        <v>5.646666666666665</v>
+      </c>
+      <c r="H259" t="n">
         <v>5.630999999999998</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10090,22 +10653,21 @@
         <v>21884.4087</v>
       </c>
       <c r="G260" t="n">
+        <v>5.643999999999999</v>
+      </c>
+      <c r="H260" t="n">
         <v>5.630666666666666</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10129,22 +10691,401 @@
         <v>5042.2579</v>
       </c>
       <c r="G261" t="n">
+        <v>5.643999999999999</v>
+      </c>
+      <c r="H261" t="n">
         <v>5.630499999999999</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C262" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D262" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F262" t="n">
+        <v>54838</v>
+      </c>
+      <c r="G262" t="n">
+        <v>5.641999999999999</v>
+      </c>
+      <c r="H262" t="n">
+        <v>5.630499999999999</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D263" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F263" t="n">
+        <v>252211.9843</v>
+      </c>
+      <c r="G263" t="n">
+        <v>5.645333333333332</v>
+      </c>
+      <c r="H263" t="n">
+        <v>5.631333333333332</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D264" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F264" t="n">
+        <v>561048.9436</v>
+      </c>
+      <c r="G264" t="n">
+        <v>5.646666666666666</v>
+      </c>
+      <c r="H264" t="n">
+        <v>5.631833333333333</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D265" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F265" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="G265" t="n">
+        <v>5.648</v>
+      </c>
+      <c r="H265" t="n">
+        <v>5.632333333333333</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C266" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D266" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F266" t="n">
+        <v>13.9084</v>
+      </c>
+      <c r="G266" t="n">
+        <v>5.652666666666667</v>
+      </c>
+      <c r="H266" t="n">
+        <v>5.632833333333334</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D267" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E267" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10816.9313</v>
+      </c>
+      <c r="G267" t="n">
+        <v>5.654</v>
+      </c>
+      <c r="H267" t="n">
+        <v>5.633333333333335</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D268" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E268" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F268" t="n">
+        <v>11953.7469</v>
+      </c>
+      <c r="G268" t="n">
+        <v>5.652666666666666</v>
+      </c>
+      <c r="H268" t="n">
+        <v>5.633833333333334</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C269" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D269" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E269" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F269" t="n">
+        <v>11</v>
+      </c>
+      <c r="G269" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="H269" t="n">
+        <v>5.634666666666669</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C270" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D270" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E270" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1857.6719</v>
+      </c>
+      <c r="G270" t="n">
+        <v>5.651333333333334</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5.635500000000002</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D271" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E271" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F271" t="n">
+        <v>813261.9279</v>
+      </c>
+      <c r="G271" t="n">
+        <v>5.654000000000001</v>
+      </c>
+      <c r="H271" t="n">
+        <v>5.635833333333336</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N329"/>
+  <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>5.36</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>5.36</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-927800.2966781075</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>5.36</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-896112.7604999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>5.39</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>-1012461.0605</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>5.4</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>5.39</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>5.4</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +757,21 @@
         <v>-1011330.0605</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>5.4</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +796,21 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>5.44</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +835,21 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>5.42</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +874,21 @@
         <v>-1088554.3908</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>5.42</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +913,21 @@
         <v>-1035034.8403</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>5.41</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +952,21 @@
         <v>-805449.6649999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>5.42</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +991,21 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>5.46</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1030,21 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>5.47</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1069,21 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>5.47</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,24 +1108,21 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>5.47</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,24 +1147,19 @@
         <v>-806377.0233999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,24 +1184,19 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,24 +1221,19 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,24 +1258,21 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>5.47</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,24 +1297,21 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>5.48</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,24 +1336,21 @@
         <v>-765994.6156999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>5.48</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,24 +1375,21 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>5.44</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1500,24 +1414,21 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>5.47</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1542,24 +1453,21 @@
         <v>-672974.4538829286</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>5.47</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1584,24 +1492,21 @@
         <v>-687974.4538829286</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>5.48</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,24 +1531,21 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>5.45</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1668,24 +1570,21 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>5.44</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1710,24 +1609,21 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
         <v>5.44</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1752,24 +1648,21 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>5.47</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1794,24 +1687,21 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>5.47</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,24 +1726,21 @@
         <v>-747364.9117829286</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>5.47</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,24 +1765,21 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>5.46</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,24 +1804,21 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>5.47</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1962,24 +1843,21 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
         <v>5.47</v>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2004,24 +1882,21 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>5.47</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2046,24 +1921,21 @@
         <v>-757297.6427829287</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>5.47</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2088,24 +1960,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>5.46</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2130,24 +1999,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>5.47</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2172,24 +2038,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>5.47</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2214,24 +2077,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>5.47</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2256,24 +2116,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>5.47</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,24 +2155,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
         <v>5.47</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2340,24 +2194,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>5.47</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2382,24 +2233,21 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
         <v>5.47</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2424,24 +2272,21 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
         <v>5.47</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2466,24 +2311,21 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
         <v>5.48</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2508,24 +2350,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
         <v>5.48</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2550,24 +2389,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
         <v>5.49</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2592,24 +2428,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
         <v>5.49</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2634,24 +2467,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
         <v>5.49</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2676,24 +2506,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>5.49</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2718,24 +2545,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>5.49</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2760,24 +2584,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>5.49</v>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2802,24 +2623,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
         <v>5.49</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2844,24 +2662,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
         <v>5.49</v>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2886,24 +2701,21 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
         <v>5.49</v>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2928,24 +2740,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
         <v>5.49</v>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2970,24 +2779,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
         <v>5.5</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3012,24 +2818,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
         <v>5.5</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3054,24 +2857,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
         <v>5.5</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3096,24 +2896,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
         <v>5.5</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3138,24 +2935,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
         <v>5.5</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3180,24 +2974,21 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>5.5</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3222,24 +3013,21 @@
         <v>-670414.5057449724</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>5.5</v>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3264,24 +3052,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
         <v>5.48</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3306,24 +3091,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>5.5</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3348,24 +3130,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>5.5</v>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3390,24 +3169,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>5.5</v>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3432,24 +3208,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>5.5</v>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3474,24 +3247,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>5.5</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3516,24 +3286,21 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>5.5</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3558,24 +3325,21 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>5.5</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3600,24 +3364,21 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>5.53</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3642,24 +3403,21 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>5.53</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3684,24 +3442,21 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>5.53</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3726,24 +3481,21 @@
         <v>-654770.4508449724</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>5.53</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3768,24 +3520,21 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>5.54</v>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3810,24 +3559,21 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>5.57</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3852,24 +3598,21 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>5.57</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3894,24 +3637,21 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>5.57</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3936,24 +3676,21 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>5.57</v>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3978,24 +3715,21 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
         <v>5.58</v>
       </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4020,24 +3754,21 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
         <v>5.58</v>
       </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4062,24 +3793,21 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
         <v>5.58</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4104,24 +3832,21 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>5.57</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4146,24 +3871,21 @@
         <v>-769550.2563449723</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
         <v>5.57</v>
       </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4188,24 +3910,21 @@
         <v>-819762.4044449723</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
         <v>5.55</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4230,24 +3949,21 @@
         <v>-1063536.520844972</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
         <v>5.54</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4272,24 +3988,21 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>5.5</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4314,24 +4027,21 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>5.54</v>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4356,24 +4066,21 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>5.54</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4398,24 +4105,21 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>5.54</v>
       </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4440,24 +4144,21 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>5.54</v>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4482,24 +4183,21 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>5.54</v>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4524,24 +4222,21 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>5.54</v>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4566,24 +4261,21 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>5.51</v>
       </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4608,24 +4300,21 @@
         <v>-1012046.347003817</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>5.51</v>
       </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4650,24 +4339,21 @@
         <v>-1059484.677103817</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>5.52</v>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4692,24 +4378,21 @@
         <v>-1059474.497103817</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
         <v>5.51</v>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4734,24 +4417,21 @@
         <v>-990874.9654626618</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>5.54</v>
       </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4776,24 +4456,21 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
         <v>5.55</v>
       </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4818,24 +4495,21 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>5.56</v>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4860,24 +4534,21 @@
         <v>-798657.5286626618</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
         <v>5.56</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4902,24 +4573,21 @@
         <v>-851200.8286626618</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>5.57</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4944,24 +4612,21 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>5.56</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4986,24 +4651,21 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>5.57</v>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5028,24 +4690,21 @@
         <v>-758761.0069626619</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>5.57</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5070,24 +4729,21 @@
         <v>-761261.0069626619</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>5.56</v>
       </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5112,24 +4768,21 @@
         <v>-763771.0069626619</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>5.55</v>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5154,24 +4807,21 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>5.54</v>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5196,24 +4846,21 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>5.55</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5238,24 +4885,21 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
         <v>5.55</v>
       </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5280,24 +4924,21 @@
         <v>-763669.8723626619</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>5.55</v>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5322,24 +4963,21 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
         <v>5.57</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5364,24 +5002,21 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
         <v>5.56</v>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5406,24 +5041,21 @@
         <v>-768471.2072626619</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
         <v>5.56</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5448,24 +5080,21 @@
         <v>-781251.7476626619</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
         <v>5.55</v>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5490,24 +5119,21 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
         <v>5.5</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5532,24 +5158,21 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
         <v>5.54</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5574,24 +5197,21 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
         <v>5.54</v>
       </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5616,24 +5236,21 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
         <v>5.54</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5658,24 +5275,21 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
         <v>5.55</v>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5700,24 +5314,21 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
         <v>5.55</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5742,24 +5353,21 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
         <v>5.55</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5784,24 +5392,21 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
         <v>5.57</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5826,24 +5431,21 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
         <v>5.57</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5868,24 +5470,19 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5910,24 +5507,19 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5952,24 +5544,19 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5996,20 +5583,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6036,20 +5620,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6076,20 +5657,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6116,20 +5694,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6156,20 +5731,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6196,20 +5768,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6236,20 +5805,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6276,20 +5842,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6316,20 +5879,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6356,20 +5916,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6396,20 +5953,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6436,20 +5990,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6474,22 +6025,17 @@
         <v>2551359.021419649</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6516,20 +6062,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6556,20 +6095,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6596,20 +6128,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6636,20 +6161,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6676,20 +6194,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6716,18 +6227,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L152" t="n">
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6752,18 +6258,15 @@
         <v>5718248.348619649</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6788,18 +6291,15 @@
         <v>6083065.624519649</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6824,18 +6324,15 @@
         <v>5063489.415119649</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6860,18 +6357,15 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6896,18 +6390,15 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6932,18 +6423,15 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6970,16 +6458,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7006,16 +6491,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7042,16 +6524,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7078,16 +6557,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7114,16 +6590,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7150,16 +6623,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7186,16 +6656,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7222,16 +6689,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7258,16 +6722,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7294,16 +6755,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7330,16 +6788,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7366,16 +6821,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7402,16 +6854,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7438,16 +6887,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7472,18 +6918,15 @@
         <v>4072555.305819649</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7510,16 +6953,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7544,18 +6984,15 @@
         <v>3937278.375019649</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7582,16 +7019,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7616,18 +7050,15 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7654,16 +7085,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7688,18 +7116,15 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7726,16 +7151,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7760,18 +7182,15 @@
         <v>3995645.778119648</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7796,18 +7215,15 @@
         <v>3945542.100619648</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7834,16 +7250,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7870,16 +7283,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7906,16 +7316,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7942,16 +7349,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7978,16 +7382,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8014,16 +7415,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8048,18 +7446,15 @@
         <v>4100237.322719648</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8086,16 +7481,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8120,18 +7512,15 @@
         <v>4078938.322719648</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8158,16 +7547,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8194,16 +7580,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8230,16 +7613,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8266,16 +7646,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8302,16 +7679,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8338,16 +7712,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8374,16 +7745,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8410,16 +7778,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8446,16 +7811,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8480,18 +7842,15 @@
         <v>3782923.181619647</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8518,16 +7877,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8552,18 +7908,15 @@
         <v>4386938.472719647</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8588,18 +7941,15 @@
         <v>4386367.867919647</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8624,18 +7974,15 @@
         <v>4386341.351519647</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8660,18 +8007,15 @@
         <v>4139447.997419647</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8696,18 +8040,15 @@
         <v>4144447.997419647</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8732,18 +8073,15 @@
         <v>4144447.997419647</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8768,18 +8106,15 @@
         <v>4139447.997419647</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8804,18 +8139,15 @@
         <v>4127483.590619647</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8840,18 +8172,15 @@
         <v>4127659.034819647</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8878,16 +8207,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8912,18 +8238,15 @@
         <v>3660476.132519647</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8948,18 +8271,15 @@
         <v>3660476.132519647</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8984,18 +8304,15 @@
         <v>3698566.067019647</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9022,16 +8339,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9056,18 +8370,15 @@
         <v>3875629.029719647</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9092,18 +8403,15 @@
         <v>3870629.029719647</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9130,16 +8438,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9166,16 +8471,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9202,16 +8504,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9238,16 +8537,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9274,16 +8570,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9310,16 +8603,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9346,16 +8636,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9382,16 +8669,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9418,16 +8702,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9454,16 +8735,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9490,16 +8768,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9526,16 +8801,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9562,16 +8834,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9598,16 +8867,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9632,18 +8898,15 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9668,18 +8931,15 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9704,18 +8964,15 @@
         <v>3795564.848919647</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9742,16 +8999,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9776,18 +9030,15 @@
         <v>3795574.848919647</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9812,18 +9063,15 @@
         <v>3811464.323219647</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9848,18 +9096,15 @@
         <v>3811464.323219647</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9886,16 +9131,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9922,16 +9164,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9958,16 +9197,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9994,16 +9230,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10030,16 +9263,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10066,16 +9296,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10102,16 +9329,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10138,16 +9362,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10174,16 +9395,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10210,16 +9428,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10246,16 +9461,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10282,16 +9494,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10318,16 +9527,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10354,16 +9560,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10390,16 +9593,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10426,16 +9626,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10462,16 +9659,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10498,16 +9692,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10534,16 +9725,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10570,16 +9758,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10606,16 +9791,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10642,16 +9824,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10678,16 +9857,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10714,16 +9890,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10750,16 +9923,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10786,16 +9956,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10822,16 +9989,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10858,16 +10022,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10894,16 +10055,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10930,16 +10088,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10966,16 +10121,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11002,16 +10154,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11038,16 +10187,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11074,16 +10220,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11110,16 +10253,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11146,16 +10286,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11182,16 +10319,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11218,16 +10352,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11254,16 +10385,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11290,16 +10418,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11326,16 +10451,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11362,16 +10484,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11398,16 +10517,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11434,16 +10550,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11470,16 +10583,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11506,16 +10616,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11542,16 +10649,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11578,16 +10682,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11614,16 +10715,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11650,16 +10748,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11686,16 +10781,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11722,16 +10814,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11758,16 +10847,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11794,16 +10880,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11830,16 +10913,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11866,16 +10946,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11902,16 +10979,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11938,16 +11012,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11974,16 +11045,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12010,16 +11078,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12046,16 +11111,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12082,16 +11144,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12118,16 +11177,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12154,16 +11210,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12190,16 +11243,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12226,16 +11276,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12262,16 +11309,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12298,16 +11342,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12334,16 +11375,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12370,16 +11408,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12406,16 +11441,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12442,16 +11474,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12478,16 +11507,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12514,16 +11540,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12550,16 +11573,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12586,16 +11606,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12622,16 +11639,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12658,16 +11672,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12694,16 +11705,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12730,16 +11738,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12766,16 +11771,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12802,16 +11804,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12838,16 +11837,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12874,16 +11870,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12910,16 +11903,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12946,16 +11936,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12982,16 +11969,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -13018,16 +12002,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13054,16 +12035,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -13090,18 +12068,15 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.36</v>
@@ -523,7 +523,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.36</v>
@@ -562,7 +562,7 @@
         <v>-927800.2966781075</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.36</v>
@@ -601,7 +601,7 @@
         <v>-896112.7604999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.39</v>
@@ -640,7 +640,7 @@
         <v>-1012461.0605</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.4</v>
@@ -679,7 +679,7 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.39</v>
@@ -718,7 +718,7 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5.4</v>
@@ -757,7 +757,7 @@
         <v>-1011330.0605</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.4</v>
@@ -796,7 +796,7 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.44</v>
@@ -835,7 +835,7 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.42</v>
@@ -874,7 +874,7 @@
         <v>-1088554.3908</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>5.42</v>
@@ -913,7 +913,7 @@
         <v>-1035034.8403</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.41</v>
@@ -952,7 +952,7 @@
         <v>-805449.6649999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5.42</v>
@@ -991,7 +991,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.46</v>
@@ -1030,7 +1030,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5.47</v>
@@ -1069,7 +1069,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.47</v>
@@ -1108,7 +1108,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>5.47</v>
@@ -1147,9 +1147,11 @@
         <v>-806377.0233999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1184,9 +1186,11 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1221,9 +1225,11 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1258,7 +1264,7 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5.47</v>
@@ -1297,7 +1303,7 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5.48</v>
@@ -1336,7 +1342,7 @@
         <v>-765994.6156999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>5.48</v>
@@ -1375,7 +1381,7 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>5.44</v>
@@ -1414,7 +1420,7 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>5.47</v>
@@ -1453,7 +1459,7 @@
         <v>-672974.4538829286</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>5.47</v>
@@ -1492,7 +1498,7 @@
         <v>-687974.4538829286</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5.48</v>
@@ -1531,7 +1537,7 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>5.45</v>
@@ -1570,7 +1576,7 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>5.44</v>
@@ -1609,7 +1615,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>5.44</v>
@@ -1648,7 +1654,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5.47</v>
@@ -1687,7 +1693,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>5.47</v>
@@ -1726,7 +1732,7 @@
         <v>-747364.9117829286</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.47</v>
@@ -1765,7 +1771,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.46</v>
@@ -1804,7 +1810,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5.47</v>
@@ -1843,7 +1849,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>5.47</v>
@@ -1882,7 +1888,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>5.47</v>
@@ -1921,7 +1927,7 @@
         <v>-757297.6427829287</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>5.47</v>
@@ -1960,7 +1966,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>5.46</v>
@@ -1999,7 +2005,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>5.47</v>
@@ -2038,7 +2044,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>5.47</v>
@@ -2077,7 +2083,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>5.47</v>
@@ -2116,7 +2122,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>5.47</v>
@@ -2155,7 +2161,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>5.47</v>
@@ -2194,7 +2200,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>5.47</v>
@@ -2233,7 +2239,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>5.47</v>
@@ -2272,7 +2278,7 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>5.47</v>
@@ -2311,7 +2317,7 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>5.48</v>
@@ -2350,7 +2356,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>5.48</v>
@@ -2389,7 +2395,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>5.49</v>
@@ -2428,7 +2434,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>5.49</v>
@@ -2467,7 +2473,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>5.49</v>
@@ -2506,7 +2512,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>5.49</v>
@@ -2545,7 +2551,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>5.49</v>
@@ -2584,7 +2590,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>5.49</v>
@@ -2623,7 +2629,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>5.49</v>
@@ -2662,7 +2668,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>5.49</v>
@@ -2701,7 +2707,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>5.49</v>
@@ -2740,7 +2746,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>5.49</v>
@@ -2779,7 +2785,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>5.5</v>
@@ -2818,7 +2824,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>5.5</v>
@@ -2857,7 +2863,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>5.5</v>
@@ -2896,7 +2902,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>5.5</v>
@@ -2935,7 +2941,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>5.5</v>
@@ -2974,7 +2980,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>5.5</v>
@@ -3013,7 +3019,7 @@
         <v>-670414.5057449724</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>5.5</v>
@@ -3052,7 +3058,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5.48</v>
@@ -3091,7 +3097,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>5.5</v>
@@ -3130,7 +3136,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>5.5</v>
@@ -3169,7 +3175,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>5.5</v>
@@ -3208,7 +3214,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>5.5</v>
@@ -3247,7 +3253,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>5.5</v>
@@ -3286,7 +3292,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>5.5</v>
@@ -3325,7 +3331,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>5.5</v>
@@ -3364,7 +3370,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>5.53</v>
@@ -3403,7 +3409,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>5.53</v>
@@ -3442,7 +3448,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>5.53</v>
@@ -3481,7 +3487,7 @@
         <v>-654770.4508449724</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>5.53</v>
@@ -3520,7 +3526,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>5.54</v>
@@ -3559,7 +3565,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>5.57</v>
@@ -3598,7 +3604,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>5.57</v>
@@ -3637,7 +3643,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>5.57</v>
@@ -3676,7 +3682,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>5.57</v>
@@ -3715,7 +3721,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>5.58</v>
@@ -3754,7 +3760,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>5.58</v>
@@ -3793,7 +3799,7 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>5.58</v>
@@ -3832,7 +3838,7 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>5.57</v>
@@ -3871,7 +3877,7 @@
         <v>-769550.2563449723</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>5.57</v>
@@ -3910,7 +3916,7 @@
         <v>-819762.4044449723</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>5.55</v>
@@ -3949,7 +3955,7 @@
         <v>-1063536.520844972</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>5.54</v>
@@ -3988,7 +3994,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>5.5</v>
@@ -4027,7 +4033,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>5.54</v>
@@ -4066,7 +4072,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>5.54</v>
@@ -4105,7 +4111,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>5.54</v>
@@ -4144,7 +4150,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>5.54</v>
@@ -4183,7 +4189,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>5.54</v>
@@ -4222,7 +4228,7 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>5.54</v>
@@ -4261,7 +4267,7 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>5.51</v>
@@ -4300,7 +4306,7 @@
         <v>-1012046.347003817</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>5.51</v>
@@ -4339,7 +4345,7 @@
         <v>-1059484.677103817</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>5.52</v>
@@ -4378,7 +4384,7 @@
         <v>-1059474.497103817</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>5.51</v>
@@ -4417,7 +4423,7 @@
         <v>-990874.9654626618</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>5.54</v>
@@ -4456,7 +4462,7 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>5.55</v>
@@ -4495,7 +4501,7 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>5.56</v>
@@ -4534,7 +4540,7 @@
         <v>-798657.5286626618</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>5.56</v>
@@ -4573,7 +4579,7 @@
         <v>-851200.8286626618</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>5.57</v>
@@ -4612,7 +4618,7 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>5.56</v>
@@ -4651,7 +4657,7 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>5.57</v>
@@ -4690,7 +4696,7 @@
         <v>-758761.0069626619</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>5.57</v>
@@ -4729,7 +4735,7 @@
         <v>-761261.0069626619</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>5.56</v>
@@ -4768,7 +4774,7 @@
         <v>-763771.0069626619</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>5.55</v>
@@ -4807,7 +4813,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>5.54</v>
@@ -4846,7 +4852,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>5.55</v>
@@ -4885,7 +4891,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>5.55</v>
@@ -4924,7 +4930,7 @@
         <v>-763669.8723626619</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>5.55</v>
@@ -4963,7 +4969,7 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>5.57</v>
@@ -5002,7 +5008,7 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>5.56</v>
@@ -5041,7 +5047,7 @@
         <v>-768471.2072626619</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>5.56</v>
@@ -5080,7 +5086,7 @@
         <v>-781251.7476626619</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>5.55</v>
@@ -5119,7 +5125,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>5.5</v>
@@ -5158,7 +5164,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>5.54</v>
@@ -5197,7 +5203,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>5.54</v>
@@ -5236,7 +5242,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>5.54</v>
@@ -5275,7 +5281,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>5.55</v>
@@ -5314,7 +5320,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>5.55</v>
@@ -5353,7 +5359,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>5.55</v>
@@ -5392,7 +5398,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>5.57</v>
@@ -5431,7 +5437,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>5.57</v>
@@ -5470,9 +5476,11 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5.57</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5507,9 +5515,11 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5.57</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5544,9 +5554,11 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5.58</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5581,9 +5593,11 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.58</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5618,9 +5632,11 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5.6</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5655,9 +5671,11 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.6</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5692,9 +5710,11 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5.6</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5729,9 +5749,11 @@
         <v>559570.5953196485</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.6</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5766,9 +5788,11 @@
         <v>2358049.935319649</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -6025,16 +6049,18 @@
         <v>2551359.021419649</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -6064,7 +6090,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6097,7 +6127,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6130,7 +6164,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6201,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6196,7 +6238,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6229,7 +6275,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6258,11 +6308,15 @@
         <v>5718248.348619649</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +6345,15 @@
         <v>6083065.624519649</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +6382,15 @@
         <v>5063489.415119649</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6419,15 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6456,15 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +6493,15 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6460,7 +6534,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6493,7 +6571,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6526,7 +6608,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6559,7 +6645,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6592,7 +6682,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6621,14 +6715,16 @@
         <v>4693343.782519649</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -6654,7 +6750,7 @@
         <v>4844433.986119648</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6687,7 +6783,7 @@
         <v>4886815.090419648</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6720,7 +6816,7 @@
         <v>4447894.774419649</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6753,7 +6849,7 @@
         <v>3433508.859719648</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6786,7 +6882,7 @@
         <v>3025512.537019649</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6819,7 +6915,7 @@
         <v>3554997.015919649</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6852,7 +6948,7 @@
         <v>3782045.775919649</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6885,7 +6981,7 @@
         <v>4072555.305819649</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6918,7 +7014,7 @@
         <v>4072555.305819649</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6951,7 +7047,7 @@
         <v>4335713.055119649</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6984,7 +7080,7 @@
         <v>3937278.375019649</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7017,7 +7113,7 @@
         <v>3884118.090019648</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7050,7 +7146,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7083,7 +7179,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7116,7 +7212,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7149,7 +7245,7 @@
         <v>3995634.778119648</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7182,7 +7278,7 @@
         <v>3995645.778119648</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7215,7 +7311,7 @@
         <v>3945542.100619648</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7248,7 +7344,7 @@
         <v>4585631.902219648</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7281,7 +7377,7 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7314,7 +7410,7 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7347,7 +7443,7 @@
         <v>4334760.173319648</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7446,7 +7542,7 @@
         <v>4100237.322719648</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7512,7 +7608,7 @@
         <v>4078938.322719648</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7644,7 +7740,7 @@
         <v>4120936.502119648</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7677,7 +7773,7 @@
         <v>4121158.154519648</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7710,7 +7806,7 @@
         <v>3987790.609919648</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7743,7 +7839,7 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7776,7 +7872,7 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7809,7 +7905,7 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7842,7 +7938,7 @@
         <v>3782923.181619647</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7875,7 +7971,7 @@
         <v>3775654.477419647</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7908,7 +8004,7 @@
         <v>4386938.472719647</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7941,7 +8037,7 @@
         <v>4386367.867919647</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7974,7 +8070,7 @@
         <v>4386341.351519647</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8007,7 +8103,7 @@
         <v>4139447.997419647</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8040,7 +8136,7 @@
         <v>4144447.997419647</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8073,7 +8169,7 @@
         <v>4144447.997419647</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8106,7 +8202,7 @@
         <v>4139447.997419647</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8139,7 +8235,7 @@
         <v>4127483.590619647</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8172,7 +8268,7 @@
         <v>4127659.034819647</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8205,7 +8301,7 @@
         <v>3931498.270019647</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8238,7 +8334,7 @@
         <v>3660476.132519647</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8271,7 +8367,7 @@
         <v>3660476.132519647</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8304,7 +8400,7 @@
         <v>3698566.067019647</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8337,7 +8433,7 @@
         <v>3632407.067119646</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8370,7 +8466,7 @@
         <v>3875629.029719647</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8403,7 +8499,7 @@
         <v>3870629.029719647</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8436,7 +8532,7 @@
         <v>3865629.029719647</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8469,7 +8565,7 @@
         <v>3860629.029719647</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8502,7 +8598,7 @@
         <v>3875077.072619647</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8535,7 +8631,7 @@
         <v>3890243.154319647</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8568,7 +8664,7 @@
         <v>3885243.154319647</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8601,7 +8697,7 @@
         <v>3885243.154319647</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8634,7 +8730,7 @@
         <v>3885511.607619647</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8667,7 +8763,7 @@
         <v>3885511.607619647</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8700,7 +8796,7 @@
         <v>3885511.607619647</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8733,7 +8829,7 @@
         <v>3868113.607619647</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8766,7 +8862,7 @@
         <v>3863113.607619647</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8799,7 +8895,7 @@
         <v>3868226.545619647</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8832,7 +8928,7 @@
         <v>3868226.545619647</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8865,7 +8961,7 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8898,7 +8994,7 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8931,7 +9027,7 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8964,7 +9060,7 @@
         <v>3795564.848919647</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9030,7 +9126,7 @@
         <v>3795574.848919647</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9063,7 +9159,7 @@
         <v>3811464.323219647</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9096,7 +9192,7 @@
         <v>3811464.323219647</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -12077,6 +12173,6 @@
       <c r="M329" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-927800.2966781075</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-896112.7604999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-1012461.0605</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-1011330.0605</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-1088554.3908</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-1035034.8403</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.41</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-805449.6649999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-806377.0233999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-765994.6156999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-672974.4538829286</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-687974.4538829286</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>-747364.9117829286</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1606,11 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1639,11 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1672,11 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1705,11 @@
         <v>-757297.6427829287</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1738,11 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1771,11 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1804,11 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1837,11 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1870,11 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2166,12 +1908,10 @@
       <c r="I46" t="n">
         <v>5.47</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2205,10 +1945,12 @@
       <c r="I47" t="n">
         <v>5.47</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.47</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2244,10 +1986,12 @@
       <c r="I48" t="n">
         <v>5.47</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.47</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2283,12 +2027,10 @@
       <c r="I49" t="n">
         <v>5.47</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2322,10 +2064,12 @@
       <c r="I50" t="n">
         <v>5.48</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.47</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2361,10 +2105,12 @@
       <c r="I51" t="n">
         <v>5.48</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.47</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2400,12 +2146,10 @@
       <c r="I52" t="n">
         <v>5.49</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2439,10 +2183,12 @@
       <c r="I53" t="n">
         <v>5.49</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2478,10 +2224,12 @@
       <c r="I54" t="n">
         <v>5.49</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2517,12 +2265,10 @@
       <c r="I55" t="n">
         <v>5.49</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2556,10 +2302,12 @@
       <c r="I56" t="n">
         <v>5.49</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2595,10 +2343,12 @@
       <c r="I57" t="n">
         <v>5.49</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2634,12 +2384,10 @@
       <c r="I58" t="n">
         <v>5.49</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2673,10 +2421,12 @@
       <c r="I59" t="n">
         <v>5.49</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2712,10 +2462,12 @@
       <c r="I60" t="n">
         <v>5.49</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2751,10 +2503,12 @@
       <c r="I61" t="n">
         <v>5.49</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2790,7 +2544,9 @@
       <c r="I62" t="n">
         <v>5.5</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,7 +2585,9 @@
       <c r="I63" t="n">
         <v>5.5</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,7 +2626,9 @@
       <c r="I64" t="n">
         <v>5.5</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2907,7 +2667,9 @@
       <c r="I65" t="n">
         <v>5.5</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,7 +2708,9 @@
       <c r="I66" t="n">
         <v>5.5</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2985,7 +2749,9 @@
       <c r="I67" t="n">
         <v>5.5</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3024,7 +2790,9 @@
       <c r="I68" t="n">
         <v>5.5</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3063,7 +2831,9 @@
       <c r="I69" t="n">
         <v>5.48</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,7 +2872,9 @@
       <c r="I70" t="n">
         <v>5.5</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3141,7 +2913,9 @@
       <c r="I71" t="n">
         <v>5.5</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3180,7 +2954,9 @@
       <c r="I72" t="n">
         <v>5.5</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,7 +2995,9 @@
       <c r="I73" t="n">
         <v>5.5</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,7 +3036,9 @@
       <c r="I74" t="n">
         <v>5.5</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,7 +3077,9 @@
       <c r="I75" t="n">
         <v>5.5</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,7 +3118,9 @@
       <c r="I76" t="n">
         <v>5.5</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,7 +3159,9 @@
       <c r="I77" t="n">
         <v>5.53</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,7 +3200,9 @@
       <c r="I78" t="n">
         <v>5.53</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,7 +3241,9 @@
       <c r="I79" t="n">
         <v>5.53</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,7 +3282,9 @@
       <c r="I80" t="n">
         <v>5.53</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,7 +3323,9 @@
       <c r="I81" t="n">
         <v>5.54</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,7 +3364,9 @@
       <c r="I82" t="n">
         <v>5.57</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,7 +3405,9 @@
       <c r="I83" t="n">
         <v>5.57</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,7 +3446,9 @@
       <c r="I84" t="n">
         <v>5.57</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,7 +3487,9 @@
       <c r="I85" t="n">
         <v>5.57</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,19 +3523,19 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.49</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>1.011393442622951</v>
       </c>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -3760,17 +3562,11 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3799,17 +3595,11 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3838,17 +3628,11 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3661,11 @@
         <v>-769550.2563449723</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3694,11 @@
         <v>-819762.4044449723</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3963,7 +3735,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -4657,20 +4429,16 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4696,17 +4464,11 @@
         <v>-758761.0069626619</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4735,17 +4497,11 @@
         <v>-761261.0069626619</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5.56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4774,17 +4530,11 @@
         <v>-763771.0069626619</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4813,17 +4563,11 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4852,17 +4596,11 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4891,17 +4629,11 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4930,17 +4662,11 @@
         <v>-763669.8723626619</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4969,17 +4695,11 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5008,17 +4728,11 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5047,17 +4761,11 @@
         <v>-768471.2072626619</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>5.56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5086,17 +4794,11 @@
         <v>-781251.7476626619</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5125,17 +4827,11 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5164,17 +4860,11 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5.54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5203,17 +4893,11 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5.54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5242,17 +4926,11 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5281,17 +4959,11 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5320,17 +4992,11 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5033,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -5593,11 +5259,9 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5749,11 +5413,9 @@
         <v>559570.5953196485</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5788,11 +5450,9 @@
         <v>2358049.935319649</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -6715,16 +6375,18 @@
         <v>4693343.782519649</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -6750,11 +6412,15 @@
         <v>4844433.986119648</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6783,11 +6449,15 @@
         <v>4886815.090419648</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6816,11 +6486,15 @@
         <v>4447894.774419649</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6849,11 +6523,15 @@
         <v>3433508.859719648</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6882,11 +6560,15 @@
         <v>3025512.537019649</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6915,11 +6597,15 @@
         <v>3554997.015919649</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +6634,15 @@
         <v>3782045.775919649</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6981,11 +6671,15 @@
         <v>4072555.305819649</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7014,11 +6708,15 @@
         <v>4072555.305819649</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7047,11 +6745,15 @@
         <v>4335713.055119649</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7080,11 +6782,15 @@
         <v>3937278.375019649</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7113,11 +6819,15 @@
         <v>3884118.090019648</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7146,11 +6856,15 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7179,11 +6893,15 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7212,11 +6930,15 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7245,11 +6967,15 @@
         <v>3995634.778119648</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +7004,15 @@
         <v>3995645.778119648</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7311,11 +7041,15 @@
         <v>3945542.100619648</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7344,11 +7078,15 @@
         <v>4585631.902219648</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +7115,15 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7410,11 +7152,15 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +7189,15 @@
         <v>4334760.173319648</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7480,7 +7230,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7513,7 +7267,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7546,7 +7304,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7579,7 +7341,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7612,7 +7378,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7645,7 +7415,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7678,7 +7452,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7711,7 +7489,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7740,11 +7522,15 @@
         <v>4120936.502119648</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7773,11 +7559,15 @@
         <v>4121158.154519648</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7806,11 +7596,15 @@
         <v>3987790.609919648</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7839,11 +7633,15 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7670,15 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7707,15 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7938,11 +7744,15 @@
         <v>3782923.181619647</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7971,11 +7781,15 @@
         <v>3775654.477419647</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +7818,15 @@
         <v>4386938.472719647</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8037,11 +7855,15 @@
         <v>4386367.867919647</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8070,11 +7892,15 @@
         <v>4386341.351519647</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8103,11 +7929,15 @@
         <v>4139447.997419647</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8136,11 +7966,15 @@
         <v>4144447.997419647</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +8003,15 @@
         <v>4144447.997419647</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8202,11 +8040,15 @@
         <v>4139447.997419647</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8235,11 +8077,15 @@
         <v>4127483.590619647</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8268,11 +8114,15 @@
         <v>4127659.034819647</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8301,11 +8151,15 @@
         <v>3931498.270019647</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8334,11 +8188,15 @@
         <v>3660476.132519647</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8367,11 +8225,15 @@
         <v>3660476.132519647</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +8262,15 @@
         <v>3698566.067019647</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8433,11 +8299,15 @@
         <v>3632407.067119646</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8466,11 +8336,15 @@
         <v>3875629.029719647</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8499,11 +8373,15 @@
         <v>3870629.029719647</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8532,11 +8410,15 @@
         <v>3865629.029719647</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8565,11 +8447,15 @@
         <v>3860629.029719647</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +8484,15 @@
         <v>3875077.072619647</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8631,11 +8521,15 @@
         <v>3890243.154319647</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8664,11 +8558,15 @@
         <v>3885243.154319647</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8697,11 +8595,15 @@
         <v>3885243.154319647</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8730,11 +8632,15 @@
         <v>3885511.607619647</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8669,15 @@
         <v>3885511.607619647</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8796,11 +8706,15 @@
         <v>3885511.607619647</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +8743,15 @@
         <v>3868113.607619647</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8862,11 +8780,15 @@
         <v>3863113.607619647</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8817,15 @@
         <v>3868226.545619647</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8928,11 +8854,15 @@
         <v>3868226.545619647</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8961,11 +8891,15 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8928,15 @@
         <v>3842495.940719647</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9031,7 +8969,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9064,7 +9006,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9097,7 +9043,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9130,7 +9080,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9163,7 +9117,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9196,7 +9154,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9229,7 +9191,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9262,7 +9228,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9295,7 +9265,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9328,7 +9302,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9361,7 +9339,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9394,7 +9376,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9427,7 +9413,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9460,7 +9450,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9493,7 +9487,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9526,7 +9524,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9559,7 +9561,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9592,7 +9598,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9625,7 +9635,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9658,7 +9672,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9691,7 +9709,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9724,7 +9746,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9757,7 +9783,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9790,7 +9820,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9823,7 +9857,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9856,7 +9894,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9889,7 +9931,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9922,7 +9968,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9955,7 +10005,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9988,7 +10042,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10021,7 +10079,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10054,7 +10116,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10087,7 +10153,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10120,7 +10190,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10149,14 +10223,16 @@
         <v>3131448.005419647</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -10182,7 +10258,7 @@
         <v>3197644.076119647</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10215,7 +10291,7 @@
         <v>3155771.021119647</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10248,7 +10324,7 @@
         <v>3350877.565719647</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10281,7 +10357,7 @@
         <v>3343556.751519647</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10512,7 +10588,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10545,7 +10621,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10644,7 +10720,7 @@
         <v>3393940.733619647</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10677,7 +10753,7 @@
         <v>3312625.733619647</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10710,7 +10786,7 @@
         <v>3341443.472519647</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10743,7 +10819,7 @@
         <v>3070301.679519647</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10776,7 +10852,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10809,7 +10885,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10842,7 +10918,7 @@
         <v>3026586.263419647</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11139,7 +11215,7 @@
         <v>2893369.780919647</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11172,7 +11248,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11205,7 +11281,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11271,7 +11347,7 @@
         <v>2893143.327819647</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11304,7 +11380,7 @@
         <v>2893308.168719647</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11337,7 +11413,7 @@
         <v>2888308.168719647</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11436,7 +11512,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11469,7 +11545,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11502,7 +11578,7 @@
         <v>2858468.944019647</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11535,7 +11611,7 @@
         <v>2860979.944019647</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11568,7 +11644,7 @@
         <v>2864079.944019647</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11601,7 +11677,7 @@
         <v>2894807.735719647</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11634,7 +11710,7 @@
         <v>2737797.362219647</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11667,7 +11743,7 @@
         <v>2694263.128119647</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11700,7 +11776,7 @@
         <v>2689263.128119647</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11733,7 +11809,7 @@
         <v>2638717.817219647</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11799,7 +11875,7 @@
         <v>2638846.278019647</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11832,7 +11908,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11865,7 +11941,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11898,7 +11974,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11931,7 +12007,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11964,7 +12040,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12063,7 +12139,7 @@
         <v>2884146.773319647</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12096,7 +12172,7 @@
         <v>2884157.773319647</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12129,7 +12205,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12162,7 +12238,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12173,6 +12249,6 @@
       <c r="M329" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-927800.2966781075</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-896112.7604999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.39</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-1012461.0605</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.39</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-1011330.0605</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.44</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.42</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>-1088554.3908</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.42</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>-1035034.8403</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.41</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>-805449.6649999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.42</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,17 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1069,17 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1108,17 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1147,17 @@
         <v>-806377.0233999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,17 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,17 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1264,17 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1303,17 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1342,17 @@
         <v>-765994.6156999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1381,17 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.44</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1420,17 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1459,17 @@
         <v>-672974.4538829286</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1498,17 @@
         <v>-687974.4538829286</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.48</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1537,17 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.45</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1576,17 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.44</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1615,17 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.44</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1654,17 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1693,17 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1732,17 @@
         <v>-747364.9117829286</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1771,17 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1810,17 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1849,17 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1888,17 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1927,17 @@
         <v>-757297.6427829287</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1966,17 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2005,17 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2044,17 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2083,17 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2122,17 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.47</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1908,10 +2166,12 @@
       <c r="I46" t="n">
         <v>5.47</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1945,12 +2205,10 @@
       <c r="I47" t="n">
         <v>5.47</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.47</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1986,12 +2244,10 @@
       <c r="I48" t="n">
         <v>5.47</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.47</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2027,10 +2283,12 @@
       <c r="I49" t="n">
         <v>5.47</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2059,17 +2317,13 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2100,17 +2354,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2141,15 +2391,15 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2178,17 +2428,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2219,17 +2465,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2260,15 +2502,15 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2297,17 +2539,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2338,17 +2576,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2379,15 +2613,15 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2416,17 +2650,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2457,17 +2687,13 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2498,17 +2724,13 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2539,14 +2761,10 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2580,14 +2798,10 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2621,14 +2835,10 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,14 +2872,10 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,14 +2909,10 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,14 +2946,10 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,14 +2983,10 @@
         <v>-670414.5057449724</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,14 +3020,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2867,14 +3057,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,14 +3094,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2949,14 +3131,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,14 +3168,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3031,14 +3205,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,14 +3242,10 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,14 +3279,10 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,14 +3316,10 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,14 +3353,10 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3236,14 +3390,10 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,14 +3427,10 @@
         <v>-654770.4508449724</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,14 +3464,10 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3359,14 +3501,10 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3400,14 +3538,10 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,14 +3575,10 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,14 +3612,10 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3523,19 +3649,17 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.49</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.011393442622951</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -3562,11 +3686,15 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3595,11 +3723,15 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3760,15 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3661,11 +3797,15 @@
         <v>-769550.2563449723</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3834,15 @@
         <v>-819762.4044449723</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3727,15 +3871,13 @@
         <v>-1063536.520844972</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3766,11 +3908,9 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3805,11 +3945,9 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3844,11 +3982,9 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3883,11 +4019,9 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3922,11 +4056,9 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3961,11 +4093,9 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4000,11 +4130,9 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4039,11 +4167,9 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4078,11 +4204,9 @@
         <v>-1012046.347003817</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4117,11 +4241,9 @@
         <v>-1059484.677103817</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4156,11 +4278,9 @@
         <v>-1059474.497103817</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4195,11 +4315,9 @@
         <v>-990874.9654626618</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4234,11 +4352,9 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4273,11 +4389,9 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>5.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4312,11 +4426,9 @@
         <v>-798657.5286626618</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>5.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4351,11 +4463,9 @@
         <v>-851200.8286626618</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4390,11 +4500,9 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4429,16 +4537,18 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4464,11 +4574,15 @@
         <v>-758761.0069626619</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4611,15 @@
         <v>-761261.0069626619</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4648,15 @@
         <v>-763771.0069626619</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4685,15 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4722,15 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4759,15 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4796,15 @@
         <v>-763669.8723626619</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4833,15 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4870,15 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4907,15 @@
         <v>-768471.2072626619</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4794,11 +4944,15 @@
         <v>-781251.7476626619</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4981,15 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +5018,15 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +5055,15 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4926,11 +5092,15 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +5129,15 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4992,11 +5166,15 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5025,15 +5203,13 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -5064,11 +5240,9 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5103,11 +5277,9 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5142,11 +5314,9 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5181,11 +5351,9 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5220,11 +5388,9 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5259,7 +5425,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5296,11 +5462,9 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5335,11 +5499,9 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>5.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5374,11 +5536,9 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>5.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5413,7 +5573,7 @@
         <v>559570.5953196485</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5931,18 +6091,16 @@
         <v>6928607.218319649</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5968,15 +6126,11 @@
         <v>5718248.348619649</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6005,15 +6159,11 @@
         <v>6083065.624519649</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6042,15 +6192,11 @@
         <v>5063489.415119649</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6079,15 +6225,11 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6116,15 +6258,11 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6153,15 +6291,11 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6190,15 +6324,11 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6227,15 +6357,11 @@
         <v>5112129.383919649</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6264,15 +6390,11 @@
         <v>4895506.168619649</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6301,15 +6423,11 @@
         <v>4672060.739819649</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6338,15 +6456,11 @@
         <v>4693455.426319649</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6375,15 +6489,11 @@
         <v>4693343.782519649</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6412,15 +6522,11 @@
         <v>4844433.986119648</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6449,15 +6555,11 @@
         <v>4886815.090419648</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6486,15 +6588,11 @@
         <v>4447894.774419649</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6523,15 +6621,11 @@
         <v>3433508.859719648</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6564,11 +6658,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6601,11 +6691,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6724,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +6757,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6790,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6749,11 +6823,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6782,15 +6852,11 @@
         <v>3937278.375019649</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6819,15 +6885,11 @@
         <v>3884118.090019648</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6856,15 +6918,11 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6893,15 +6951,11 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6930,15 +6984,11 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6967,15 +7017,11 @@
         <v>3995634.778119648</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7004,15 +7050,11 @@
         <v>3995645.778119648</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7041,15 +7083,11 @@
         <v>3945542.100619648</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7078,15 +7116,11 @@
         <v>4585631.902219648</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7115,15 +7149,11 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7152,15 +7182,11 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7189,15 +7215,11 @@
         <v>4334760.173319648</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7226,15 +7248,11 @@
         <v>4093160.200619648</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7263,15 +7281,11 @@
         <v>4093160.200619648</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7300,15 +7314,11 @@
         <v>4100237.322719648</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7341,11 +7351,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +7384,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7411,15 +7413,11 @@
         <v>4155495.611219648</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7448,15 +7446,11 @@
         <v>4155495.611219648</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7485,15 +7479,11 @@
         <v>4120936.502119648</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7526,11 +7516,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7559,15 +7545,11 @@
         <v>4121158.154519648</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7596,15 +7578,11 @@
         <v>3987790.609919648</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7633,15 +7611,11 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7674,11 +7648,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7681,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7748,11 +7714,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7785,11 +7747,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7822,11 +7780,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7813,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7896,11 +7846,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +7879,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7970,11 +7912,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +7945,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +7978,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8081,11 +8011,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +8044,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8155,11 +8077,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8192,11 +8110,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8229,11 +8143,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +8176,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8303,11 +8209,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8340,11 +8242,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8377,11 +8275,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8414,11 +8308,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8451,11 +8341,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +8374,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8525,11 +8407,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8562,11 +8440,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8599,11 +8473,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8636,11 +8506,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8673,11 +8539,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +8572,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8747,11 +8605,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8784,11 +8638,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +8671,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +8704,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8737,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8770,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +8803,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9006,11 +8836,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +8869,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9080,11 +8902,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9117,11 +8935,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +8968,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +9001,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +9034,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +9067,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +9100,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9339,11 +9133,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9376,11 +9166,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9413,11 +9199,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +9232,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +9265,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9524,11 +9298,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9561,11 +9331,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +9364,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9635,11 +9397,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +9430,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +9463,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +9496,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9783,11 +9529,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9820,11 +9562,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +9595,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +9628,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9931,11 +9661,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +9694,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10005,11 +9727,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10042,11 +9760,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10079,11 +9793,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10116,11 +9826,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +9859,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10190,11 +9892,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10223,16 +9921,14 @@
         <v>3131448.005419647</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -10258,7 +9954,7 @@
         <v>3197644.076119647</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10291,7 +9987,7 @@
         <v>3155771.021119647</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10324,7 +10020,7 @@
         <v>3350877.565719647</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10357,7 +10053,7 @@
         <v>3343556.751519647</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10588,7 +10284,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10621,7 +10317,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10720,7 +10416,7 @@
         <v>3393940.733619647</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10753,7 +10449,7 @@
         <v>3312625.733619647</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10786,7 +10482,7 @@
         <v>3341443.472519647</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10819,7 +10515,7 @@
         <v>3070301.679519647</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10852,7 +10548,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10885,7 +10581,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10918,7 +10614,7 @@
         <v>3026586.263419647</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11215,7 +10911,7 @@
         <v>2893369.780919647</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11248,7 +10944,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11281,7 +10977,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11347,7 +11043,7 @@
         <v>2893143.327819647</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11380,7 +11076,7 @@
         <v>2893308.168719647</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11413,7 +11109,7 @@
         <v>2888308.168719647</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11512,7 +11208,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11545,7 +11241,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11578,7 +11274,7 @@
         <v>2858468.944019647</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11611,7 +11307,7 @@
         <v>2860979.944019647</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11644,7 +11340,7 @@
         <v>2864079.944019647</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11677,7 +11373,7 @@
         <v>2894807.735719647</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11710,7 +11406,7 @@
         <v>2737797.362219647</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11743,7 +11439,7 @@
         <v>2694263.128119647</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11776,7 +11472,7 @@
         <v>2689263.128119647</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11809,7 +11505,7 @@
         <v>2638717.817219647</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11875,7 +11571,7 @@
         <v>2638846.278019647</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11908,7 +11604,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11941,7 +11637,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11974,7 +11670,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12007,7 +11703,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12040,7 +11736,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12139,7 +11835,7 @@
         <v>2884146.773319647</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12172,7 +11868,7 @@
         <v>2884157.773319647</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12205,7 +11901,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12238,7 +11934,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>

--- a/BackTest/2019-10-12 BackTest FAB.xlsx
+++ b/BackTest/2019-10-12 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:L329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>17150.2194</v>
       </c>
       <c r="G2" t="n">
-        <v>-928250.7604999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>-928250.7604999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>5.36</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>9796.779</v>
       </c>
       <c r="G4" t="n">
-        <v>-928250.7604999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>5.36</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>450.4638218923933</v>
       </c>
       <c r="G5" t="n">
-        <v>-927800.2966781075</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>5.36</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>31687.53617810761</v>
       </c>
       <c r="G6" t="n">
-        <v>-896112.7604999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>5.39</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +617,21 @@
         <v>116348.3</v>
       </c>
       <c r="G7" t="n">
-        <v>-1012461.0605</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>5.4</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +653,21 @@
         <v>1111</v>
       </c>
       <c r="G8" t="n">
-        <v>-1011350.0605</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>5.39</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +689,21 @@
         <v>92858.8544</v>
       </c>
       <c r="G9" t="n">
-        <v>-1011350.0605</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>5.4</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +725,21 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>-1011330.0605</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>5.4</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +761,21 @@
         <v>76113.3303</v>
       </c>
       <c r="G11" t="n">
-        <v>-1087443.3908</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>5.44</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +797,21 @@
         <v>21671.4206</v>
       </c>
       <c r="G12" t="n">
-        <v>-1087443.3908</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
         <v>5.42</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +833,21 @@
         <v>1111</v>
       </c>
       <c r="G13" t="n">
-        <v>-1088554.3908</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
         <v>5.42</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +869,21 @@
         <v>53519.5505</v>
       </c>
       <c r="G14" t="n">
-        <v>-1035034.8403</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
         <v>5.41</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +905,21 @@
         <v>229585.1753</v>
       </c>
       <c r="G15" t="n">
-        <v>-805449.6649999999</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
         <v>5.42</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +941,21 @@
         <v>72.6416</v>
       </c>
       <c r="G16" t="n">
-        <v>-805377.0233999999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
         <v>5.46</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +977,21 @@
         <v>332828.0147</v>
       </c>
       <c r="G17" t="n">
-        <v>-805377.0233999999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +1013,19 @@
         <v>9149.049300000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-805377.0233999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +1047,21 @@
         <v>69.00360000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-805377.0233999999</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +1083,21 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>-806377.0233999999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1119,21 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>-806366.0233999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
         <v>5.46</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1155,21 @@
         <v>1828.1535</v>
       </c>
       <c r="G22" t="n">
-        <v>-806366.0233999999</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,24 +1191,19 @@
         <v>57116.0855</v>
       </c>
       <c r="G23" t="n">
-        <v>-749249.9378999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,24 +1225,21 @@
         <v>9882.846600000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-749249.9378999999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
         <v>5.48</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1339,24 +1261,21 @@
         <v>16744.6778</v>
       </c>
       <c r="G25" t="n">
-        <v>-765994.6156999998</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
         <v>5.48</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,24 +1297,21 @@
         <v>1854.6457</v>
       </c>
       <c r="G26" t="n">
-        <v>-764139.9699999999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
         <v>5.44</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1417,24 +1333,21 @@
         <v>159107.6782449726</v>
       </c>
       <c r="G27" t="n">
-        <v>-764139.9699999999</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1456,24 +1369,21 @@
         <v>91165.51611707122</v>
       </c>
       <c r="G28" t="n">
-        <v>-672974.4538829286</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1495,24 +1405,21 @@
         <v>15000</v>
       </c>
       <c r="G29" t="n">
-        <v>-687974.4538829286</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>5.48</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1534,24 +1441,21 @@
         <v>11209.6858</v>
       </c>
       <c r="G30" t="n">
-        <v>-699184.1396829286</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
         <v>5.45</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1573,24 +1477,21 @@
         <v>96368.00659999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-699184.1396829286</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
         <v>5.44</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,24 +1513,21 @@
         <v>45597.5904</v>
       </c>
       <c r="G32" t="n">
-        <v>-653586.5492829286</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
         <v>5.44</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1651,24 +1549,21 @@
         <v>59.159</v>
       </c>
       <c r="G33" t="n">
-        <v>-653586.5492829286</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1690,24 +1585,21 @@
         <v>45703.8391</v>
       </c>
       <c r="G34" t="n">
-        <v>-653586.5492829286</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1729,24 +1621,21 @@
         <v>93778.3625</v>
       </c>
       <c r="G35" t="n">
-        <v>-747364.9117829286</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1768,24 +1657,21 @@
         <v>67.20650000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-747297.7052829287</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
         <v>5.46</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1807,24 +1693,21 @@
         <v>3897.040529798903</v>
       </c>
       <c r="G37" t="n">
-        <v>-747297.7052829287</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1846,24 +1729,21 @@
         <v>1177.7776</v>
       </c>
       <c r="G38" t="n">
-        <v>-747297.7052829287</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1885,24 +1765,21 @@
         <v>495.0032</v>
       </c>
       <c r="G39" t="n">
-        <v>-747297.7052829287</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,24 +1801,21 @@
         <v>9999.9375</v>
       </c>
       <c r="G40" t="n">
-        <v>-757297.6427829287</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1963,24 +1837,21 @@
         <v>6302.0109</v>
       </c>
       <c r="G41" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
         <v>5.46</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2002,24 +1873,21 @@
         <v>128255.1188</v>
       </c>
       <c r="G42" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2041,24 +1909,21 @@
         <v>4622.4862</v>
       </c>
       <c r="G43" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2080,24 +1945,21 @@
         <v>57339.3717</v>
       </c>
       <c r="G44" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2119,24 +1981,21 @@
         <v>58078</v>
       </c>
       <c r="G45" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2158,24 +2017,21 @@
         <v>86504</v>
       </c>
       <c r="G46" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2197,24 +2053,21 @@
         <v>106765.6307</v>
       </c>
       <c r="G47" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2236,24 +2089,21 @@
         <v>50266.9104</v>
       </c>
       <c r="G48" t="n">
-        <v>-750995.6318829287</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2275,24 +2125,21 @@
         <v>53.2937</v>
       </c>
       <c r="G49" t="n">
-        <v>-750942.3381829286</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2314,22 +2161,21 @@
         <v>105.6569</v>
       </c>
       <c r="G50" t="n">
-        <v>-750942.3381829286</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2351,22 +2197,19 @@
         <v>71265.98243795621</v>
       </c>
       <c r="G51" t="n">
-        <v>-679676.3557449724</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2388,22 +2231,19 @@
         <v>58039.5373</v>
       </c>
       <c r="G52" t="n">
-        <v>-679676.3557449724</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2425,22 +2265,19 @@
         <v>98336</v>
       </c>
       <c r="G53" t="n">
-        <v>-679676.3557449724</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2462,22 +2299,21 @@
         <v>40000</v>
       </c>
       <c r="G54" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2499,22 +2335,21 @@
         <v>18076.3205</v>
       </c>
       <c r="G55" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2536,22 +2371,21 @@
         <v>27149.1803</v>
       </c>
       <c r="G56" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2573,22 +2407,21 @@
         <v>36.4298</v>
       </c>
       <c r="G57" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2610,22 +2443,21 @@
         <v>545.1730418943533</v>
       </c>
       <c r="G58" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2647,22 +2479,21 @@
         <v>7339.1621</v>
       </c>
       <c r="G59" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2684,22 +2515,21 @@
         <v>91.0746</v>
       </c>
       <c r="G60" t="n">
-        <v>-679676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2721,22 +2551,21 @@
         <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2758,22 +2587,21 @@
         <v>47.9272</v>
       </c>
       <c r="G62" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2795,22 +2623,21 @@
         <v>450</v>
       </c>
       <c r="G63" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2832,22 +2659,21 @@
         <v>62900.8991</v>
       </c>
       <c r="G64" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2869,22 +2695,21 @@
         <v>746.5454545454545</v>
       </c>
       <c r="G65" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2906,22 +2731,21 @@
         <v>787.9335</v>
       </c>
       <c r="G66" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2943,22 +2767,21 @@
         <v>740</v>
       </c>
       <c r="G67" t="n">
-        <v>-669676.3557449724</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2980,22 +2803,21 @@
         <v>738.15</v>
       </c>
       <c r="G68" t="n">
-        <v>-670414.5057449724</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3017,22 +2839,21 @@
         <v>41.0909</v>
       </c>
       <c r="G69" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3054,22 +2875,21 @@
         <v>733.6363636363636</v>
       </c>
       <c r="G70" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3091,22 +2911,21 @@
         <v>781.8386</v>
       </c>
       <c r="G71" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3128,22 +2947,21 @@
         <v>106935.0909</v>
       </c>
       <c r="G72" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3165,22 +2983,21 @@
         <v>166894.8181</v>
       </c>
       <c r="G73" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3202,22 +3019,21 @@
         <v>201341.5454</v>
       </c>
       <c r="G74" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3239,22 +3055,21 @@
         <v>32137.78663992383</v>
       </c>
       <c r="G75" t="n">
-        <v>-670373.4148449724</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3276,22 +3091,21 @@
         <v>2785.3687</v>
       </c>
       <c r="G76" t="n">
-        <v>-667588.0461449724</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3313,22 +3127,21 @@
         <v>81052.89539999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-667588.0461449724</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3350,22 +3163,21 @@
         <v>36.8896</v>
       </c>
       <c r="G78" t="n">
-        <v>-667588.0461449724</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3387,22 +3199,21 @@
         <v>2000</v>
       </c>
       <c r="G79" t="n">
-        <v>-667588.0461449724</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3424,22 +3235,21 @@
         <v>12817.5953</v>
       </c>
       <c r="G80" t="n">
-        <v>-654770.4508449724</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3461,22 +3271,21 @@
         <v>39957.6396</v>
       </c>
       <c r="G81" t="n">
-        <v>-614812.8112449724</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3498,22 +3307,21 @@
         <v>33.1418</v>
       </c>
       <c r="G82" t="n">
-        <v>-614812.8112449724</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3535,22 +3343,21 @@
         <v>31.4811</v>
       </c>
       <c r="G83" t="n">
-        <v>-614812.8112449724</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3572,22 +3379,21 @@
         <v>27115.4398</v>
       </c>
       <c r="G84" t="n">
-        <v>-614812.8112449724</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3609,22 +3415,21 @@
         <v>14888.2327</v>
       </c>
       <c r="G85" t="n">
-        <v>-599924.5785449723</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3646,22 +3451,21 @@
         <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>-599924.5785449723</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3683,22 +3487,21 @@
         <v>39968.6396</v>
       </c>
       <c r="G87" t="n">
-        <v>-599924.5785449723</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3720,22 +3523,21 @@
         <v>135925.1283</v>
       </c>
       <c r="G88" t="n">
-        <v>-735849.7068449723</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3757,22 +3559,21 @@
         <v>7433.980251346499</v>
       </c>
       <c r="G89" t="n">
-        <v>-735849.7068449723</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3794,22 +3595,21 @@
         <v>33700.5495</v>
       </c>
       <c r="G90" t="n">
-        <v>-769550.2563449723</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3831,22 +3631,21 @@
         <v>50212.1481</v>
       </c>
       <c r="G91" t="n">
-        <v>-819762.4044449723</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3868,22 +3667,21 @@
         <v>243774.1164</v>
       </c>
       <c r="G92" t="n">
-        <v>-1063536.520844972</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3905,22 +3703,21 @@
         <v>33</v>
       </c>
       <c r="G93" t="n">
-        <v>-1063503.520844972</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3942,22 +3739,21 @@
         <v>24033.5495</v>
       </c>
       <c r="G94" t="n">
-        <v>-1063503.520844972</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3979,22 +3775,21 @@
         <v>12896.7249</v>
       </c>
       <c r="G95" t="n">
-        <v>-1063503.520844972</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4016,22 +3811,21 @@
         <v>177.2563</v>
       </c>
       <c r="G96" t="n">
-        <v>-1063503.520844972</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4053,22 +3847,21 @@
         <v>9366.7168</v>
       </c>
       <c r="G97" t="n">
-        <v>-1063503.520844972</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4090,22 +3883,21 @@
         <v>87.9061</v>
       </c>
       <c r="G98" t="n">
-        <v>-1063503.520844972</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4127,22 +3919,21 @@
         <v>75346.99275884476</v>
       </c>
       <c r="G99" t="n">
-        <v>-1138850.513603817</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4164,22 +3955,21 @@
         <v>13280.0066</v>
       </c>
       <c r="G100" t="n">
-        <v>-1138850.513603817</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4201,22 +3991,21 @@
         <v>126804.1666</v>
       </c>
       <c r="G101" t="n">
-        <v>-1012046.347003817</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4238,22 +4027,21 @@
         <v>47438.3301</v>
       </c>
       <c r="G102" t="n">
-        <v>-1059484.677103817</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4275,22 +4063,21 @@
         <v>10.18</v>
       </c>
       <c r="G103" t="n">
-        <v>-1059474.497103817</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4312,22 +4099,21 @@
         <v>68599.53164115523</v>
       </c>
       <c r="G104" t="n">
-        <v>-990874.9654626618</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4349,22 +4135,21 @@
         <v>184717.4368</v>
       </c>
       <c r="G105" t="n">
-        <v>-806157.5286626618</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4386,22 +4171,21 @@
         <v>1000</v>
       </c>
       <c r="G106" t="n">
-        <v>-806157.5286626618</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4423,22 +4207,21 @@
         <v>7500</v>
       </c>
       <c r="G107" t="n">
-        <v>-798657.5286626618</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4460,22 +4243,21 @@
         <v>52543.3</v>
       </c>
       <c r="G108" t="n">
-        <v>-851200.8286626618</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4497,22 +4279,21 @@
         <v>98633.9317</v>
       </c>
       <c r="G109" t="n">
-        <v>-752566.8969626619</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4534,22 +4315,21 @@
         <v>14907.8994</v>
       </c>
       <c r="G110" t="n">
-        <v>-752566.8969626619</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4571,22 +4351,21 @@
         <v>6194.11</v>
       </c>
       <c r="G111" t="n">
-        <v>-758761.0069626619</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4608,22 +4387,21 @@
         <v>2500</v>
       </c>
       <c r="G112" t="n">
-        <v>-761261.0069626619</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4645,22 +4423,21 @@
         <v>2510</v>
       </c>
       <c r="G113" t="n">
-        <v>-763771.0069626619</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4682,22 +4459,21 @@
         <v>28.5135</v>
       </c>
       <c r="G114" t="n">
-        <v>-763742.4934626619</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4719,22 +4495,21 @@
         <v>179610.6306</v>
       </c>
       <c r="G115" t="n">
-        <v>-763742.4934626619</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4756,22 +4531,21 @@
         <v>12780.5405</v>
       </c>
       <c r="G116" t="n">
-        <v>-763742.4934626619</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4793,22 +4567,21 @@
         <v>72.6211</v>
       </c>
       <c r="G117" t="n">
-        <v>-763669.8723626619</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4830,22 +4603,21 @@
         <v>4769.0647</v>
       </c>
       <c r="G118" t="n">
-        <v>-768438.9370626619</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4867,22 +4639,21 @@
         <v>33.9118</v>
       </c>
       <c r="G119" t="n">
-        <v>-768438.9370626619</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4904,22 +4675,21 @@
         <v>32.2702</v>
       </c>
       <c r="G120" t="n">
-        <v>-768471.2072626619</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4941,22 +4711,21 @@
         <v>12780.5404</v>
       </c>
       <c r="G121" t="n">
-        <v>-781251.7476626619</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4978,22 +4747,21 @@
         <v>8148.528782310469</v>
       </c>
       <c r="G122" t="n">
-        <v>-773103.2188803515</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5015,22 +4783,21 @@
         <v>23</v>
       </c>
       <c r="G123" t="n">
-        <v>-773103.2188803515</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5052,22 +4819,21 @@
         <v>241457.9775176895</v>
       </c>
       <c r="G124" t="n">
-        <v>-773103.2188803515</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5089,22 +4855,21 @@
         <v>24.4504</v>
       </c>
       <c r="G125" t="n">
-        <v>-773078.7684803515</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5126,22 +4891,21 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>-773078.7684803515</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5163,22 +4927,21 @@
         <v>330</v>
       </c>
       <c r="G127" t="n">
-        <v>-773078.7684803515</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5200,22 +4963,21 @@
         <v>338074.1062</v>
       </c>
       <c r="G128" t="n">
-        <v>-435004.6622803516</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5237,22 +4999,21 @@
         <v>1022</v>
       </c>
       <c r="G129" t="n">
-        <v>-435004.6622803516</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5274,22 +5035,21 @@
         <v>131069.834</v>
       </c>
       <c r="G130" t="n">
-        <v>-435004.6622803516</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5311,22 +5071,21 @@
         <v>226600</v>
       </c>
       <c r="G131" t="n">
-        <v>-435004.6622803516</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5348,22 +5107,21 @@
         <v>600011</v>
       </c>
       <c r="G132" t="n">
-        <v>165006.3377196484</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5385,22 +5143,21 @@
         <v>2500</v>
       </c>
       <c r="G133" t="n">
-        <v>165006.3377196484</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5422,22 +5179,21 @@
         <v>5000</v>
       </c>
       <c r="G134" t="n">
-        <v>170006.3377196484</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5459,22 +5215,21 @@
         <v>2500</v>
       </c>
       <c r="G135" t="n">
-        <v>170006.3377196484</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5496,22 +5251,21 @@
         <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>170006.3377196484</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5533,22 +5287,21 @@
         <v>133.9285</v>
       </c>
       <c r="G137" t="n">
-        <v>170006.3377196484</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5570,22 +5323,21 @@
         <v>389564.2576</v>
       </c>
       <c r="G138" t="n">
-        <v>559570.5953196485</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5607,22 +5359,21 @@
         <v>1798479.34</v>
       </c>
       <c r="G139" t="n">
-        <v>2358049.935319649</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5644,22 +5395,21 @@
         <v>503472.3986</v>
       </c>
       <c r="G140" t="n">
-        <v>2861522.333919649</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5681,22 +5431,19 @@
         <v>294627.7715</v>
       </c>
       <c r="G141" t="n">
-        <v>2566894.562419649</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5718,22 +5465,19 @@
         <v>197605.775</v>
       </c>
       <c r="G142" t="n">
-        <v>2369288.787419649</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5755,22 +5499,19 @@
         <v>8145.726</v>
       </c>
       <c r="G143" t="n">
-        <v>2377434.513419649</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5792,22 +5533,19 @@
         <v>6854.274</v>
       </c>
       <c r="G144" t="n">
-        <v>2377434.513419649</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5829,22 +5567,19 @@
         <v>78605.72629999999</v>
       </c>
       <c r="G145" t="n">
-        <v>2456040.239719649</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5866,22 +5601,19 @@
         <v>95318.78170000001</v>
       </c>
       <c r="G146" t="n">
-        <v>2551359.021419649</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5903,22 +5635,19 @@
         <v>323684.5919</v>
       </c>
       <c r="G147" t="n">
-        <v>2875043.613319649</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5940,22 +5669,19 @@
         <v>354711.0434</v>
       </c>
       <c r="G148" t="n">
-        <v>3229754.656719649</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5977,22 +5703,19 @@
         <v>266757.5858</v>
       </c>
       <c r="G149" t="n">
-        <v>2962997.070919649</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6014,22 +5737,19 @@
         <v>33932</v>
       </c>
       <c r="G150" t="n">
-        <v>2962997.070919649</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6051,22 +5771,19 @@
         <v>2793103.6194</v>
       </c>
       <c r="G151" t="n">
-        <v>5756100.690319649</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6088,20 +5805,19 @@
         <v>1172506.528</v>
       </c>
       <c r="G152" t="n">
-        <v>6928607.218319649</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
       </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6123,18 +5839,17 @@
         <v>1210358.8697</v>
       </c>
       <c r="G153" t="n">
-        <v>5718248.348619649</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6156,18 +5871,15 @@
         <v>364817.2759</v>
       </c>
       <c r="G154" t="n">
-        <v>6083065.624519649</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6189,18 +5901,15 @@
         <v>1019576.2094</v>
       </c>
       <c r="G155" t="n">
-        <v>5063489.415119649</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6222,18 +5931,15 @@
         <v>57056.9688</v>
       </c>
       <c r="G156" t="n">
-        <v>5120546.383919649</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6255,18 +5961,15 @@
         <v>17515.1344</v>
       </c>
       <c r="G157" t="n">
-        <v>5120546.383919649</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6288,18 +5991,15 @@
         <v>21917</v>
       </c>
       <c r="G158" t="n">
-        <v>5098629.383919649</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6321,18 +6021,15 @@
         <v>564614.9271</v>
       </c>
       <c r="G159" t="n">
-        <v>5098629.383919649</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6354,18 +6051,15 @@
         <v>13500</v>
       </c>
       <c r="G160" t="n">
-        <v>5112129.383919649</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6387,18 +6081,15 @@
         <v>216623.2153</v>
       </c>
       <c r="G161" t="n">
-        <v>4895506.168619649</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6420,18 +6111,15 @@
         <v>223445.4288</v>
       </c>
       <c r="G162" t="n">
-        <v>4672060.739819649</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6453,18 +6141,15 @@
         <v>21394.6865</v>
       </c>
       <c r="G163" t="n">
-        <v>4693455.426319649</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6486,18 +6171,15 @@
         <v>111.6438</v>
       </c>
       <c r="G164" t="n">
-        <v>4693343.782519649</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6519,18 +6201,15 @@
         <v>151090.2036</v>
       </c>
       <c r="G165" t="n">
-        <v>4844433.986119648</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6552,18 +6231,15 @@
         <v>42381.1043</v>
       </c>
       <c r="G166" t="n">
-        <v>4886815.090419648</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6585,18 +6261,15 @@
         <v>438920.316</v>
       </c>
       <c r="G167" t="n">
-        <v>4447894.774419649</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6618,18 +6291,15 @@
         <v>1014385.9147</v>
       </c>
       <c r="G168" t="n">
-        <v>3433508.859719648</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6651,18 +6321,15 @@
         <v>407996.3227</v>
       </c>
       <c r="G169" t="n">
-        <v>3025512.537019649</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6684,18 +6351,15 @@
         <v>529484.4789</v>
       </c>
       <c r="G170" t="n">
-        <v>3554997.015919649</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6717,18 +6381,15 @@
         <v>227048.76</v>
       </c>
       <c r="G171" t="n">
-        <v>3782045.775919649</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6750,18 +6411,15 @@
         <v>290509.5299</v>
       </c>
       <c r="G172" t="n">
-        <v>4072555.305819649</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6783,18 +6441,15 @@
         <v>52101.8719</v>
       </c>
       <c r="G173" t="n">
-        <v>4072555.305819649</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6816,18 +6471,15 @@
         <v>263157.7493</v>
       </c>
       <c r="G174" t="n">
-        <v>4335713.055119649</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6849,18 +6501,15 @@
         <v>398434.6801</v>
       </c>
       <c r="G175" t="n">
-        <v>3937278.375019649</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6882,18 +6531,15 @@
         <v>53160.285</v>
       </c>
       <c r="G176" t="n">
-        <v>3884118.090019648</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6915,18 +6561,15 @@
         <v>60459.7372</v>
       </c>
       <c r="G177" t="n">
-        <v>3944577.827219648</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6948,18 +6591,15 @@
         <v>12575.5862</v>
       </c>
       <c r="G178" t="n">
-        <v>3944577.827219648</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6981,18 +6621,15 @@
         <v>21434.3926</v>
       </c>
       <c r="G179" t="n">
-        <v>3944577.827219648</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7014,18 +6651,15 @@
         <v>51056.9509</v>
       </c>
       <c r="G180" t="n">
-        <v>3995634.778119648</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7047,18 +6681,15 @@
         <v>11</v>
       </c>
       <c r="G181" t="n">
-        <v>3995645.778119648</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7080,18 +6711,15 @@
         <v>50103.6775</v>
       </c>
       <c r="G182" t="n">
-        <v>3945542.100619648</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7113,18 +6741,15 @@
         <v>640089.8016</v>
       </c>
       <c r="G183" t="n">
-        <v>4585631.902219648</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7146,18 +6771,15 @@
         <v>250941.4023</v>
       </c>
       <c r="G184" t="n">
-        <v>4334690.499919648</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7179,18 +6801,15 @@
         <v>129335.7675</v>
       </c>
       <c r="G185" t="n">
-        <v>4334690.499919648</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7212,18 +6831,15 @@
         <v>69.6734</v>
       </c>
       <c r="G186" t="n">
-        <v>4334760.173319648</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7245,18 +6861,15 @@
         <v>241599.9727</v>
       </c>
       <c r="G187" t="n">
-        <v>4093160.200619648</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7278,18 +6891,15 @@
         <v>20121.5728</v>
       </c>
       <c r="G188" t="n">
-        <v>4093160.200619648</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7311,18 +6921,15 @@
         <v>7077.1221</v>
       </c>
       <c r="G189" t="n">
-        <v>4100237.322719648</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7344,18 +6951,15 @@
         <v>11964.4067</v>
       </c>
       <c r="G190" t="n">
-        <v>4100237.322719648</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7377,18 +6981,15 @@
         <v>21299</v>
       </c>
       <c r="G191" t="n">
-        <v>4078938.322719648</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7410,18 +7011,15 @@
         <v>76557.2885</v>
       </c>
       <c r="G192" t="n">
-        <v>4155495.611219648</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7443,18 +7041,15 @@
         <v>5192.0203</v>
       </c>
       <c r="G193" t="n">
-        <v>4155495.611219648</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7476,18 +7071,15 @@
         <v>34559.1091</v>
       </c>
       <c r="G194" t="n">
-        <v>4120936.502119648</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7509,18 +7101,15 @@
         <v>6782.3136</v>
       </c>
       <c r="G195" t="n">
-        <v>4120936.502119648</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7542,18 +7131,15 @@
         <v>221.6524</v>
       </c>
       <c r="G196" t="n">
-        <v>4121158.154519648</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7575,18 +7161,15 @@
         <v>133367.5446</v>
       </c>
       <c r="G197" t="n">
-        <v>3987790.609919648</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7608,18 +7191,15 @@
         <v>111437.7241</v>
       </c>
       <c r="G198" t="n">
-        <v>3876352.885819647</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7641,18 +7221,15 @@
         <v>47048.71355060034</v>
       </c>
       <c r="G199" t="n">
-        <v>3876352.885819647</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7674,18 +7251,15 @@
         <v>3021.2692</v>
       </c>
       <c r="G200" t="n">
-        <v>3876352.885819647</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7707,18 +7281,15 @@
         <v>93429.70419999999</v>
       </c>
       <c r="G201" t="n">
-        <v>3782923.181619647</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7740,18 +7311,15 @@
         <v>7268.7042</v>
       </c>
       <c r="G202" t="n">
-        <v>3775654.477419647</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7773,18 +7341,15 @@
         <v>611283.9953</v>
       </c>
       <c r="G203" t="n">
-        <v>4386938.472719647</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7806,18 +7371,15 @@
         <v>570.6048</v>
       </c>
       <c r="G204" t="n">
-        <v>4386367.867919647</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7839,18 +7401,15 @@
         <v>26.5164</v>
       </c>
       <c r="G205" t="n">
-        <v>4386341.351519647</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7872,18 +7431,15 @@
         <v>246893.3541</v>
       </c>
       <c r="G206" t="n">
-        <v>4139447.997419647</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7905,18 +7461,15 @@
         <v>5000</v>
       </c>
       <c r="G207" t="n">
-        <v>4144447.997419647</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7938,18 +7491,15 @@
         <v>10737.3913</v>
       </c>
       <c r="G208" t="n">
-        <v>4144447.997419647</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7971,18 +7521,15 @@
         <v>5000</v>
       </c>
       <c r="G209" t="n">
-        <v>4139447.997419647</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8004,18 +7551,15 @@
         <v>11964.4068</v>
       </c>
       <c r="G210" t="n">
-        <v>4127483.590619647</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8037,18 +7581,15 @@
         <v>175.4442</v>
       </c>
       <c r="G211" t="n">
-        <v>4127659.034819647</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8070,18 +7611,15 @@
         <v>196160.7648</v>
       </c>
       <c r="G212" t="n">
-        <v>3931498.270019647</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8103,18 +7641,15 @@
         <v>271022.1375</v>
       </c>
       <c r="G213" t="n">
-        <v>3660476.132519647</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8136,18 +7671,15 @@
         <v>20720.3023</v>
       </c>
       <c r="G214" t="n">
-        <v>3660476.132519647</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8169,18 +7701,15 @@
         <v>38089.9345</v>
       </c>
       <c r="G215" t="n">
-        <v>3698566.067019647</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8202,18 +7731,15 @@
         <v>66158.9999</v>
       </c>
       <c r="G216" t="n">
-        <v>3632407.067119646</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8235,18 +7761,15 @@
         <v>243221.9626</v>
       </c>
       <c r="G217" t="n">
-        <v>3875629.029719647</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8268,18 +7791,15 @@
         <v>5000</v>
       </c>
       <c r="G218" t="n">
-        <v>3870629.029719647</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8301,18 +7821,15 @@
         <v>5000</v>
       </c>
       <c r="G219" t="n">
-        <v>3865629.029719647</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8334,18 +7851,15 @@
         <v>5000</v>
       </c>
       <c r="G220" t="n">
-        <v>3860629.029719647</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8367,18 +7881,15 @@
         <v>14448.0429</v>
       </c>
       <c r="G221" t="n">
-        <v>3875077.072619647</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8400,18 +7911,15 @@
         <v>15166.0817</v>
       </c>
       <c r="G222" t="n">
-        <v>3890243.154319647</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8433,18 +7941,15 @@
         <v>5000</v>
       </c>
       <c r="G223" t="n">
-        <v>3885243.154319647</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8466,18 +7971,15 @@
         <v>23519.6582</v>
       </c>
       <c r="G224" t="n">
-        <v>3885243.154319647</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8499,18 +8001,15 @@
         <v>268.4533</v>
       </c>
       <c r="G225" t="n">
-        <v>3885511.607619647</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8532,18 +8031,15 @@
         <v>124.0263</v>
       </c>
       <c r="G226" t="n">
-        <v>3885511.607619647</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8565,18 +8061,15 @@
         <v>118.0404</v>
       </c>
       <c r="G227" t="n">
-        <v>3885511.607619647</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8598,18 +8091,15 @@
         <v>17398</v>
       </c>
       <c r="G228" t="n">
-        <v>3868113.607619647</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8631,18 +8121,15 @@
         <v>5000</v>
       </c>
       <c r="G229" t="n">
-        <v>3863113.607619647</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +8151,15 @@
         <v>5112.938</v>
       </c>
       <c r="G230" t="n">
-        <v>3868226.545619647</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8697,18 +8181,15 @@
         <v>83651.0448</v>
       </c>
       <c r="G231" t="n">
-        <v>3868226.545619647</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8730,18 +8211,15 @@
         <v>25730.6049</v>
       </c>
       <c r="G232" t="n">
-        <v>3842495.940719647</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8763,18 +8241,15 @@
         <v>5000</v>
       </c>
       <c r="G233" t="n">
-        <v>3842495.940719647</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8796,18 +8271,15 @@
         <v>178136.4966</v>
       </c>
       <c r="G234" t="n">
-        <v>3842495.940719647</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8829,18 +8301,15 @@
         <v>46931.0918</v>
       </c>
       <c r="G235" t="n">
-        <v>3795564.848919647</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8862,18 +8331,15 @@
         <v>10</v>
       </c>
       <c r="G236" t="n">
-        <v>3795574.848919647</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8895,18 +8361,15 @@
         <v>192289.771</v>
       </c>
       <c r="G237" t="n">
-        <v>3795574.848919647</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8928,18 +8391,15 @@
         <v>15889.4743</v>
       </c>
       <c r="G238" t="n">
-        <v>3811464.323219647</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8961,18 +8421,15 @@
         <v>170301.3674</v>
       </c>
       <c r="G239" t="n">
-        <v>3811464.323219647</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8994,18 +8451,15 @@
         <v>96.8318</v>
       </c>
       <c r="G240" t="n">
-        <v>3811561.155019647</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9027,18 +8481,15 @@
         <v>20633.773</v>
       </c>
       <c r="G241" t="n">
-        <v>3811561.155019647</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9060,18 +8511,15 @@
         <v>91.3356</v>
       </c>
       <c r="G242" t="n">
-        <v>3811652.490619646</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9093,18 +8541,15 @@
         <v>118104.5042</v>
       </c>
       <c r="G243" t="n">
-        <v>3811652.490619646</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9126,18 +8571,15 @@
         <v>86.6228</v>
       </c>
       <c r="G244" t="n">
-        <v>3811739.113419646</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9159,18 +8601,15 @@
         <v>5354.982</v>
       </c>
       <c r="G245" t="n">
-        <v>3806384.131419647</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9192,18 +8631,15 @@
         <v>38560.9314</v>
       </c>
       <c r="G246" t="n">
-        <v>3806384.131419647</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9225,18 +8661,15 @@
         <v>34704.833</v>
       </c>
       <c r="G247" t="n">
-        <v>3806384.131419647</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9258,18 +8691,15 @@
         <v>251485.2527</v>
       </c>
       <c r="G248" t="n">
-        <v>3554898.878719646</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9291,18 +8721,15 @@
         <v>90325.63400000001</v>
       </c>
       <c r="G249" t="n">
-        <v>3464573.244719646</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9324,18 +8751,15 @@
         <v>3670.9447</v>
       </c>
       <c r="G250" t="n">
-        <v>3460902.300019647</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9357,18 +8781,15 @@
         <v>24675.5347</v>
       </c>
       <c r="G251" t="n">
-        <v>3460902.300019647</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9390,18 +8811,15 @@
         <v>2118.6306</v>
       </c>
       <c r="G252" t="n">
-        <v>3460902.300019647</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9423,18 +8841,15 @@
         <v>71.4387</v>
       </c>
       <c r="G253" t="n">
-        <v>3460973.738719646</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9456,18 +8871,15 @@
         <v>67.3897</v>
       </c>
       <c r="G254" t="n">
-        <v>3460973.738719646</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9489,18 +8901,15 @@
         <v>64.03879999999999</v>
       </c>
       <c r="G255" t="n">
-        <v>3461037.777519647</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9522,18 +8931,15 @@
         <v>60.8377</v>
       </c>
       <c r="G256" t="n">
-        <v>3461037.777519647</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9555,18 +8961,15 @@
         <v>203.221</v>
       </c>
       <c r="G257" t="n">
-        <v>3460834.556519647</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9588,18 +8991,15 @@
         <v>58.1028</v>
       </c>
       <c r="G258" t="n">
-        <v>3460892.659319647</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9621,18 +9021,15 @@
         <v>167956.1822</v>
       </c>
       <c r="G259" t="n">
-        <v>3460892.659319647</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9654,18 +9051,15 @@
         <v>81730.60739999999</v>
       </c>
       <c r="G260" t="n">
-        <v>3379162.051919647</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9687,18 +9081,15 @@
         <v>72411.5076</v>
       </c>
       <c r="G261" t="n">
-        <v>3379162.051919647</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9720,18 +9111,15 @@
         <v>25853.441</v>
       </c>
       <c r="G262" t="n">
-        <v>3405015.492919647</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9753,18 +9141,15 @@
         <v>66.0973</v>
       </c>
       <c r="G263" t="n">
-        <v>3405015.492919647</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9786,18 +9171,15 @@
         <v>100</v>
       </c>
       <c r="G264" t="n">
-        <v>3405015.492919647</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9819,18 +9201,15 @@
         <v>5000</v>
       </c>
       <c r="G265" t="n">
-        <v>3405015.492919647</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9852,18 +9231,15 @@
         <v>20227.559</v>
       </c>
       <c r="G266" t="n">
-        <v>3384787.933919647</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9885,18 +9261,15 @@
         <v>58532</v>
       </c>
       <c r="G267" t="n">
-        <v>3384787.933919647</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9918,18 +9291,15 @@
         <v>253339.9285</v>
       </c>
       <c r="G268" t="n">
-        <v>3131448.005419647</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9951,18 +9321,15 @@
         <v>66196.0707</v>
       </c>
       <c r="G269" t="n">
-        <v>3197644.076119647</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9984,18 +9351,15 @@
         <v>41873.055</v>
       </c>
       <c r="G270" t="n">
-        <v>3155771.021119647</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10017,18 +9381,15 @@
         <v>195106.5446</v>
       </c>
       <c r="G271" t="n">
-        <v>3350877.565719647</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10050,18 +9411,15 @@
         <v>7320.8142</v>
       </c>
       <c r="G272" t="n">
-        <v>3343556.751519647</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10083,18 +9441,15 @@
         <v>2270.1358</v>
       </c>
       <c r="G273" t="n">
-        <v>3345826.887319647</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10116,18 +9471,15 @@
         <v>88.8888</v>
       </c>
       <c r="G274" t="n">
-        <v>3345826.887319647</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10149,18 +9501,15 @@
         <v>78.1112</v>
       </c>
       <c r="G275" t="n">
-        <v>3345826.887319647</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10182,18 +9531,15 @@
         <v>10058.5409</v>
       </c>
       <c r="G276" t="n">
-        <v>3345826.887319647</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10215,18 +9561,15 @@
         <v>168.5498</v>
       </c>
       <c r="G277" t="n">
-        <v>3345826.887319647</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10248,18 +9591,15 @@
         <v>9572.909299999999</v>
       </c>
       <c r="G278" t="n">
-        <v>3345826.887319647</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10281,18 +9621,15 @@
         <v>10</v>
       </c>
       <c r="G279" t="n">
-        <v>3345836.887319647</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10314,18 +9651,15 @@
         <v>201.4184</v>
       </c>
       <c r="G280" t="n">
-        <v>3345836.887319647</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10347,18 +9681,15 @@
         <v>553.2075</v>
       </c>
       <c r="G281" t="n">
-        <v>3345283.679819647</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10380,18 +9711,15 @@
         <v>43980.6534</v>
       </c>
       <c r="G282" t="n">
-        <v>3345283.679819647</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10413,18 +9741,15 @@
         <v>48657.0538</v>
       </c>
       <c r="G283" t="n">
-        <v>3393940.733619647</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10446,18 +9771,15 @@
         <v>81315</v>
       </c>
       <c r="G284" t="n">
-        <v>3312625.733619647</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10479,18 +9801,15 @@
         <v>28817.7389</v>
       </c>
       <c r="G285" t="n">
-        <v>3341443.472519647</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10512,18 +9831,15 @@
         <v>271141.793</v>
       </c>
       <c r="G286" t="n">
-        <v>3070301.679519647</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10545,18 +9861,15 @@
         <v>12</v>
       </c>
       <c r="G287" t="n">
-        <v>3070313.679519647</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10578,18 +9891,15 @@
         <v>9999</v>
       </c>
       <c r="G288" t="n">
-        <v>3070313.679519647</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10611,18 +9921,15 @@
         <v>43727.4161</v>
       </c>
       <c r="G289" t="n">
-        <v>3026586.263419647</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10644,18 +9951,15 @@
         <v>139346.9141</v>
       </c>
       <c r="G290" t="n">
-        <v>3026586.263419647</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10677,18 +9981,15 @@
         <v>194.6234</v>
       </c>
       <c r="G291" t="n">
-        <v>3026780.886819647</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10710,18 +10011,15 @@
         <v>5000</v>
       </c>
       <c r="G292" t="n">
-        <v>3021780.886819647</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10743,18 +10041,15 @@
         <v>100</v>
       </c>
       <c r="G293" t="n">
-        <v>3021880.886819647</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10776,18 +10071,15 @@
         <v>5000</v>
       </c>
       <c r="G294" t="n">
-        <v>3016880.886819647</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10809,18 +10101,15 @@
         <v>25282</v>
       </c>
       <c r="G295" t="n">
-        <v>3042162.886819647</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10842,18 +10131,15 @@
         <v>148804.1059</v>
       </c>
       <c r="G296" t="n">
-        <v>2893358.780919647</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10875,18 +10161,15 @@
         <v>11</v>
       </c>
       <c r="G297" t="n">
-        <v>2893369.780919647</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10908,18 +10191,15 @@
         <v>15000</v>
       </c>
       <c r="G298" t="n">
-        <v>2893369.780919647</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10941,18 +10221,15 @@
         <v>55000</v>
       </c>
       <c r="G299" t="n">
-        <v>2948369.780919647</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10974,18 +10251,15 @@
         <v>5173.5159</v>
       </c>
       <c r="G300" t="n">
-        <v>2948369.780919647</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11007,18 +10281,15 @@
         <v>63300</v>
       </c>
       <c r="G301" t="n">
-        <v>2885069.780919647</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11040,18 +10311,15 @@
         <v>8073.5469</v>
       </c>
       <c r="G302" t="n">
-        <v>2893143.327819647</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11073,18 +10341,15 @@
         <v>164.8409</v>
       </c>
       <c r="G303" t="n">
-        <v>2893308.168719647</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11106,18 +10371,15 @@
         <v>5000</v>
       </c>
       <c r="G304" t="n">
-        <v>2888308.168719647</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11139,18 +10401,15 @@
         <v>156.5989</v>
       </c>
       <c r="G305" t="n">
-        <v>2888464.767619647</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11172,18 +10431,15 @@
         <v>17082.0487</v>
       </c>
       <c r="G306" t="n">
-        <v>2871382.718919647</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11205,18 +10461,15 @@
         <v>148.772</v>
       </c>
       <c r="G307" t="n">
-        <v>2871531.490919647</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11238,18 +10491,15 @@
         <v>141.3339</v>
       </c>
       <c r="G308" t="n">
-        <v>2871531.490919647</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11271,18 +10521,15 @@
         <v>13062.5469</v>
       </c>
       <c r="G309" t="n">
-        <v>2858468.944019647</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11304,18 +10551,15 @@
         <v>2511</v>
       </c>
       <c r="G310" t="n">
-        <v>2860979.944019647</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11337,18 +10581,15 @@
         <v>3100</v>
       </c>
       <c r="G311" t="n">
-        <v>2864079.944019647</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11370,18 +10611,15 @@
         <v>30727.7917</v>
       </c>
       <c r="G312" t="n">
-        <v>2894807.735719647</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11403,18 +10641,15 @@
         <v>157010.3735</v>
       </c>
       <c r="G313" t="n">
-        <v>2737797.362219647</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11436,18 +10671,15 @@
         <v>43534.2341</v>
       </c>
       <c r="G314" t="n">
-        <v>2694263.128119647</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11469,18 +10701,15 @@
         <v>5000</v>
       </c>
       <c r="G315" t="n">
-        <v>2689263.128119647</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11502,18 +10731,15 @@
         <v>50545.3109</v>
       </c>
       <c r="G316" t="n">
-        <v>2638717.817219647</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11535,18 +10761,15 @@
         <v>128.4608</v>
       </c>
       <c r="G317" t="n">
-        <v>2638846.278019647</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11568,18 +10791,15 @@
         <v>21884.4087</v>
       </c>
       <c r="G318" t="n">
-        <v>2638846.278019647</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11601,18 +10821,15 @@
         <v>5042.2579</v>
       </c>
       <c r="G319" t="n">
-        <v>2643888.535919647</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11634,18 +10851,15 @@
         <v>54838</v>
       </c>
       <c r="G320" t="n">
-        <v>2643888.535919647</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11667,18 +10881,15 @@
         <v>252211.9843</v>
       </c>
       <c r="G321" t="n">
-        <v>2896100.520219647</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11700,18 +10911,15 @@
         <v>561048.9436</v>
       </c>
       <c r="G322" t="n">
-        <v>2896100.520219647</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11733,18 +10941,15 @@
         <v>108.97</v>
       </c>
       <c r="G323" t="n">
-        <v>2896100.520219647</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11766,18 +10971,15 @@
         <v>13.9084</v>
       </c>
       <c r="G324" t="n">
-        <v>2896100.520219647</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11799,18 +11001,15 @@
         <v>10816.9313</v>
       </c>
       <c r="G325" t="n">
-        <v>2896100.520219647</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11832,18 +11031,15 @@
         <v>11953.7469</v>
       </c>
       <c r="G326" t="n">
-        <v>2884146.773319647</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11865,18 +11061,15 @@
         <v>11</v>
       </c>
       <c r="G327" t="n">
-        <v>2884157.773319647</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11898,18 +11091,15 @@
         <v>1857.6719</v>
       </c>
       <c r="G328" t="n">
-        <v>2882300.101419647</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11931,18 +11121,15 @@
         <v>813261.9279</v>
       </c>
       <c r="G329" t="n">
-        <v>2882300.101419647</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
